--- a/temp_doc/STS X XI 2024 GENAP/impor peserta ujian.xlsx
+++ b/temp_doc/STS X XI 2024 GENAP/impor peserta ujian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/STS X XI 2024 GENAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB168775-9775-4C45-B712-4D8C7889750D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150552F5-DD08-A143-BFB0-256AE5269206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{27161CB0-D36A-224C-8430-01DF8F3BE240}"/>
   </bookViews>
@@ -41,2377 +41,2377 @@
     <t>username,password,firstname,lastname,email,cohort1</t>
   </si>
   <si>
-    <t>STS261001AKL,STS2024SMKTH,ABDUL RAHMAN AS SAMI,(X AKL 1),STS261001AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261002AKL,STS2024SMKTH,AFRILIANI,(X AKL 1),STS261002AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261003AKL,STS2024SMKTH,AHMAD DWI ILHAM,(X AKL 1),STS261003AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261004AKL,STS2024SMKTH,AHMAD RASYA PRAYOGA,(X AKL 1),STS261004AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261005AKL,STS2024SMKTH,AJI PRASETIYO,(X AKL 1),STS261005AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261006AKL,STS2024SMKTH,ALDO PRATAMA,(X AKL 1),STS261006AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261007AKL,STS2024SMKTH,ALIF RAMADHONA,(X AKL 1),STS261007AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261008AKL,STS2024SMKTH,AMELIA ANGGRAENI,(X AKL 1),STS261008AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261009AKL,STS2024SMKTH,AQILLA RAFA AMELIA,(X AKL 1),STS261009AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261010AKL,STS2024SMKTH,AULIA AZIZAH,(X AKL 1),STS261010AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261011AKL,STS2024SMKTH,BAYU AJI PRATAMA,(X AKL 1),STS261011AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261012AKL,STS2024SMKTH,CESYAR RAMADHAN,(X AKL 1),STS261012AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261013AKL,STS2024SMKTH,CHELSEA NAFISA,(X AKL 1),STS261013AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261014AKL,STS2024SMKTH,DAVINA NAZILLA ZALFA,(X AKL 1),STS261014AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261015AKL,STS2024SMKTH,DEALOVA YOCHIKA,(X AKL 1),STS261015AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261016AKL,STS2024SMKTH,DELA NUR AZIZAH,(X AKL 1),STS261016AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261017AKL,STS2024SMKTH,DELLA PUSPITA SARI,(X AKL 1),STS261017AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261018AKL,STS2024SMKTH,DIKA JULISTIAN,(X AKL 1),STS261018AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261019AKL,STS2024SMKTH,EKA NOVIA ALYZKA,(X AKL 1),STS261019AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261020AKL,STS2024SMKTH,ELISABETH,(X AKL 1),STS261020AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261021AKL,STS2024SMKTH,ELSAH RAMADHANI,(X AKL 1),STS261021AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261022AKL,STS2024SMKTH,FAIZAL AKHMAD FAKHREZI,(X AKL 1),STS261022AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261023AKL,STS2024SMKTH,GILANG SAPUTRA,(X AKL 1),STS261023AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261024AKL,STS2024SMKTH,HANDOKO DWI OKTAVIANA,(X AKL 1),STS261024AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261025AKL,STS2024SMKTH,JULIA RAHMAWATI,(X AKL 1),STS261025AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261026AKL,STS2024SMKTH,KAILA ZAHRA,(X AKL 1),STS261026AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261027AKL,STS2024SMKTH,KHESYA HARYANTI,(X AKL 1),STS261027AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261028AKL,STS2024SMKTH,MALA RAMADANI,(X AKL 1),STS261028AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261029AKL,STS2024SMKTH,MEGA APRILIA ANGGREINI,(X AKL 1),STS261029AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261030AKL,STS2024SMKTH,MELISA NADIA PUTRI,(X AKL 1),STS261030AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261031AKL,STS2024SMKTH,MUHAMMAD KHOLIK,(X AKL 1),STS261031AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261032AKL,STS2024SMKTH,MUHAMMAD NUR ILHAM,(X AKL 1),STS261032AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261033AKL,STS2024SMKTH,PUSPITA ANGGRAENI MARETA,(X AKL 1),STS261033AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261034AKL,STS2024SMKTH,RAISYAH IRAWAN,(X AKL 1),STS261034AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261035AKL,STS2024SMKTH,RISKA AMELIA,(X AKL 1),STS261035AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261036AKL,STS2024SMKTH,SAGITA TRI CAHYANI,(X AKL 1),STS261036AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261037AKL,STS2024SMKTH,SALSA ARIESTY PRATAMA,(X AKL 1),STS261037AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261038AKL,STS2024SMKTH,SITI HANIIFAH,(X AKL 1),STS261038AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261039AKL,STS2024SMKTH,VIOLLETTE GABRIELA CHRISANTA,(X AKL 1),STS261039AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261040AKL,STS2024SMKTH,WIDYA LUTHFI,(X AKL 1),STS261040AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261041AKL,STS2024SMKTH,WILLIAM ELGIE FEDROSA,(X AKL 1),STS261041AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261042AKL,STS2024SMKTH,YENNY,(X AKL 1),STS261042AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261043AKL,STS2024SMKTH,ZAHARA,(X AKL 1),STS261043AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261044AKL,STS2024SMKTH,ZAHRA AL RIZKY ARTA,(X AKL 1),STS261044AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>STS261045AKL,STS2024SMKTH,ADITIYA FIRMANSYAH,(X AKL 2),STS261045AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261046AKL,STS2024SMKTH,AFIFAH PERWITA SARI,(X AKL 2),STS261046AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261047AKL,STS2024SMKTH,AHMAD MAULANA MARCEL,(X AKL 2),STS261047AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261048AKL,STS2024SMKTH,ANANG TRIYULIANTO,(X AKL 2),STS261048AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261049AKL,STS2024SMKTH,ANISAH FITRI,(X AKL 2),STS261049AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261050AKL,STS2024SMKTH,ARDI SAPUTRA,(X AKL 2),STS261050AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261051AKL,STS2024SMKTH,ARINI WULANDARI,(X AKL 2),STS261051AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261052AKL,STS2024SMKTH,DAMAR NOPRIANSAH,(X AKL 2),STS261052AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261053AKL,STS2024SMKTH,DEA SAFITRI,(X AKL 2),STS261053AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261054AKL,STS2024SMKTH,DEACY PUTRI AULIA,(X AKL 2),STS261054AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261055AKL,STS2024SMKTH,DEFAN AHMAD NURKHOLIS,(X AKL 2),STS261055AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261056AKL,STS2024SMKTH,DESLYANA SAFITRI,(X AKL 2),STS261056AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261057AKL,STS2024SMKTH,DEWI JULIANTI SAPITRI,(X AKL 2),STS261057AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261058AKL,STS2024SMKTH,DEWI SOFIA KUNUPUS,(X AKL 2),STS261058AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261059AKL,STS2024SMKTH,DWI SUSILAWATI,(X AKL 2),STS261059AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261060AKL,STS2024SMKTH,FAHRY ARDIANSYAH,(X AKL 2),STS261060AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261061AKL,STS2024SMKTH,GHEA PEBRIANA,(X AKL 2),STS261061AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261062AKL,STS2024SMKTH,HENNY KALINA,(X AKL 2),STS261062AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261063AKL,STS2024SMKTH,HILAL RAMDHANI,(X AKL 2),STS261063AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261064AKL,STS2024SMKTH,KEYSA PUTRI MELANDRI,(X AKL 2),STS261064AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261065AKL,STS2024SMKTH,M FERZIANSYAH SAPUTRA,(X AKL 2),STS261065AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261066AKL,STS2024SMKTH,MARSYA HALWA MARITZA,(X AKL 2),STS261066AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261067AKL,STS2024SMKTH,MELIFTIANI,(X AKL 2),STS261067AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261068AKL,STS2024SMKTH,MUHAMAD FAHREZY FAIRUS,(X AKL 2),STS261068AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261069AKL,STS2024SMKTH,MUHAMAD RIZAL YUSWANTO,(X AKL 2),STS261069AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261070AKL,STS2024SMKTH,MUHAMMAD FAHRIF,(X AKL 2),STS261070AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261071AKL,STS2024SMKTH,MUHAMMAD RIFALDIANSYAH,(X AKL 2),STS261071AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261072AKL,STS2024SMKTH,NABILA DWI LESTARI,(X AKL 2),STS261072AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261073AKL,STS2024SMKTH,NAYNA MULYANI,(X AKL 2),STS261073AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261074AKL,STS2024SMKTH,NAZWA ZAENABO,(X AKL 2),STS261074AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261075AKL,STS2024SMKTH,NIKEISHA ANINDYA FAUZI,(X AKL 2),STS261075AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261076AKL,STS2024SMKTH,PANDE MANGOLOI PANDIANGAN,(X AKL 2),STS261076AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261077AKL,STS2024SMKTH,PANDU ANANG WIDODO SAPUTRA,(X AKL 2),STS261077AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261078AKL,STS2024SMKTH,PANJI ARYA PRASETYA,(X AKL 2),STS261078AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261079AKL,STS2024SMKTH,RAISHA NURDIANA,(X AKL 2),STS261079AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261080AKL,STS2024SMKTH,RASYA ARDIANSYAH,(X AKL 2),STS261080AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261081AKL,STS2024SMKTH,RENDI ARDIANSYAH,(X AKL 2),STS261081AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261082AKL,STS2024SMKTH,RISMA NUR INDAH LESTARI,(X AKL 2),STS261082AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261083AKL,STS2024SMKTH,RIZKA CAHAYA RAMADHAN,(X AKL 2),STS261083AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261084AKL,STS2024SMKTH,RYAN DWI ARDIANSYAH,(X AKL 2),STS261084AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261085AKL,STS2024SMKTH,SALMA NUR AISYAH,(X AKL 2),STS261085AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261086AKL,STS2024SMKTH,SALZADILA AVRIL PUTRI,(X AKL 2),STS261086AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261087AKL,STS2024SMKTH,SITI NURAINI,(X AKL 2),STS261087AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261088AKL,STS2024SMKTH,TIARA KUSUMA NINGRUM,(X AKL 2),STS261088AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261089AKL,STS2024SMKTH,WULAN DWI RAMADANI,(X AKL 2),STS261089AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261090AKL,STS2024SMKTH,ZALSA MAYSHA ADELLA,(X AKL 2),STS261090AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>STS261091DKV,STS2024SMKTH,ADAM MAULANA,(X DKV),STS261091DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261092DKV,STS2024SMKTH,ADITYA KRISNA DJAJA,(X DKV),STS261092DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261093DKV,STS2024SMKTH,ADITYA TANGGUH PRAMANA PUTRA,(X DKV),STS261093DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261094DKV,STS2024SMKTH,ADRIAN SANJAYA,(X DKV),STS261094DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261095DKV,STS2024SMKTH,ALIF APRILIYANSAH,(X DKV),STS261095DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261096DKV,STS2024SMKTH,CARRYN FEBRIANTY,(X DKV),STS261096DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261097DKV,STS2024SMKTH,CHRISTIAN JOSEPHINE,(X DKV),STS261097DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261098DKV,STS2024SMKTH,DAENG DALLE,(X DKV),STS261098DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261099DKV,STS2024SMKTH,DIRA PUTRI RAHMASARI,(X DKV),STS261099DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261100DKV,STS2024SMKTH,DJENAR MAHESA PUTRI,(X DKV),STS261100DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261101DKV,STS2024SMKTH,DWIKI JULIYANA,(X DKV),STS261101DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261102DKV,STS2024SMKTH,EKKLESIA FIRDA LIANA,(X DKV),STS261102DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261103DKV,STS2024SMKTH,ERIYANI RAHMA,(X DKV),STS261103DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261104DKV,STS2024SMKTH,EVAN AGUSTIAZ EFENDI,(X DKV),STS261104DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261105DKV,STS2024SMKTH,FAHRI AFRIANSYAH,(X DKV),STS261105DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261106DKV,STS2024SMKTH,FAHRI SEPTIAWAN,(X DKV),STS261106DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261107DKV,STS2024SMKTH,FARREL DWI IRWANTO,(X DKV),STS261107DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261108DKV,STS2024SMKTH,FITRI WULANDARI,(X DKV),STS261108DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261109DKV,STS2024SMKTH,FITRIA ROBBY ANI,(X DKV),STS261109DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261110DKV,STS2024SMKTH,HELMY KURNIAWAN,(X DKV),STS261110DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261111DKV,STS2024SMKTH,IQBAL HABIBALLAH,(X DKV),STS261111DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261112DKV,STS2024SMKTH,KIKI CAHYONO,(X DKV),STS261112DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261113DKV,STS2024SMKTH,MARCHO SIMON PETRUS BANU,(X DKV),STS261113DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261114DKV,STS2024SMKTH,MAULIDHA NUR IZATIN,(X DKV),STS261114DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261115DKV,STS2024SMKTH,MAULINDA DEWI,(X DKV),STS261115DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261116DKV,STS2024SMKTH,MUHAMAD ALFIAN,(X DKV),STS261116DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261117DKV,STS2024SMKTH,MUHAMAD ANGGA SURYA SAPUTRA,(X DKV),STS261117DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261118DKV,STS2024SMKTH,MUHAMAD BIAN NURHIKMAH,(X DKV),STS261118DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261119DKV,STS2024SMKTH,MUHAMAD RIDWAN,(X DKV),STS261119DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261120DKV,STS2024SMKTH,MUHAMMAD ALFATH,(X DKV),STS261120DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261121DKV,STS2024SMKTH,MUHAMMAD KHAIRI EL FUAD,(X DKV),STS261121DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261122DKV,STS2024SMKTH,MUHAMMAD ROSYAD PURNOMO,(X DKV),STS261122DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261123DKV,STS2024SMKTH,MUHAMMAD ZIDANE ALI CANTONA,(X DKV),STS261123DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261124DKV,STS2024SMKTH,NAILA ENJELITA,(X DKV),STS261124DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261125DKV,STS2024SMKTH,NATHANAEL MOSES SETIADY,(X DKV),STS261125DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261126DKV,STS2024SMKTH,NURAINI,(X DKV),STS261126DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261127DKV,STS2024SMKTH,RIDO SAPUTRO,(X DKV),STS261127DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261128DKV,STS2024SMKTH,SHANDITYA ALVARO,(X DKV),STS261128DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261129DKV,STS2024SMKTH,SISKA HANDAYANI,(X DKV),STS261129DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261130DKV,STS2024SMKTH,SUCI CANTIKA RAMADANI,(X DKV),STS261130DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261131DKV,STS2024SMKTH,SULLY,(X DKV),STS261131DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261132DKV,STS2024SMKTH,TRI AWALUDIN,(X DKV),STS261132DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261133DKV,STS2024SMKTH,UKASAH AL MUQRI ASSADUSI,(X DKV),STS261133DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261134DKV,STS2024SMKTH,VIOLA SASIKIRANA,(X DKV),STS261134DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261135DKV,STS2024SMKTH,ZAHRA APRILIA FAADHILAH,(X DKV),STS261135DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261136DKV,STS2024SMKTH,ZAKIRAH THALITA ZAHRAH,(X DKV),STS261136DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>STS261137MPLB,STS2024SMKTH,ADELLIA RISMA KIRANA,(X MPLB 1),STS261137MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261138MPLB,STS2024SMKTH,ALYA PUTRI NAZWA,(X MPLB 1),STS261138MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261139MPLB,STS2024SMKTH,ASTIA DESVITA,(X MPLB 1),STS261139MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261140MPLB,STS2024SMKTH,ASTRID OKTAVIA LESTARI,(X MPLB 1),STS261140MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261141MPLB,STS2024SMKTH,CINDY AYU AGUSTIENA,(X MPLB 1),STS261141MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261142MPLB,STS2024SMKTH,CINTA AURIA PUTRI MULYANA,(X MPLB 1),STS261142MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261143MPLB,STS2024SMKTH,DEFHINA FEBRIYAHYA,(X MPLB 1),STS261143MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261144MPLB,STS2024SMKTH,DELA SUSANTI,(X MPLB 1),STS261144MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261145MPLB,STS2024SMKTH,DINA ANGRAENI,(X MPLB 1),STS261145MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261146MPLB,STS2024SMKTH,DIVA SALSABILA,(X MPLB 1),STS261146MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261147MPLB,STS2024SMKTH,ENGGI AULIA AMANDA PUTRI,(X MPLB 1),STS261147MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261148MPLB,STS2024SMKTH,ERIN LARAS SATI,(X MPLB 1),STS261148MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261149MPLB,STS2024SMKTH,EVA PURNAMASARI,(X MPLB 1),STS261149MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261150MPLB,STS2024SMKTH,FAIRUZ MAULIDA FAIZ,(X MPLB 1),STS261150MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261151MPLB,STS2024SMKTH,FATDILAH ANGGI ROFITA,(X MPLB 1),STS261151MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261152MPLB,STS2024SMKTH,FEBBY AMRIYANI PUTRI,(X MPLB 1),STS261152MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261153MPLB,STS2024SMKTH,FIYANTIKA ERVI,(X MPLB 1),STS261153MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261154MPLB,STS2024SMKTH,GISELLA LUTFYA PRAMESTY,(X MPLB 1),STS261154MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261155MPLB,STS2024SMKTH,ICA AMELIA,(X MPLB 1),STS261155MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261156MPLB,STS2024SMKTH,IKA MEILANI PUTRI,(X MPLB 1),STS261156MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261157MPLB,STS2024SMKTH,INTAN CAHAYANI,(X MPLB 1),STS261157MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261158MPLB,STS2024SMKTH,KADEK DWI SEPTIANA,(X MPLB 1),STS261158MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261159MPLB,STS2024SMKTH,KAYLA AURELLIA LARISSA,(X MPLB 1),STS261159MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261160MPLB,STS2024SMKTH,KEISA SAFIRA,(X MPLB 1),STS261160MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261161MPLB,STS2024SMKTH,LAILA SYIFA,(X MPLB 1),STS261161MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261162MPLB,STS2024SMKTH,MARSHELLA ANDREANI SABU BADIN,(X MPLB 1),STS261162MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261163MPLB,STS2024SMKTH,MEYSA ARISMA NATALIA,(X MPLB 1),STS261163MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261164MPLB,STS2024SMKTH,MONICA RATNA ADELIA,(X MPLB 1),STS261164MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261165MPLB,STS2024SMKTH,MOZA LESTARI RAMADHANI,(X MPLB 1),STS261165MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261166MPLB,STS2024SMKTH,NADIA HIDAYAT,(X MPLB 1),STS261166MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261167MPLB,STS2024SMKTH,NAZWA AFIFAH,(X MPLB 1),STS261167MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261168MPLB,STS2024SMKTH,PUPUT AMEL LESTARI,(X MPLB 1),STS261168MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261169MPLB,STS2024SMKTH,PUTRI NADHIFAH RAMADHANI,(X MPLB 1),STS261169MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261170MPLB,STS2024SMKTH,PUTRI NAZWA LAMAHODA,(X MPLB 1),STS261170MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261171MPLB,STS2024SMKTH,PUTRI SALSABILLA,(X MPLB 1),STS261171MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261172MPLB,STS2024SMKTH,RAISYAH HANDAYANI,(X MPLB 1),STS261172MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261173MPLB,STS2024SMKTH,RANI ZUNIARDANA,(X MPLB 1),STS261173MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261174MPLB,STS2024SMKTH,RASYA SINTA DEWI,(X MPLB 1),STS261174MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261175MPLB,STS2024SMKTH,REGINA NURHAYATI,(X MPLB 1),STS261175MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261176MPLB,STS2024SMKTH,ROSDIANA,(X MPLB 1),STS261176MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261177MPLB,STS2024SMKTH,SITI ASSILLA FATIMAH,(X MPLB 1),STS261177MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261178MPLB,STS2024SMKTH,SRI MULYANINGRUM,(X MPLB 1),STS261178MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261179MPLB,STS2024SMKTH,SUCI SETYAWATI,(X MPLB 1),STS261179MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261180MPLB,STS2024SMKTH,TARA JESYIKA,(X MPLB 1),STS261180MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261181MPLB,STS2024SMKTH,WIWIN MUSTIKA SARI,(X MPLB 1),STS261181MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>STS261182MPLB,STS2024SMKTH,ADESIA PUTRI,(X MPLB 2),STS261182MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261183MPLB,STS2024SMKTH,ADHITA NAZHIRA,(X MPLB 2),STS261183MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261184MPLB,STS2024SMKTH,AFRINA NAFLAH SABIYA,(X MPLB 2),STS261184MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261185MPLB,STS2024SMKTH,AMELLIA FEBRIYANI,(X MPLB 2),STS261185MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261186MPLB,STS2024SMKTH,ANDINI HERYANTI,(X MPLB 2),STS261186MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261187MPLB,STS2024SMKTH,ANDINI SABELLA,(X MPLB 2),STS261187MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261188MPLB,STS2024SMKTH,ANNISA RAMADANI,(X MPLB 2),STS261188MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261189MPLB,STS2024SMKTH,ASSYIFA SALSA BILA,(X MPLB 2),STS261189MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261190MPLB,STS2024SMKTH,BELLA FEBRIYANA,(X MPLB 2),STS261190MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261191MPLB,STS2024SMKTH,CANTIKA DUWI PRATIWI,(X MPLB 2),STS261191MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261192MPLB,STS2024SMKTH,CICILIYA MELANI PUTRI WINATI,(X MPLB 2),STS261192MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261193MPLB,STS2024SMKTH,DIVA DESTIANA,(X MPLB 2),STS261193MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261194MPLB,STS2024SMKTH,EKA NORMA RAMADHANI,(X MPLB 2),STS261194MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261195MPLB,STS2024SMKTH,EKI TARSINI,(X MPLB 2),STS261195MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261196MPLB,STS2024SMKTH,ELSYA AULIYA,(X MPLB 2),STS261196MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261197MPLB,STS2024SMKTH,ERIKA LULU GHATHFAAN,(X MPLB 2),STS261197MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261198MPLB,STS2024SMKTH,FUTRIA KHALISA,(X MPLB 2),STS261198MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261199MPLB,STS2024SMKTH,INDAH NURZULIA,(X MPLB 2),STS261199MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261200MPLB,STS2024SMKTH,INDAH RAHMAWATI,(X MPLB 2),STS261200MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261201MPLB,STS2024SMKTH,INDAH TRI HAPSARI,(X MPLB 2),STS261201MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261202MPLB,STS2024SMKTH,INNEZ PUTRIA ABIDIN,(X MPLB 2),STS261202MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261203MPLB,STS2024SMKTH,KEISYA RAMADHANI,(X MPLB 2),STS261203MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261204MPLB,STS2024SMKTH,KEYLA FEBRIA,(X MPLB 2),STS261204MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261205MPLB,STS2024SMKTH,LUTFIYAH MAHIROH,(X MPLB 2),STS261205MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261206MPLB,STS2024SMKTH,LUTHFIYYATUN INKA PERMATASARI,(X MPLB 2),STS261206MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261207MPLB,STS2024SMKTH,MARINAH,(X MPLB 2),STS261207MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261208MPLB,STS2024SMKTH,MARTHASYA CANTIKA DEWI,(X MPLB 2),STS261208MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261209MPLB,STS2024SMKTH,MESYA,(X MPLB 2),STS261209MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261210MPLB,STS2024SMKTH,MUTHIA ZAHRAH,(X MPLB 2),STS261210MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261211MPLB,STS2024SMKTH,NABILA PUTRI RAMADHANI,(X MPLB 2),STS261211MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261212MPLB,STS2024SMKTH,NADEA ELMA PAKASI,(X MPLB 2),STS261212MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261213MPLB,STS2024SMKTH,NATASYA PUTRI CAHYANA,(X MPLB 2),STS261213MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261214MPLB,STS2024SMKTH,NELLA AGUSTINA,(X MPLB 2),STS261214MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261215MPLB,STS2024SMKTH,NOVA LILI HANDRAYANI,(X MPLB 2),STS261215MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261216MPLB,STS2024SMKTH,NOVA LINA ANJANI,(X MPLB 2),STS261216MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261217MPLB,STS2024SMKTH,PUTRI APRILIA ZAHRA,(X MPLB 2),STS261217MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261218MPLB,STS2024SMKTH,RACHMA ANNISA,(X MPLB 2),STS261218MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261219MPLB,STS2024SMKTH,RASYAH RACHMA SETIAWAN,(X MPLB 2),STS261219MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261220MPLB,STS2024SMKTH,REINATA PRIHATINI,(X MPLB 2),STS261220MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261221MPLB,STS2024SMKTH,RISNA HASANAH,(X MPLB 2),STS261221MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261222MPLB,STS2024SMKTH,SILVI MELANI PUTRI,(X MPLB 2),STS261222MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261223MPLB,STS2024SMKTH,SITI FATIMAH JULIANA,(X MPLB 2),STS261223MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261224MPLB,STS2024SMKTH,SULIS KASIH RAMADHANI,(X MPLB 2),STS261224MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261225MPLB,STS2024SMKTH,TARISA NURASIAH,(X MPLB 2),STS261225MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261226MPLB,STS2024SMKTH,THYNTA ASMARANI PUTRI,(X MPLB 2),STS261226MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>STS261227PM,STS2024SMKTH,AJENG KARTIKA CHANDRALIS PUTRI,(X PM),STS261227PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261228PM,STS2024SMKTH,AL RASYA TRI SAHLAN,(X PM),STS261228PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261229PM,STS2024SMKTH,ANDIKA,(X PM),STS261229PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261230PM,STS2024SMKTH,ANDRYANTO FEBRIANSYAH,(X PM),STS261230PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261231PM,STS2024SMKTH,ARIF FIRMANSYAH,(X PM),STS261231PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261232PM,STS2024SMKTH,AVRILIA ZAHRA,(X PM),STS261232PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261233PM,STS2024SMKTH,DEWITA MAHARANI,(X PM),STS261233PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261234PM,STS2024SMKTH,DINA LUDFIANA,(X PM),STS261234PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261235PM,STS2024SMKTH,DONI SAPUTRA,(X PM),STS261235PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261236PM,STS2024SMKTH,EGA ANANDA RENOTA,(X PM),STS261236PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261237PM,STS2024SMKTH,FAHRI ANDRIAWAN BAHTIAR,(X PM),STS261237PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261238PM,STS2024SMKTH,FAREL PANCA SENA,(X PM),STS261238PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261239PM,STS2024SMKTH,FRIDA RISTA MARTASA,(X PM),STS261239PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261240PM,STS2024SMKTH,GUNTUR RYANDI,(X PM),STS261240PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261241PM,STS2024SMKTH,HERDI ALFIYANSAH,(X PM),STS261241PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261242PM,STS2024SMKTH,KEVIN ROMAN SAPUTRA,(X PM),STS261242PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261243PM,STS2024SMKTH,KEYLA KEYSA UTAMI,(X PM),STS261243PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261244PM,STS2024SMKTH,KHARIZKA YULI AMELIA,(X PM),STS261244PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261245PM,STS2024SMKTH,LIDIA SULISTIAWATI,(X PM),STS261245PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261246PM,STS2024SMKTH,MUHAMAD ILHAM NURSYAHBANI,(X PM),STS261246PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261247PM,STS2024SMKTH,MUHAMAD RIDWAN,(X PM),STS261247PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261248PM,STS2024SMKTH,MUHAMMAD FAUZAN PRATAMA,(X PM),STS261248PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261249PM,STS2024SMKTH,NATASYA NATALIA,(X PM),STS261249PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261250PM,STS2024SMKTH,NIA DAMAYANTI,(X PM),STS261250PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261251PM,STS2024SMKTH,NUR AINI,(X PM),STS261251PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261252PM,STS2024SMKTH,NUR ALAMSYAH,(X PM),STS261252PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261253PM,STS2024SMKTH,PANDU ARYA PRATAMA,(X PM),STS261253PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261254PM,STS2024SMKTH,PUTRA EKA PRASETYO,(X PM),STS261254PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261255PM,STS2024SMKTH,PUTRI NUR ANJANI,(X PM),STS261255PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261256PM,STS2024SMKTH,REFANDI FERDIANSAH,(X PM),STS261256PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261257PM,STS2024SMKTH,REHAN INDRA PRATAMA,(X PM),STS261257PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261258PM,STS2024SMKTH,REVANI DWI RAHAYU,(X PM),STS261258PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261259PM,STS2024SMKTH,REYHAN ERLANGGA,(X PM),STS261259PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261260PM,STS2024SMKTH,REZA SATRIA KUSUMA,(X PM),STS261260PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261261PM,STS2024SMKTH,RIZKY PUTRA KURNIA,(X PM),STS261261PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261262PM,STS2024SMKTH,ROSA APRILIANI,(X PM),STS261262PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261263PM,STS2024SMKTH,SELLY SESILIA AL FIANTI,(X PM),STS261263PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261264PM,STS2024SMKTH,SEPTI RAHMADINI,(X PM),STS261264PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261265PM,STS2024SMKTH,SERLI AULIA,(X PM),STS261265PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261266PM,STS2024SMKTH,SHERLY CHAIRRUNNISA SETIAWAN,(X PM),STS261266PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261267PM,STS2024SMKTH,SYAFA ARUNA,(X PM),STS261267PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261268PM,STS2024SMKTH,TRI RAMADANI,(X PM),STS261268PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261269PM,STS2024SMKTH,WAHYU SAPUTRA,(X PM),STS261269PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261270PM,STS2024SMKTH,WINDA FAIDAH,(X PM),STS261270PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261271PM,STS2024SMKTH,WULAN RIYONO,(X PM),STS261271PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>STS261272TJKT,STS2024SMKTH,ABDUL MUHAMAD HAIR,(X TJKT 1),STS261272TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261273TJKT,STS2024SMKTH,ACHMAD RIDWAN,(X TJKT 1),STS261273TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261274TJKT,STS2024SMKTH,ALTAN NARENDRA FIRMANSYAH,(X TJKT 1),STS261274TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261275TJKT,STS2024SMKTH,ANDHIKA HERDIANA,(X TJKT 1),STS261275TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261276TJKT,STS2024SMKTH,ANDINI AULIA PUTRI,(X TJKT 1),STS261276TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261277TJKT,STS2024SMKTH,ANDREAN RAZYA ANNAVI,(X TJKT 1),STS261277TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261278TJKT,STS2024SMKTH,ANDRIAN WIJAYA,(X TJKT 1),STS261278TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261279TJKT,STS2024SMKTH,CINTA JULYA LARASATI,(X TJKT 1),STS261279TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261280TJKT,STS2024SMKTH,DAYAN PATTIH KHALAM,(X TJKT 1),STS261280TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261281TJKT,STS2024SMKTH,DECO ADI PRIYANDA,(X TJKT 1),STS261281TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261282TJKT,STS2024SMKTH,DICKI SAI HIKARU,(X TJKT 1),STS261282TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261283TJKT,STS2024SMKTH,FAJAR ARIASIH,(X TJKT 1),STS261283TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261284TJKT,STS2024SMKTH,FAJAR FATUR ROKHIM,(X TJKT 1),STS261284TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261285TJKT,STS2024SMKTH,FAKHRI SYAPUTRO,(X TJKT 1),STS261285TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261286TJKT,STS2024SMKTH,FARDAN IHZA RAMADHAN,(X TJKT 1),STS261286TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261287TJKT,STS2024SMKTH,FEBRIAN RACHMANSYAH,(X TJKT 1),STS261287TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261288TJKT,STS2024SMKTH,FERNANDO KUNARDI,(X TJKT 1),STS261288TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261289TJKT,STS2024SMKTH,GADING ALFARIZY,(X TJKT 1),STS261289TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261290TJKT,STS2024SMKTH,HAIKEL PRATAMA,(X TJKT 1),STS261290TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261291TJKT,STS2024SMKTH,IKCSAN RAMADHAN,(X TJKT 1),STS261291TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261292TJKT,STS2024SMKTH,MALIK AHMAD GUSTAVO,(X TJKT 1),STS261292TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261293TJKT,STS2024SMKTH,MARIO JENS TRIYULENS MANU,(X TJKT 1),STS261293TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261294TJKT,STS2024SMKTH,MUHAMAD ABIDZAR,(X TJKT 1),STS261294TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261295TJKT,STS2024SMKTH,MUHAMAD AKSAL ZILMANSAH,(X TJKT 1),STS261295TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261296TJKT,STS2024SMKTH,MUHAMAD FAZRUL MAULIDI,(X TJKT 1),STS261296TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261297TJKT,STS2024SMKTH,MUHAMAD NUR HIDAUYATTULOH,(X TJKT 1),STS261297TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261298TJKT,STS2024SMKTH,MUHAMMAD ABDUL RASYID,(X TJKT 1),STS261298TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261299TJKT,STS2024SMKTH,MUHAMMAD AIRIL SYAVA,(X TJKT 1),STS261299TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261300TJKT,STS2024SMKTH,MUHAMMAD FAIRUZ ADNAN,(X TJKT 1),STS261300TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261301TJKT,STS2024SMKTH,MUHAMMAD KHAFI RAMADANI,(X TJKT 1),STS261301TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261302TJKT,STS2024SMKTH,PUTRA NUR BIQI,(X TJKT 1),STS261302TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261303TJKT,STS2024SMKTH,RAFA RADITYA,(X TJKT 1),STS261303TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261304TJKT,STS2024SMKTH,RAFLI ARDY,(X TJKT 1),STS261304TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261305TJKT,STS2024SMKTH,RAMDHANI,(X TJKT 1),STS261305TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261306TJKT,STS2024SMKTH,RASYA RADITYA PRASETYO,(X TJKT 1),STS261306TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261307TJKT,STS2024SMKTH,REYKHAN APRIYANTO,(X TJKT 1),STS261307TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261308TJKT,STS2024SMKTH,RIAN CATUR PRASETIO,(X TJKT 1),STS261308TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261309TJKT,STS2024SMKTH,RICKO NOVA ARIANTO,(X TJKT 1),STS261309TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261310TJKT,STS2024SMKTH,RIDHO BINTANG SAPUTRA,(X TJKT 1),STS261310TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261311TJKT,STS2024SMKTH,RISZKI YUDA PRAKOSO,(X TJKT 1),STS261311TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261312TJKT,STS2024SMKTH,RIZKY HERDIAN,(X TJKT 1),STS261312TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261313TJKT,STS2024SMKTH,RYAN WIBOWO,(X TJKT 1),STS261313TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261314TJKT,STS2024SMKTH,SURYA TJANDRA WIJAYA,(X TJKT 1),STS261314TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261315TJKT,STS2024SMKTH,UMAR ABDULLAH,(X TJKT 1),STS261315TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261316TJKT,STS2024SMKTH,YULITA DIYATAMA,(X TJKT 1),STS261316TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261317TJKT,STS2024SMKTH,ZAKARIA NUR AKBAR,(X TJKT 1),STS261317TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>STS261318TJKT,STS2024SMKTH,ADITYA PRATAMA,(X TJKT 2),STS261318TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261319TJKT,STS2024SMKTH,AFIF AMMAR,(X TJKT 2),STS261319TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261320TJKT,STS2024SMKTH,AHMAD AFRIYANSYAH,(X TJKT 2),STS261320TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261321TJKT,STS2024SMKTH,AHMAD RIZKI KURNIAWAN,(X TJKT 2),STS261321TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261322TJKT,STS2024SMKTH,ANDHIKA SAPUTRA,(X TJKT 2),STS261322TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261323TJKT,STS2024SMKTH,ARDIANSYAH,(X TJKT 2),STS261323TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261324TJKT,STS2024SMKTH,ARI FEBIANSYAH,(X TJKT 2),STS261324TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261325TJKT,STS2024SMKTH,ARIANSYAH JANUWAR,(X TJKT 2),STS261325TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261326TJKT,STS2024SMKTH,BAGAS ARIANTO,(X TJKT 2),STS261326TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261327TJKT,STS2024SMKTH,BHAKTI ARI SETYAWAN,(X TJKT 2),STS261327TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261328TJKT,STS2024SMKTH,CAESAR KUBILAI KHAN,(X TJKT 2),STS261328TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261329TJKT,STS2024SMKTH,DANI RAMADHAN,(X TJKT 2),STS261329TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261330TJKT,STS2024SMKTH,DEMAZ YOKA,(X TJKT 2),STS261330TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261331TJKT,STS2024SMKTH,DICKY ADITYA AKBAR,(X TJKT 2),STS261331TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261332TJKT,STS2024SMKTH,DIMAS SETYAWAN,(X TJKT 2),STS261332TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261333TJKT,STS2024SMKTH,DIRGA PUTRA FIRMANSYAH,(X TJKT 2),STS261333TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261334TJKT,STS2024SMKTH,ERWIN MAULANA,(X TJKT 2),STS261334TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261335TJKT,STS2024SMKTH,FARIH KESIT,(X TJKT 2),STS261335TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261336TJKT,STS2024SMKTH,FATHIR ARISWIDYANATA,(X TJKT 2),STS261336TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261337TJKT,STS2024SMKTH,FAUZAN,(X TJKT 2),STS261337TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261338TJKT,STS2024SMKTH,FEBRI HARIYANTO,(X TJKT 2),STS261338TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261339TJKT,STS2024SMKTH,FYKI PRATAMA,(X TJKT 2),STS261339TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261340TJKT,STS2024SMKTH,GANI ADHARKA PUTRAWARDANA,(X TJKT 2),STS261340TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261341TJKT,STS2024SMKTH,ILHAM,(X TJKT 2),STS261341TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261342TJKT,STS2024SMKTH,LUTHFI DWI NOVANTO,(X TJKT 2),STS261342TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261343TJKT,STS2024SMKTH,MUHAMAD ABDUL ROSSI,(X TJKT 2),STS261343TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261344TJKT,STS2024SMKTH,MUHAMAD ALI FAUZAN,(X TJKT 2),STS261344TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261345TJKT,STS2024SMKTH,MUHAMAD AR RIDHO,(X TJKT 2),STS261345TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261346TJKT,STS2024SMKTH,MUHAMMAD ABHIZART FAHLEVI,(X TJKT 2),STS261346TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261347TJKT,STS2024SMKTH,MUHAMMAD ADLY FEBRIAN,(X TJKT 2),STS261347TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261348TJKT,STS2024SMKTH,MUHAMMAD AMRIL MUZAKI,(X TJKT 2),STS261348TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261349TJKT,STS2024SMKTH,MUHAMMAD FASHYA ARIFIN,(X TJKT 2),STS261349TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261350TJKT,STS2024SMKTH,MUHAMMAD FATHAH NUGROHO,(X TJKT 2),STS261350TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261351TJKT,STS2024SMKTH,MUHAMMAD FURQON MUQORROBIN,(X TJKT 2),STS261351TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261352TJKT,STS2024SMKTH,RAIHAN PUTRA ABDILLAH,(X TJKT 2),STS261352TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261353TJKT,STS2024SMKTH,RIAN KUSUMADIKA,(X TJKT 2),STS261353TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261354TJKT,STS2024SMKTH,RIDHO SURYA ATMAJA,(X TJKT 2),STS261354TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261355TJKT,STS2024SMKTH,RIFA AGAM,(X TJKT 2),STS261355TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261356TJKT,STS2024SMKTH,RIFQI DWI ANDIKA,(X TJKT 2),STS261356TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261357TJKT,STS2024SMKTH,RIZKI NOVA PRATAMA,(X TJKT 2),STS261357TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261358TJKT,STS2024SMKTH,RUDE MARCHALINO,(X TJKT 2),STS261358TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261359TJKT,STS2024SMKTH,SULTAN ABDU AL FAATHIR,(X TJKT 2),STS261359TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261360TJKT,STS2024SMKTH,TEZAR ADITYA,(X TJKT 2),STS261360TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261361TJKT,STS2024SMKTH,WAHYU LAKSANA PUTRA,(X TJKT 2),STS261361TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261362TJKT,STS2024SMKTH,YAYAN ARDIYANSAH,(X TJKT 2),STS261362TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261363TJKT,STS2024SMKTH,YULIANTO PRASETIO,(X TJKT 2),STS261363TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>STS261364TJKT,STS2024SMKTH,ABDUL LATIP,(X TJKT 3),STS261364TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261365TJKT,STS2024SMKTH,ADAM KHAIRY YASHA,(X TJKT 3),STS261365TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261366TJKT,STS2024SMKTH,ADITIYA HERIYANTO,(X TJKT 3),STS261366TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261367TJKT,STS2024SMKTH,ADITYA AWAL TAZUDIN,(X TJKT 3),STS261367TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261368TJKT,STS2024SMKTH,ADITYA PUTRA PANGESTU,(X TJKT 3),STS261368TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261369TJKT,STS2024SMKTH,AFSOLIEAN KARIF,(X TJKT 3),STS261369TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261370TJKT,STS2024SMKTH,AHMAD FADILLAH SYA'BAN,(X TJKT 3),STS261370TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261371TJKT,STS2024SMKTH,AHMAD KHAIRUL MUSTOFA,(X TJKT 3),STS261371TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261372TJKT,STS2024SMKTH,AHMAD RIFAI,(X TJKT 3),STS261372TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261373TJKT,STS2024SMKTH,ALI PATRIYO,(X TJKT 3),STS261373TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261374TJKT,STS2024SMKTH,ALNO ANSYAHARIN,(X TJKT 3),STS261374TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261375TJKT,STS2024SMKTH,ANGGA PUTRA,(X TJKT 3),STS261375TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261376TJKT,STS2024SMKTH,ARDITYA BAGAS PRATAMA,(X TJKT 3),STS261376TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261377TJKT,STS2024SMKTH,DIKY RIYADI,(X TJKT 3),STS261377TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261378TJKT,STS2024SMKTH,FAHIM MUHAMMAD AL DAFFA,(X TJKT 3),STS261378TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261379TJKT,STS2024SMKTH,FAJAR PURNAMA,(X TJKT 3),STS261379TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261380TJKT,STS2024SMKTH,FAJRI DWI SAPUTRA,(X TJKT 3),STS261380TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261381TJKT,STS2024SMKTH,GIRI MAS PERKASA,(X TJKT 3),STS261381TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261382TJKT,STS2024SMKTH,HAYKAL NUR RIZKI,(X TJKT 3),STS261382TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261383TJKT,STS2024SMKTH,KATON FAJAR IRAWAN,(X TJKT 3),STS261383TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261384TJKT,STS2024SMKTH,KHARIS ALMEIDA ROHMAN,(X TJKT 3),STS261384TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261385TJKT,STS2024SMKTH,MOHAMMAD ZIKRA ARFARIDZI,(X TJKT 3),STS261385TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261386TJKT,STS2024SMKTH,MUHAMAD LUTFI GHIFFARIE,(X TJKT 3),STS261386TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261387TJKT,STS2024SMKTH,MUHAMAD REFFA,(X TJKT 3),STS261387TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261388TJKT,STS2024SMKTH,MUHAMAD RIO FRAMUDYA HERMAWAN,(X TJKT 3),STS261388TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261389TJKT,STS2024SMKTH,MUHAMMAD ARLIAN SYAPUTRA,(X TJKT 3),STS261389TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261390TJKT,STS2024SMKTH,MUHAMMAD FARHAN RAMADHAN,(X TJKT 3),STS261390TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261391TJKT,STS2024SMKTH,MUHAMMAD NADHIF RIZALDY,(X TJKT 3),STS261391TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261392TJKT,STS2024SMKTH,MUHAMMAD SYARIF AL FATHIER,(X TJKT 3),STS261392TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261393TJKT,STS2024SMKTH,MUHAMMAD WILDAN ALFURQON,(X TJKT 3),STS261393TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261394TJKT,STS2024SMKTH,MUHAMMAD WILDAN DWI CHANDRA,(X TJKT 3),STS261394TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261395TJKT,STS2024SMKTH,PERI SUBAKTI,(X TJKT 3),STS261395TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261396TJKT,STS2024SMKTH,RAHMADHAN RIZAL THAULANI,(X TJKT 3),STS261396TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261397TJKT,STS2024SMKTH,RAYHAN ARIFIN HIDAYAT,(X TJKT 3),STS261397TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261398TJKT,STS2024SMKTH,RAYHAN JULIAN,(X TJKT 3),STS261398TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261399TJKT,STS2024SMKTH,RAYHAN NURIL MUSTAQIM,(X TJKT 3),STS261399TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261400TJKT,STS2024SMKTH,RAZKA KHAIRUL AMARULLAH,(X TJKT 3),STS261400TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261401TJKT,STS2024SMKTH,REZA EGI SAPUTRA,(X TJKT 3),STS261401TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261402TJKT,STS2024SMKTH,RIZKI MUHAMAD RAFI,(X TJKT 3),STS261402TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261403TJKT,STS2024SMKTH,RIZKY ADI NUGROHO,(X TJKT 3),STS261403TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261404TJKT,STS2024SMKTH,RIZKY MUHAMMAD KURNIAWAN,(X TJKT 3),STS261404TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261405TJKT,STS2024SMKTH,SATRIA ERLANGGA,(X TJKT 3),STS261405TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261406TJKT,STS2024SMKTH,SULTAN NUR ANDRIANSYAH,(X TJKT 3),STS261406TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261407TJKT,STS2024SMKTH,SYAHWAL HARIS LUKMANOV,(X TJKT 3),STS261407TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261408TJKT,STS2024SMKTH,VICKIH HARIANTO,(X TJKT 3),STS261408TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261409TJKT,STS2024SMKTH,YUSRON AL FAWAZ,(X TJKT 3),STS261409TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>STS261410AKL,STS2024SMKTH,AMILLIA RUSDYANTO,(XI AKL 1),STS261410AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS261411AKL,STS2024SMKTH,AWALLUDIN RAHMAN,(XI AKL 1),STS261411AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251412AKL,STS2024SMKTH,AYU EKA LESTARI,(XI AKL 1),STS251412AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251413AKL,STS2024SMKTH,CANAYYA AZKA NOVERA,(XI AKL 1),STS251413AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251414AKL,STS2024SMKTH,DAHLYA,(XI AKL 1),STS251414AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251415AKL,STS2024SMKTH,DANIEL FERDINAN,(XI AKL 1),STS251415AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251416AKL,STS2024SMKTH,DESTA NUR SETIAWAN PRATAMA,(XI AKL 1),STS251416AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251417AKL,STS2024SMKTH,DESVIANTI ANANDA,(XI AKL 1),STS251417AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251418AKL,STS2024SMKTH,DZULFIKAR,(XI AKL 1),STS251418AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251419AKL,STS2024SMKTH,EFATHA APRELIA ZAI,(XI AKL 1),STS251419AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251420AKL,STS2024SMKTH,ERRICA MERLIAN HIDAYAT,(XI AKL 1),STS251420AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251421AKL,STS2024SMKTH,FAHTAN ABIMANYU PRASETIA,(XI AKL 1),STS251421AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251422AKL,STS2024SMKTH,INAYAH SALSABILAH,(XI AKL 1),STS251422AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251423AKL,STS2024SMKTH,IQBAL NUL IKHWAN,(XI AKL 1),STS251423AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251424AKL,STS2024SMKTH,JULIAN ALFIUS,(XI AKL 1),STS251424AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251425AKL,STS2024SMKTH,JULIUS CHRISTIAN HUTABARAT,(XI AKL 1),STS251425AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251426AKL,STS2024SMKTH,KINANTI AULIA,(XI AKL 1),STS251426AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251427AKL,STS2024SMKTH,LEHA,(XI AKL 1),STS251427AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251428AKL,STS2024SMKTH,MARDIANA,(XI AKL 1),STS251428AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251429AKL,STS2024SMKTH,MEDITA LESTARI SUKMA,(XI AKL 1),STS251429AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251430AKL,STS2024SMKTH,MELI MERLIYANTI,(XI AKL 1),STS251430AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251431AKL,STS2024SMKTH,MONICA SARI DEVI,(XI AKL 1),STS251431AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251432AKL,STS2024SMKTH,NABIL RAMDANI,(XI AKL 1),STS251432AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251433AKL,STS2024SMKTH,NABILA PUTRI WINANTO,(XI AKL 1),STS251433AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251434AKL,STS2024SMKTH,NAJLA KEYRA TANTRI,(XI AKL 1),STS251434AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251435AKL,STS2024SMKTH,NANDA ARYA PUTRA,(XI AKL 1),STS251435AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251436AKL,STS2024SMKTH,NAURA LUTFIAH RAHMADINA,(XI AKL 1),STS251436AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251437AKL,STS2024SMKTH,PURWANTI,(XI AKL 1),STS251437AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251438AKL,STS2024SMKTH,RAFI DWI FEBIAN,(XI AKL 1),STS251438AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251439AKL,STS2024SMKTH,RATU SAILA SIMA,(XI AKL 1),STS251439AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251440AKL,STS2024SMKTH,RIVALDI HAERUDIN,(XI AKL 1),STS251440AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251441AKL,STS2024SMKTH,RIZKY ALFIAN,(XI AKL 1),STS251441AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251442AKL,STS2024SMKTH,SELA AMALIAH,(XI AKL 1),STS251442AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251443AKL,STS2024SMKTH,SHOLEH MARWIDIKA,(XI AKL 1),STS251443AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251444AKL,STS2024SMKTH,TASYA MARIMBI,(XI AKL 1),STS251444AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251445AKL,STS2024SMKTH,TATIA NUR APRIYANI,(XI AKL 1),STS251445AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251446AKL,STS2024SMKTH,TESSA LAVINA WIJAYA PHANG,(XI AKL 1),STS251446AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251447AKL,STS2024SMKTH,TILAR MIFTAKHUL JANAH,(XI AKL 1),STS251447AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251448AKL,STS2024SMKTH,YARA FATHIA ARDANY,(XI AKL 1),STS251448AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>STS251449AKL,STS2024SMKTH,ADINDA ALYA DWI ANGGRAENI,(XI AKL 2),STS251449AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251450AKL,STS2024SMKTH,AGUNG ARDIANSYAH,(XI AKL 2),STS251450AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251451AKL,STS2024SMKTH,AKHMELIA CITRA BUDIYANTI,(XI AKL 2),STS251451AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251452AKL,STS2024SMKTH,ALFIN KHOIRUL WILDAN,(XI AKL 2),STS251452AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251453AKL,STS2024SMKTH,ALISA HILDA APRILIA,(XI AKL 2),STS251453AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251454AKL,STS2024SMKTH,ALVI NURMALA D. W,(XI AKL 2),STS251454AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251455AKL,STS2024SMKTH,AMIRA KANZA DESLIA,(XI AKL 2),STS251455AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251456AKL,STS2024SMKTH,ANI,(XI AKL 2),STS251456AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251457AKL,STS2024SMKTH,ANNISA,(XI AKL 2),STS251457AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251458AKL,STS2024SMKTH,AULIA FITRIANI,(XI AKL 2),STS251458AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251459AKL,STS2024SMKTH,AYU NIA SARAH,(XI AKL 2),STS251459AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251460AKL,STS2024SMKTH,DILA AYU LESTARI,(XI AKL 2),STS251460AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251461AKL,STS2024SMKTH,DITA VIA ANGGRAENI,(XI AKL 2),STS251461AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251462AKL,STS2024SMKTH,EKO PRASETYO,(XI AKL 2),STS251462AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251463AKL,STS2024SMKTH,ERVAN HIDAYAT,(XI AKL 2),STS251463AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251464AKL,STS2024SMKTH,FRASTIO,(XI AKL 2),STS251464AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251465AKL,STS2024SMKTH,GALANG RIZKI ANUGRAH,(XI AKL 2),STS251465AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251466AKL,STS2024SMKTH,HARMELIA NAISA PUTRI,(XI AKL 2),STS251466AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251467AKL,STS2024SMKTH,IQBAL PERMANA,(XI AKL 2),STS251467AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251468AKL,STS2024SMKTH,JEFRI GIOVANIE,(XI AKL 2),STS251468AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251469AKL,STS2024SMKTH,KAYLA PUTRI AGUSTIN,(XI AKL 2),STS251469AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251470AKL,STS2024SMKTH,KEYZIA SYAFFA ADHILA,(XI AKL 2),STS251470AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251471AKL,STS2024SMKTH,M. FAUZI ABDUL ROHIM,(XI AKL 2),STS251471AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251472AKL,STS2024SMKTH,MEIFRIZA DWI PUTRA,(XI AKL 2),STS251472AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251473AKL,STS2024SMKTH,MOHAMAD RIZKY ALBIANSYAH,(XI AKL 2),STS251473AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251474AKL,STS2024SMKTH,MUHAMAD ILHAM,(XI AKL 2),STS251474AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251475AKL,STS2024SMKTH,NABILA AL ZAHRA,(XI AKL 2),STS251475AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251476AKL,STS2024SMKTH,NOVRIA NAYLA ZAHRA,(XI AKL 2),STS251476AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251477AKL,STS2024SMKTH,RENA PUJI LESTARI,(XI AKL 2),STS251477AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251478AKL,STS2024SMKTH,REVA AGIS ADELLIA,(XI AKL 2),STS251478AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251479AKL,STS2024SMKTH,RIZKY WIJAYA,(XI AKL 2),STS251479AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251480AKL,STS2024SMKTH,RIZQI AMANDA,(XI AKL 2),STS251480AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251481AKL,STS2024SMKTH,RYFAN ALAMSYAH,(XI AKL 2),STS251481AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251482AKL,STS2024SMKTH,SERINA AMELIA PUTRI,(XI AKL 2),STS251482AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251483AKL,STS2024SMKTH,SITI NUR FADILAH,(XI AKL 2),STS251483AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251484AKL,STS2024SMKTH,SOFHIA AROFAH,(XI AKL 2),STS251484AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251485AKL,STS2024SMKTH,SUSI LESTARI LESTIA DEWI,(XI AKL 2),STS251485AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251486AKL,STS2024SMKTH,TAUFIK SAPUTRA,(XI AKL 2),STS251486AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251487AKL,STS2024SMKTH,TUBAGUS UBAIDILLAH FAJRIN,(XI AKL 2),STS251487AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251488AKL,STS2024SMKTH,VANI EKA MELIA,(XI AKL 2),STS251488AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251489AKL,STS2024SMKTH,VIRLA DWI ARIYANTI,(XI AKL 2),STS251489AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251490AKL,STS2024SMKTH,WIDI ANJARWATI,(XI AKL 2),STS251490AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251491AKL,STS2024SMKTH,WIDIYA NINGSIH,(XI AKL 2),STS251491AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>STS251492DKV,STS2024SMKTH,ADE SETYA CANDRA,(XI DKV),STS251492DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251493DKV,STS2024SMKTH,ARIANSYAH,(XI DKV),STS251493DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251494DKV,STS2024SMKTH,ARYA SUBAGJA,(XI DKV),STS251494DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251495DKV,STS2024SMKTH,DIAN NOVITA SARI,(XI DKV),STS251495DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251496DKV,STS2024SMKTH,DIDA PERKASA,(XI DKV),STS251496DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251497DKV,STS2024SMKTH,EGHA PATRIANSYAH,(XI DKV),STS251497DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251498DKV,STS2024SMKTH,ESMERALDA VALENCIA WIDJAJA,(XI DKV),STS251498DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251499DKV,STS2024SMKTH,FAHIRA ANA PUTRI,(XI DKV),STS251499DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251500DKV,STS2024SMKTH,FARHAN SETYAWAN,(XI DKV),STS251500DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251501DKV,STS2024SMKTH,GITA INDAH SABANA,(XI DKV),STS251501DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251502DKV,STS2024SMKTH,IBNU ADITYA ADNAN,(XI DKV),STS251502DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251503DKV,STS2024SMKTH,IKHSAN BAYU NUGROHO,(XI DKV),STS251503DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251504DKV,STS2024SMKTH,ISMAIL AHMAD SAHDAD,(XI DKV),STS251504DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251505DKV,STS2024SMKTH,ISTAUFIRIN,(XI DKV),STS251505DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251506DKV,STS2024SMKTH,IVAN FERDINAN,(XI DKV),STS251506DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251507DKV,STS2024SMKTH,JONI,(XI DKV),STS251507DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251508DKV,STS2024SMKTH,JUSTIN RAFAEL,(XI DKV),STS251508DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251509DKV,STS2024SMKTH,LANANG SINGGIH PANGESTU,(XI DKV),STS251509DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251510DKV,STS2024SMKTH,LEON ALEVI GUSTAN,(XI DKV),STS251510DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251511DKV,STS2024SMKTH,MARCELL RAKASE,(XI DKV),STS251511DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251512DKV,STS2024SMKTH,MARTIN AL FATHONI,(XI DKV),STS251512DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251513DKV,STS2024SMKTH,MIXCEL DIMAS JUNIAWAN,(XI DKV),STS251513DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251514DKV,STS2024SMKTH,MOSES DOLVIN MAELISSA,(XI DKV),STS251514DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251515DKV,STS2024SMKTH,MUHAMAD RIKO SYAHPUTRA,(XI DKV),STS251515DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251516DKV,STS2024SMKTH,MUHAMMAD NURSHAM AHMADINEJAD,(XI DKV),STS251516DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251517DKV,STS2024SMKTH,MUTIA VARA DILLA,(XI DKV),STS251517DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251518DKV,STS2024SMKTH,NADIA ARDHELIA PUTRI,(XI DKV),STS251518DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251519DKV,STS2024SMKTH,NAFI'AJI VANOROSSI,(XI DKV),STS251519DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251520DKV,STS2024SMKTH,NOFIA INDRIANI,(XI DKV),STS251520DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251521DKV,STS2024SMKTH,RAFFAEL EDGINA,(XI DKV),STS251521DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251522DKV,STS2024SMKTH,RAFI ACHMAD APRILIANDI,(XI DKV),STS251522DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251523DKV,STS2024SMKTH,RAFKA AFRIZAL MUTTAQIN,(XI DKV),STS251523DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251524DKV,STS2024SMKTH,RAIHAN DWI FEBRIYANTO,(XI DKV),STS251524DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251525DKV,STS2024SMKTH,RAVI HAFIZ ARDIANSYAH,(XI DKV),STS251525DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251526DKV,STS2024SMKTH,REGA JUVENSIA SAPUTRA,(XI DKV),STS251526DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251527DKV,STS2024SMKTH,REHAN JULIANTO,(XI DKV),STS251527DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251528DKV,STS2024SMKTH,RIFAT AKMAL,(XI DKV),STS251528DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251529DKV,STS2024SMKTH,RIO ARDIANSYAH,(XI DKV),STS251529DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251530DKV,STS2024SMKTH,RIZKY DIAN PERMANA,(XI DKV),STS251530DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251531DKV,STS2024SMKTH,RIZQI MUH AKBAR,(XI DKV),STS251531DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251532DKV,STS2024SMKTH,RUDIYANSAH,(XI DKV),STS251532DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251533DKV,STS2024SMKTH,TUBAGUS RAIHAN RAHMATULLOH HIDAYAT,(XI DKV),STS251533DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251534DKV,STS2024SMKTH,VERDINAN WILLIAM HOLLE,(XI DKV),STS251534DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251535DKV,STS2024SMKTH,ZASKIA DEVINA ROSALINA,(XI DKV),STS251535DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>STS251536MPLB,STS2024SMKTH,ADINDA BUNGA LESTARI,(XI MPLB 1),STS251536MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251537MPLB,STS2024SMKTH,ALISYA MERIYANTI,(XI MPLB 1),STS251537MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251538MPLB,STS2024SMKTH,ANANDA CINTHYA CLARA ARITONANG,(XI MPLB 1),STS251538MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251539MPLB,STS2024SMKTH,ANISSA AL - KHOIRIYAH,(XI MPLB 1),STS251539MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251540MPLB,STS2024SMKTH,AZ-ZAHRA NUR AZIZAH SYAHRANI,(XI MPLB 1),STS251540MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251541MPLB,STS2024SMKTH,CARLA FERNANDA PUTRI,(XI MPLB 1),STS251541MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251542MPLB,STS2024SMKTH,CHATARINA OCTHA PUTRYANI DEYO,(XI MPLB 1),STS251542MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251543MPLB,STS2024SMKTH,CHATRIN VEXIA,(XI MPLB 1),STS251543MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251544MPLB,STS2024SMKTH,CHESYA TRYASA PUTRY,(XI MPLB 1),STS251544MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251545MPLB,STS2024SMKTH,DEVI RISFA DAMIANTI ATONIS,(XI MPLB 1),STS251545MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251546MPLB,STS2024SMKTH,DHEA DWI ARYANI,(XI MPLB 1),STS251546MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251547MPLB,STS2024SMKTH,EKA SEPTI WULANDARI,(XI MPLB 1),STS251547MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251548MPLB,STS2024SMKTH,ELLEN EVELYN ALDEA,(XI MPLB 1),STS251548MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251549MPLB,STS2024SMKTH,EUIS MARYANTI,(XI MPLB 1),STS251549MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251550MPLB,STS2024SMKTH,FEBY PRAMONO,(XI MPLB 1),STS251550MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251551MPLB,STS2024SMKTH,FIVEILIKA CANDRA SARI,(XI MPLB 1),STS251551MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251552MPLB,STS2024SMKTH,HARTINI,(XI MPLB 1),STS251552MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251553MPLB,STS2024SMKTH,IKA WULANDARI,(XI MPLB 1),STS251553MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251554MPLB,STS2024SMKTH,JELITA AURELIA,(XI MPLB 1),STS251554MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251555MPLB,STS2024SMKTH,JUWITA HERLINA KABNANI,(XI MPLB 1),STS251555MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251556MPLB,STS2024SMKTH,KAMILAH NURSEHA,(XI MPLB 1),STS251556MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251557MPLB,STS2024SMKTH,KAYLA RAHMADINI,(XI MPLB 1),STS251557MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251558MPLB,STS2024SMKTH,KOMALA SARI,(XI MPLB 1),STS251558MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251559MPLB,STS2024SMKTH,LAELI SYIFA AYU NURINSANI,(XI MPLB 1),STS251559MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251560MPLB,STS2024SMKTH,LUDIANA FEBRIANI,(XI MPLB 1),STS251560MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251561MPLB,STS2024SMKTH,MARIA KARMELIN TADA WAWIN,(XI MPLB 1),STS251561MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251562MPLB,STS2024SMKTH,MAULIDYAH SYAM,(XI MPLB 1),STS251562MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251563MPLB,STS2024SMKTH,NADYAH AYU KUSUMAWATI,(XI MPLB 1),STS251563MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251564MPLB,STS2024SMKTH,NAGITA JUANISAH,(XI MPLB 1),STS251564MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251565MPLB,STS2024SMKTH,NAZWA ERSALIA PUTRI,(XI MPLB 1),STS251565MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251566MPLB,STS2024SMKTH,NOVA ARYANI BASTIAN,(XI MPLB 1),STS251566MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251567MPLB,STS2024SMKTH,NUR AINI AFRIDA,(XI MPLB 1),STS251567MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251568MPLB,STS2024SMKTH,NUR FITRIAH RAMADHANI,(XI MPLB 1),STS251568MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251569MPLB,STS2024SMKTH,PERMATA AYUDIA,(XI MPLB 1),STS251569MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251570MPLB,STS2024SMKTH,PUTRI OCTAVIA RAMADHANY,(XI MPLB 1),STS251570MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251571MPLB,STS2024SMKTH,RIZKY DAMAYANTI,(XI MPLB 1),STS251571MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251572MPLB,STS2024SMKTH,SEPTI DWI ERIATI,(XI MPLB 1),STS251572MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251573MPLB,STS2024SMKTH,SINGGIH UMI UTAMI,(XI MPLB 1),STS251573MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251574MPLB,STS2024SMKTH,SYAFA AZZAHRA,(XI MPLB 1),STS251574MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251575MPLB,STS2024SMKTH,SZASKYA NOER HANY,(XI MPLB 1),STS251575MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251576MPLB,STS2024SMKTH,TARA ZAGITHA,(XI MPLB 1),STS251576MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251577MPLB,STS2024SMKTH,TIARA PUTRI ANDIKA,(XI MPLB 1),STS251577MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251578MPLB,STS2024SMKTH,WULAN NOVITA SARI,(XI MPLB 1),STS251578MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>STS251579MPLB,STS2024SMKTH,ALILATULBARIZA KESYA AGISTI,(XI MPLB 2),STS251579MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251580MPLB,STS2024SMKTH,ANNISA KUSMARI,(XI MPLB 2),STS251580MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251581MPLB,STS2024SMKTH,AWALIA BUNGA ZHARIFAH,(XI MPLB 2),STS251581MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251582MPLB,STS2024SMKTH,AWALIATUL KAMILA,(XI MPLB 2),STS251582MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251583MPLB,STS2024SMKTH,CARLA JUNITA,(XI MPLB 2),STS251583MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251584MPLB,STS2024SMKTH,DELLA MEISYA ALIFIA,(XI MPLB 2),STS251584MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251585MPLB,STS2024SMKTH,DIAH AYU LESTARI,(XI MPLB 2),STS251585MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251586MPLB,STS2024SMKTH,DINA APRILIA,(XI MPLB 2),STS251586MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251587MPLB,STS2024SMKTH,DWI NAZWA DHILA,(XI MPLB 2),STS251587MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251588MPLB,STS2024SMKTH,FAATIHUL KHASANAH,(XI MPLB 2),STS251588MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251589MPLB,STS2024SMKTH,FADILA RAHMASARI,(XI MPLB 2),STS251589MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251590MPLB,STS2024SMKTH,FITRI ARILA ZAHRA,(XI MPLB 2),STS251590MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251591MPLB,STS2024SMKTH,FITRI HANDAYANI,(XI MPLB 2),STS251591MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251592MPLB,STS2024SMKTH,GUSTINA,(XI MPLB 2),STS251592MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251593MPLB,STS2024SMKTH,HAFIZAH SUSANTI,(XI MPLB 2),STS251593MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251594MPLB,STS2024SMKTH,ILYASA RAMADANINGTIAS PRASETYA,(XI MPLB 2),STS251594MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251595MPLB,STS2024SMKTH,JESIKA LOSARY HELDY,(XI MPLB 2),STS251595MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251596MPLB,STS2024SMKTH,LINDA AGUSTIN,(XI MPLB 2),STS251596MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251597MPLB,STS2024SMKTH,LUNA AMALIA AZAHRA,(XI MPLB 2),STS251597MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251598MPLB,STS2024SMKTH,LUTFIYATUN NISA,(XI MPLB 2),STS251598MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251599MPLB,STS2024SMKTH,MUTIA APRILAH,(XI MPLB 2),STS251599MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251600MPLB,STS2024SMKTH,NABILA AZAHRA,(XI MPLB 2),STS251600MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251601MPLB,STS2024SMKTH,NABILA PUTRI DAMAYANTI,(XI MPLB 2),STS251601MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251602MPLB,STS2024SMKTH,NABILA ZAHRA,(XI MPLB 2),STS251602MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251603MPLB,STS2024SMKTH,NAULI SYAHLINA,(XI MPLB 2),STS251603MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251604MPLB,STS2024SMKTH,NAYA NATHANIA,(XI MPLB 2),STS251604MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251605MPLB,STS2024SMKTH,NAYLA HERLITA,(XI MPLB 2),STS251605MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251606MPLB,STS2024SMKTH,NOVIA EKA SAFITRI,(XI MPLB 2),STS251606MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251607MPLB,STS2024SMKTH,NOVITA NATASHA,(XI MPLB 2),STS251607MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251608MPLB,STS2024SMKTH,NUR AMALAH,(XI MPLB 2),STS251608MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251609MPLB,STS2024SMKTH,PUTRI MUHTAZAH,(XI MPLB 2),STS251609MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251610MPLB,STS2024SMKTH,RINA ZAHRAH,(XI MPLB 2),STS251610MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251611MPLB,STS2024SMKTH,RIZKA SYAFA MAGHFIRA,(XI MPLB 2),STS251611MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251612MPLB,STS2024SMKTH,SAFINATUN NAJA,(XI MPLB 2),STS251612MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251613MPLB,STS2024SMKTH,SALWA AURISKI AGUSTIN,(XI MPLB 2),STS251613MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251614MPLB,STS2024SMKTH,SISKA AMELIA,(XI MPLB 2),STS251614MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251615MPLB,STS2024SMKTH,SITI ROBIYAH ADAWIYAH,(XI MPLB 2),STS251615MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251616MPLB,STS2024SMKTH,SITI ROHMATULLATIFAH,(XI MPLB 2),STS251616MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251617MPLB,STS2024SMKTH,SITI SOFIAH,(XI MPLB 2),STS251617MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251618MPLB,STS2024SMKTH,SIVA AULIANI,(XI MPLB 2),STS251618MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251619MPLB,STS2024SMKTH,SYIFA QURROTUL 'AIN,(XI MPLB 2),STS251619MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251620MPLB,STS2024SMKTH,USWATUN HASANAH,(XI MPLB 2),STS251620MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251621MPLB,STS2024SMKTH,ZALFA NABILA PRISTI,(XI MPLB 2),STS251621MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>STS251622PM,STS2024SMKTH,AIRIN,(XI PM),STS251622PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251623PM,STS2024SMKTH,ANGGI SIAGIAN,(XI PM),STS251623PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251624PM,STS2024SMKTH,AURA ADREZY SUPRIYADI,(XI PM),STS251624PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251625PM,STS2024SMKTH,AURA KAYLLA PUTRI,(XI PM),STS251625PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251626PM,STS2024SMKTH,BOBBY BARUNA,(XI PM),STS251626PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251627PM,STS2024SMKTH,CIPTO ALDI PRAMANA,(XI PM),STS251627PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251628PM,STS2024SMKTH,DAVIQ KHALIK,(XI PM),STS251628PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251629PM,STS2024SMKTH,DIAH KOMALA SARI,(XI PM),STS251629PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251630PM,STS2024SMKTH,DIANA PUTRI,(XI PM),STS251630PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251631PM,STS2024SMKTH,ENGGAR NANDA SAPUTRA,(XI PM),STS251631PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251632PM,STS2024SMKTH,EVI FEBRIYANI,(XI PM),STS251632PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251633PM,STS2024SMKTH,FAUZAN JABAHNUR,(XI PM),STS251633PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251634PM,STS2024SMKTH,FAUZI GHOZALI,(XI PM),STS251634PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251635PM,STS2024SMKTH,FITRI ANDRIYANI,(XI PM),STS251635PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251636PM,STS2024SMKTH,FRISCA ANGGITA RAHMADINA,(XI PM),STS251636PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251637PM,STS2024SMKTH,FRISINTA EGI AHFATUROHMAH,(XI PM),STS251637PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251638PM,STS2024SMKTH,GALANG ROMADHON,(XI PM),STS251638PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251639PM,STS2024SMKTH,JEYAN SABILLI,(XI PM),STS251639PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251640PM,STS2024SMKTH,M.RAFLI ANDIKA,(XI PM),STS251640PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251641PM,STS2024SMKTH,MISEL MONIKA FEYBIOLA,(XI PM),STS251641PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251642PM,STS2024SMKTH,MOHAMMAD RIF'AN KHOLILI,(XI PM),STS251642PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251643PM,STS2024SMKTH,MUHAMAD AZIZ AL BUKHORY,(XI PM),STS251643PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251644PM,STS2024SMKTH,MUHAMAD ILMAN ZIDNI,(XI PM),STS251644PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251645PM,STS2024SMKTH,MUHAMMAD HAQQIN NAZILI,(XI PM),STS251645PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251646PM,STS2024SMKTH,MUHAMMAD RASYA,(XI PM),STS251646PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251647PM,STS2024SMKTH,MUHAMMAD RIDWAN,(XI PM),STS251647PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251648PM,STS2024SMKTH,NADIA SANDRA PRATIWI,(XI PM),STS251648PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251649PM,STS2024SMKTH,NEIVIELL OLIVIA TJONG,(XI PM),STS251649PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251650PM,STS2024SMKTH,NETI PRIYANA,(XI PM),STS251650PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251651PM,STS2024SMKTH,NEYSAH DHEA PUTRI,(XI PM),STS251651PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251652PM,STS2024SMKTH,NOVA RIANSAH,(XI PM),STS251652PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251653PM,STS2024SMKTH,NURUL MULYANI,(XI PM),STS251653PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251654PM,STS2024SMKTH,PUTRI NIANSYAH HANDAYANI,(XI PM),STS251654PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251655PM,STS2024SMKTH,RAHAYU NOVITA LESTARI,(XI PM),STS251655PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251656PM,STS2024SMKTH,RIFQI MAYZA DWI SAPUTRA,(XI PM),STS251656PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251657PM,STS2024SMKTH,RISKI,(XI PM),STS251657PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251658PM,STS2024SMKTH,ROMLAH SULISTIOWATI,(XI PM),STS251658PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251659PM,STS2024SMKTH,SAHRUL ARIPIN,(XI PM),STS251659PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251660PM,STS2024SMKTH,SENDY EKA FAJRIANSYAH,(XI PM),STS251660PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251661PM,STS2024SMKTH,SUCI RAHMA WATI,(XI PM),STS251661PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251662PM,STS2024SMKTH,YUDHA ADI WIJAYA,(XI PM),STS251662PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251663PM,STS2024SMKTH,ZAKY RADITYA SUSANTA,(XI PM),STS251663PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>STS251664TJKT,STS2024SMKTH,ACHMAD ZAENI ALIFIANSYAH,(XI TJKT 1),STS251664TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251665TJKT,STS2024SMKTH,ADE FEBIYAN,(XI TJKT 1),STS251665TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251666TJKT,STS2024SMKTH,AKBAR MAULANA,(XI TJKT 1),STS251666TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251667TJKT,STS2024SMKTH,ALDI FIRMAN SYAH,(XI TJKT 1),STS251667TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251668TJKT,STS2024SMKTH,ALEX REVALDO,(XI TJKT 1),STS251668TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251669TJKT,STS2024SMKTH,ALFINTER RICO PARNINGOTAN,(XI TJKT 1),STS251669TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251670TJKT,STS2024SMKTH,ALVIAN DWI SASONGKO,(XI TJKT 1),STS251670TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251671TJKT,STS2024SMKTH,AMSAL LEONARDO TOBING,(XI TJKT 1),STS251671TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251672TJKT,STS2024SMKTH,BAYU SULTAN,(XI TJKT 1),STS251672TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251673TJKT,STS2024SMKTH,DAFFA FADLIL AFAN,(XI TJKT 1),STS251673TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251674TJKT,STS2024SMKTH,DESTEFANO ADAM REIVAND,(XI TJKT 1),STS251674TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251675TJKT,STS2024SMKTH,DIMAS PRAYUDI,(XI TJKT 1),STS251675TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251676TJKT,STS2024SMKTH,DYMAS PANJI PANGESTU,(XI TJKT 1),STS251676TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251677TJKT,STS2024SMKTH,EGY HARDIANSYAH,(XI TJKT 1),STS251677TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251678TJKT,STS2024SMKTH,EVANDRA GUSTI RAHARJO,(XI TJKT 1),STS251678TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251679TJKT,STS2024SMKTH,FADHIL FARIZI AZIZ,(XI TJKT 1),STS251679TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251680TJKT,STS2024SMKTH,FAISSAL ARMANTO,(XI TJKT 1),STS251680TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251681TJKT,STS2024SMKTH,FAREL AFIATUSADID AHMAD,(XI TJKT 1),STS251681TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251682TJKT,STS2024SMKTH,FEBRIO SAMMY NUGRAHA,(XI TJKT 1),STS251682TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251683TJKT,STS2024SMKTH,HERNAN BUDI LAKSNA,(XI TJKT 1),STS251683TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251684TJKT,STS2024SMKTH,ILHAM SAHRUL HASAN,(XI TJKT 1),STS251684TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251685TJKT,STS2024SMKTH,IMAM SURYO SUCIPTO,(XI TJKT 1),STS251685TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251686TJKT,STS2024SMKTH,INTAN ANGGELIA PUTRI,(XI TJKT 1),STS251686TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251687TJKT,STS2024SMKTH,JAFAR UMAR THALIB AL GHIFARI,(XI TJKT 1),STS251687TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251688TJKT,STS2024SMKTH,KLIWLY KASMALA HERMAWAN,(XI TJKT 1),STS251688TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251689TJKT,STS2024SMKTH,MONICA JULIANA,(XI TJKT 1),STS251689TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251690TJKT,STS2024SMKTH,MUHAMAD AZRIL IHSANI,(XI TJKT 1),STS251690TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251691TJKT,STS2024SMKTH,MUHAMAD FERDI LESMANA,(XI TJKT 1),STS251691TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251692TJKT,STS2024SMKTH,MUHAMAD ZAKI SAPUTRA,(XI TJKT 1),STS251692TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251693TJKT,STS2024SMKTH,MUHAMMAD BAGAS FEBRIANSYAH,(XI TJKT 1),STS251693TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251694TJKT,STS2024SMKTH,MUHAMMAD FAISHAL,(XI TJKT 1),STS251694TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251695TJKT,STS2024SMKTH,MUHAMMAD ILFAN MAULANA,(XI TJKT 1),STS251695TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251696TJKT,STS2024SMKTH,MUHAMMAD ILHAM,(XI TJKT 1),STS251696TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251697TJKT,STS2024SMKTH,MUHAMMAD NAUFAL MAHDI,(XI TJKT 1),STS251697TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251698TJKT,STS2024SMKTH,MUHAMMAD RAHMAT DANI,(XI TJKT 1),STS251698TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251699TJKT,STS2024SMKTH,NUGI SATRIA,(XI TJKT 1),STS251699TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251700TJKT,STS2024SMKTH,NUR AJI INDRA MAULANA,(XI TJKT 1),STS251700TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251701TJKT,STS2024SMKTH,RADITYA SELWA NOVA,(XI TJKT 1),STS251701TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251702TJKT,STS2024SMKTH,RAMA WIGUNA,(XI TJKT 1),STS251702TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251703TJKT,STS2024SMKTH,RENDY ARDIANSYAH,(XI TJKT 1),STS251703TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251704TJKT,STS2024SMKTH,RIFA GLAND ALINSKIE,(XI TJKT 1),STS251704TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251705TJKT,STS2024SMKTH,RIKY ARYA SAPUTRO,(XI TJKT 1),STS251705TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251706TJKT,STS2024SMKTH,SHAHIBUR RIDWAN,(XI TJKT 1),STS251706TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251707TJKT,STS2024SMKTH,WAHYU ANJAR SETIAWAN,(XI TJKT 1),STS251707TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251708TJKT,STS2024SMKTH,ZAKY ADRIAN FERNANDO,(XI TJKT 1),STS251708TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>STS251709TJKT,STS2024SMKTH,ADI SAPUTRA,(XI TJKT 2),STS251709TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251710TJKT,STS2024SMKTH,ADI SETYO GUNAWAN,(XI TJKT 2),STS251710TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251711TJKT,STS2024SMKTH,AFRIZA HARDIANTO SAPUTRA,(XI TJKT 2),STS251711TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251712TJKT,STS2024SMKTH,AHMAD ADRIAN PRATAMA,(XI TJKT 2),STS251712TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251713TJKT,STS2024SMKTH,AJI ILHAM,(XI TJKT 2),STS251713TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251714TJKT,STS2024SMKTH,ANGGI ARDIYANSAH,(XI TJKT 2),STS251714TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251715TJKT,STS2024SMKTH,ANZANI PESTA JUWITA NAIBAHO,(XI TJKT 2),STS251715TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251716TJKT,STS2024SMKTH,ARYA NURKHOLIK,(XI TJKT 2),STS251716TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251717TJKT,STS2024SMKTH,BAGAS DWI PRAYOGA,(XI TJKT 2),STS251717TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251718TJKT,STS2024SMKTH,BAYU FIRGIAWAN LISTANTO,(XI TJKT 2),STS251718TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251719TJKT,STS2024SMKTH,DAFFA ANGGARA RADITYA,(XI TJKT 2),STS251719TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251720TJKT,STS2024SMKTH,ERLAND SBASTIAN GUNAWAN,(XI TJKT 2),STS251720TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251721TJKT,STS2024SMKTH,FARIS AHMAD RIFQY,(XI TJKT 2),STS251721TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251722TJKT,STS2024SMKTH,FAYAD HAWARI,(XI TJKT 2),STS251722TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251723TJKT,STS2024SMKTH,GILANG MUHADZIB,(XI TJKT 2),STS251723TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251724TJKT,STS2024SMKTH,IBNU BACTIAR GULTOM,(XI TJKT 2),STS251724TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251725TJKT,STS2024SMKTH,IKFANSYAH,(XI TJKT 2),STS251725TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251726TJKT,STS2024SMKTH,IKHSAN NURRIZKY,(XI TJKT 2),STS251726TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251727TJKT,STS2024SMKTH,JONATHAN IGBAL PUTRA,(XI TJKT 2),STS251727TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251728TJKT,STS2024SMKTH,LEFI NURYANDI,(XI TJKT 2),STS251728TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251729TJKT,STS2024SMKTH,MERLINA EVELYN,(XI TJKT 2),STS251729TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251730TJKT,STS2024SMKTH,MUHAMAD RISKI,(XI TJKT 2),STS251730TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251731TJKT,STS2024SMKTH,MUHAMAD SYAISAR RAMADHAN,(XI TJKT 2),STS251731TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251732TJKT,STS2024SMKTH,MUHAMMAD ADRIANSYAH,(XI TJKT 2),STS251732TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251733TJKT,STS2024SMKTH,MUHAMMAD GILANG RADITIYA,(XI TJKT 2),STS251733TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251734TJKT,STS2024SMKTH,MUHAMMAD RIZKI SAPUTRA,(XI TJKT 2),STS251734TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251735TJKT,STS2024SMKTH,MUHAMMAD SAEFULAH,(XI TJKT 2),STS251735TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251736TJKT,STS2024SMKTH,NAUKY BAGUS PRATAMA,(XI TJKT 2),STS251736TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251737TJKT,STS2024SMKTH,NUR AWAL SANTOSO,(XI TJKT 2),STS251737TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251738TJKT,STS2024SMKTH,RADIT SYAHPUTRA,(XI TJKT 2),STS251738TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251739TJKT,STS2024SMKTH,RAFFI PRASETIA,(XI TJKT 2),STS251739TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251740TJKT,STS2024SMKTH,RAHMANDANI,(XI TJKT 2),STS251740TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251741TJKT,STS2024SMKTH,RENDI IRWANSYAH,(XI TJKT 2),STS251741TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251742TJKT,STS2024SMKTH,RENDY PUTRA AFIA,(XI TJKT 2),STS251742TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251743TJKT,STS2024SMKTH,RIZKY KURNIAWAN,(XI TJKT 2),STS251743TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251744TJKT,STS2024SMKTH,RIZQI MARDIANSYAH,(XI TJKT 2),STS251744TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251745TJKT,STS2024SMKTH,ROMI CANDRA WINATA,(XI TJKT 2),STS251745TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251746TJKT,STS2024SMKTH,SHERIL ARDIKA ASSHAWA,(XI TJKT 2),STS251746TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251747TJKT,STS2024SMKTH,SONI SAPUTRA,(XI TJKT 2),STS251747TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251748TJKT,STS2024SMKTH,SYAHDANI AGUSTIO,(XI TJKT 2),STS251748TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251749TJKT,STS2024SMKTH,WIKO RIPANDA PUTRA,(XI TJKT 2),STS251749TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>STS251750TJKT,STS2024SMKTH,ADE RAFLI,(XI TJKT 3),STS251750TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251751TJKT,STS2024SMKTH,AGUNG NUR RISKI,(XI TJKT 3),STS251751TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251752TJKT,STS2024SMKTH,AHMAD ABIDZAR RIFA'I,(XI TJKT 3),STS251752TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251753TJKT,STS2024SMKTH,AHMAD EKA PRATAMA,(XI TJKT 3),STS251753TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251754TJKT,STS2024SMKTH,AHMAD HAERUL HADI,(XI TJKT 3),STS251754TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251755TJKT,STS2024SMKTH,BAGAS SADEWO JATI,(XI TJKT 3),STS251755TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251756TJKT,STS2024SMKTH,DIMAS SAPUTRA,(XI TJKT 3),STS251756TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251757TJKT,STS2024SMKTH,DWI ADI NUGROHO,(XI TJKT 3),STS251757TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251758TJKT,STS2024SMKTH,ERIK YOGA PRATAMA,(XI TJKT 3),STS251758TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251759TJKT,STS2024SMKTH,ERLANGGA SAPUTRA,(XI TJKT 3),STS251759TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251760TJKT,STS2024SMKTH,EVAN TRILYANTO,(XI TJKT 3),STS251760TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251761TJKT,STS2024SMKTH,FADHIL KURNIAWAN,(XI TJKT 3),STS251761TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251762TJKT,STS2024SMKTH,FAHMI WIJAYA,(XI TJKT 3),STS251762TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251763TJKT,STS2024SMKTH,FASKALIS HAMBALLAH AKBAR,(XI TJKT 3),STS251763TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251764TJKT,STS2024SMKTH,FAZA ZAHIDAN,(XI TJKT 3),STS251764TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251765TJKT,STS2024SMKTH,GALIH ADI APRIANSYAH,(XI TJKT 3),STS251765TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251766TJKT,STS2024SMKTH,IBNU BASUNJAY,(XI TJKT 3),STS251766TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251767TJKT,STS2024SMKTH,IBRA HAFIZH HERMAWAN,(XI TJKT 3),STS251767TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251768TJKT,STS2024SMKTH,IRWAN SURYANATA,(XI TJKT 3),STS251768TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251769TJKT,STS2024SMKTH,LUTFIANSYAH ALFAHREZI,(XI TJKT 3),STS251769TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251770TJKT,STS2024SMKTH,MAULANA ISHAQ,(XI TJKT 3),STS251770TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251771TJKT,STS2024SMKTH,MAULANA SANJAYA,(XI TJKT 3),STS251771TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251772TJKT,STS2024SMKTH,MOHAMMAD FAIZ SHALIHIN,(XI TJKT 3),STS251772TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251773TJKT,STS2024SMKTH,MUHAMAD IQBAL AL FAREZI,(XI TJKT 3),STS251773TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251774TJKT,STS2024SMKTH,MUHAMMAD ARMAN MALIKI,(XI TJKT 3),STS251774TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251775TJKT,STS2024SMKTH,MUHAMMAD CHOIRUL HAMZAH,(XI TJKT 3),STS251775TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251776TJKT,STS2024SMKTH,MUHAMMAD FADIL,(XI TJKT 3),STS251776TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251777TJKT,STS2024SMKTH,MUHAMMAD HAIKHAL RAMDHANI,(XI TJKT 3),STS251777TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251778TJKT,STS2024SMKTH,MUHAMMAD RAIHAN,(XI TJKT 3),STS251778TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251779TJKT,STS2024SMKTH,NASYIFA ADINDA,(XI TJKT 3),STS251779TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251780TJKT,STS2024SMKTH,NOREEN TRIPUTRA,(XI TJKT 3),STS251780TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251781TJKT,STS2024SMKTH,PUTRA RASIET ANDRIANSYAH PRATAMA,(XI TJKT 3),STS251781TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251782TJKT,STS2024SMKTH,RADITYA PUTRA HARSYAH,(XI TJKT 3),STS251782TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251783TJKT,STS2024SMKTH,RADJA HIDAYAT,(XI TJKT 3),STS251783TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251784TJKT,STS2024SMKTH,RAIHAN PUTRA LESMANA,(XI TJKT 3),STS251784TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251785TJKT,STS2024SMKTH,RAKAN WIJAYA NENDRA,(XI TJKT 3),STS251785TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251786TJKT,STS2024SMKTH,RASYA BAGUS GUNAWAN,(XI TJKT 3),STS251786TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251787TJKT,STS2024SMKTH,RIDWAN SAPUTRA,(XI TJKT 3),STS251787TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251788TJKT,STS2024SMKTH,RIZAL NURIYANTO,(XI TJKT 3),STS251788TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251789TJKT,STS2024SMKTH,RIZKI FATIH AKMAL,(XI TJKT 3),STS251789TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251790TJKT,STS2024SMKTH,RIZKY RAHMADAN FALIFI,(XI TJKT 3),STS251790TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>STS251791TJKT,STS2024SMKTH,ZAKI NURSYAHMAN,(XI TJKT 3),STS251791TJKT@gmail.com,XI TJKT 3</t>
+    <t>261001AKL,SAS2024TH,ABDUL RAHMAN AS SAMI, (X AKL 1),261001AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261002AKL,SAS2024TH,AFRILIANI, (X AKL 1),261002AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261003AKL,SAS2024TH,AHMAD DWI ILHAM, (X AKL 1),261003AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261004AKL,SAS2024TH,AHMAD RASYA PRAYOGA, (X AKL 1),261004AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261005AKL,SAS2024TH,AJI PRASETIYO, (X AKL 1),261005AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261006AKL,SAS2024TH,ALDO PRATAMA, (X AKL 1),261006AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261007AKL,SAS2024TH,ALIF RAMADHONA, (X AKL 1),261007AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261008AKL,SAS2024TH,AMELIA ANGGRAENI, (X AKL 1),261008AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261009AKL,SAS2024TH,AQILLA RAFA AMELIA, (X AKL 1),261009AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261010AKL,SAS2024TH,AULIA AZIZAH, (X AKL 1),261010AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261011AKL,SAS2024TH,BAYU AJI PRATAMA, (X AKL 1),261011AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261012AKL,SAS2024TH,CESYAR RAMADHAN, (X AKL 1),261012AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261013AKL,SAS2024TH,CHELSEA NAFISA, (X AKL 1),261013AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261014AKL,SAS2024TH,DAVINA NAZILLA ZALFA, (X AKL 1),261014AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261015AKL,SAS2024TH,DEALOVA YOCHIKA, (X AKL 1),261015AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261016AKL,SAS2024TH,DELA NUR AZIZAH, (X AKL 1),261016AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261017AKL,SAS2024TH,DELLA PUSPITA SARI, (X AKL 1),261017AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261018AKL,SAS2024TH,DIKA JULISTIAN, (X AKL 1),261018AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261019AKL,SAS2024TH,EKA NOVIA ALYZKA, (X AKL 1),261019AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261020AKL,SAS2024TH,ELISABETH, (X AKL 1),261020AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261021AKL,SAS2024TH,ELSAH RAMADHANI, (X AKL 1),261021AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261022AKL,SAS2024TH,FAIZAL AKHMAD FAKHREZI, (X AKL 1),261022AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261023AKL,SAS2024TH,GILANG SAPUTRA, (X AKL 1),261023AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261024AKL,SAS2024TH,HANDOKO DWI OKTAVIANA, (X AKL 1),261024AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261025AKL,SAS2024TH,JULIA RAHMAWATI, (X AKL 1),261025AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261026AKL,SAS2024TH,KAILA ZAHRA, (X AKL 1),261026AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261027AKL,SAS2024TH,KHESYA HARYANTI, (X AKL 1),261027AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261028AKL,SAS2024TH,MALA RAMADANI, (X AKL 1),261028AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261029AKL,SAS2024TH,MEGA APRILIA ANGGREINI, (X AKL 1),261029AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261030AKL,SAS2024TH,MELISA NADIA PUTRI, (X AKL 1),261030AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261031AKL,SAS2024TH,MUHAMMAD KHOLIK, (X AKL 1),261031AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261032AKL,SAS2024TH,MUHAMMAD NUR ILHAM, (X AKL 1),261032AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261033AKL,SAS2024TH,PUSPITA ANGGRAENI MARETA, (X AKL 1),261033AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261034AKL,SAS2024TH,RAISYAH IRAWAN, (X AKL 1),261034AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261035AKL,SAS2024TH,RISKA AMELIA, (X AKL 1),261035AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261036AKL,SAS2024TH,SAGITA TRI CAHYANI, (X AKL 1),261036AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261037AKL,SAS2024TH,SALSA ARIESTY PRATAMA, (X AKL 1),261037AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261038AKL,SAS2024TH,SITI HANIIFAH, (X AKL 1),261038AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261039AKL,SAS2024TH,VIOLLETTE GABRIELA CHRISANTA, (X AKL 1),261039AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261040AKL,SAS2024TH,WIDYA LUTHFI, (X AKL 1),261040AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261041AKL,SAS2024TH,WILLIAM ELGIE FEDROSA, (X AKL 1),261041AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261042AKL,SAS2024TH,YENNY, (X AKL 1),261042AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261043AKL,SAS2024TH,ZAHARA, (X AKL 1),261043AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261044AKL,SAS2024TH,ZAHRA AL RIZKY ARTA, (X AKL 1),261044AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261045AKL,SAS2024TH,ADITIYA FIRMANSYAH, (X AKL 2),261045AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261046AKL,SAS2024TH,AFIFAH PERWITA SARI, (X AKL 2),261046AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261047AKL,SAS2024TH,AHMAD MAULANA MARCEL, (X AKL 2),261047AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261048AKL,SAS2024TH,ANANG TRIYULIANTO, (X AKL 2),261048AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261049AKL,SAS2024TH,ANISAH FITRI, (X AKL 2),261049AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261050AKL,SAS2024TH,ARDI SAPUTRA, (X AKL 2),261050AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261051AKL,SAS2024TH,ARINI WULANDARI, (X AKL 2),261051AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261052AKL,SAS2024TH,DAMAR NOPRIANSAH, (X AKL 2),261052AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261053AKL,SAS2024TH,DEA SAFITRI, (X AKL 2),261053AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261054AKL,SAS2024TH,DEACY PUTRI AULIA, (X AKL 2),261054AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261055AKL,SAS2024TH,DEFAN AHMAD NURKHOLIS, (X AKL 2),261055AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261056AKL,SAS2024TH,DESLYANA SAFITRI, (X AKL 2),261056AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261057AKL,SAS2024TH,DEWI JULIANTI SAPITRI, (X AKL 2),261057AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261058AKL,SAS2024TH,DEWI SOFIA KUNUPUS, (X AKL 2),261058AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261059AKL,SAS2024TH,DWI SUSILAWATI, (X AKL 2),261059AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261060AKL,SAS2024TH,FAHRY ARDIANSYAH, (X AKL 2),261060AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261061AKL,SAS2024TH,GHEA PEBRIANA, (X AKL 2),261061AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261062AKL,SAS2024TH,HENNY KALINA, (X AKL 2),261062AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261063AKL,SAS2024TH,HILAL RAMDHANI, (X AKL 2),261063AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261064AKL,SAS2024TH,KEYSA PUTRI MELANDRI, (X AKL 2),261064AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261065AKL,SAS2024TH,M FERZIANSYAH SAPUTRA, (X AKL 2),261065AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261066AKL,SAS2024TH,MARSYA HALWA MARITZA, (X AKL 2),261066AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261067AKL,SAS2024TH,MELIFTIANI, (X AKL 2),261067AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261068AKL,SAS2024TH,MUHAMAD FAHREZY FAIRUS, (X AKL 2),261068AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261069AKL,SAS2024TH,MUHAMAD RIZAL YUSWANTO, (X AKL 2),261069AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261070AKL,SAS2024TH,MUHAMMAD FAHRIF, (X AKL 2),261070AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261071AKL,SAS2024TH,MUHAMMAD RIFALDIANSYAH, (X AKL 2),261071AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261072AKL,SAS2024TH,NABILA DWI LESTARI, (X AKL 2),261072AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261073AKL,SAS2024TH,NAYNA MULYANI, (X AKL 2),261073AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261074AKL,SAS2024TH,NAZWA ZAENABO, (X AKL 2),261074AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261075AKL,SAS2024TH,NIKEISHA ANINDYA FAUZI, (X AKL 2),261075AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261076AKL,SAS2024TH,PANDE MANGOLOI PANDIANGAN, (X AKL 2),261076AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261077AKL,SAS2024TH,PANDU ANANG WIDODO SAPUTRA, (X AKL 2),261077AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261078AKL,SAS2024TH,PANJI ARYA PRASETYA, (X AKL 2),261078AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261079AKL,SAS2024TH,RAISHA NURDIANA, (X AKL 2),261079AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261080AKL,SAS2024TH,RASYA ARDIANSYAH, (X AKL 2),261080AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261081AKL,SAS2024TH,RENDI ARDIANSYAH, (X AKL 2),261081AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261082AKL,SAS2024TH,RISMA NUR INDAH LESTARI, (X AKL 2),261082AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261083AKL,SAS2024TH,RIZKA CAHAYA RAMADHAN, (X AKL 2),261083AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261084AKL,SAS2024TH,RYAN DWI ARDIANSYAH, (X AKL 2),261084AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261085AKL,SAS2024TH,SALMA NUR AISYAH, (X AKL 2),261085AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261086AKL,SAS2024TH,SALZADILA AVRIL PUTRI, (X AKL 2),261086AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261087AKL,SAS2024TH,SITI NURAINI, (X AKL 2),261087AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261088AKL,SAS2024TH,TIARA KUSUMA NINGRUM, (X AKL 2),261088AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261089AKL,SAS2024TH,WULAN DWI RAMADANI, (X AKL 2),261089AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261090AKL,SAS2024TH,ZALSA MAYSHA ADELLA, (X AKL 2),261090AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261091DKV,SAS2024TH,ADAM MAULANA, (X DKV),261091DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261092DKV,SAS2024TH,ADITYA KRISNA DJAJA, (X DKV),261092DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261093DKV,SAS2024TH,ADITYA TANGGUH PRAMANA PUTRA, (X DKV),261093DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261094DKV,SAS2024TH,ADRIAN SANJAYA, (X DKV),261094DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261095DKV,SAS2024TH,ALIF APRILIYANSAH, (X DKV),261095DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261096DKV,SAS2024TH,CARRYN FEBRIANTY, (X DKV),261096DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261097DKV,SAS2024TH,CHRISTIAN JOSEPHINE, (X DKV),261097DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261098DKV,SAS2024TH,DAENG DALLE, (X DKV),261098DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261099DKV,SAS2024TH,DIRA PUTRI RAHMASARI, (X DKV),261099DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261100DKV,SAS2024TH,DJENAR MAHESA PUTRI, (X DKV),261100DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261101DKV,SAS2024TH,DWIKI JULIYANA, (X DKV),261101DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261102DKV,SAS2024TH,EKKLESIA FIRDA LIANA, (X DKV),261102DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261103DKV,SAS2024TH,ERIYANI RAHMA, (X DKV),261103DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261104DKV,SAS2024TH,EVAN AGUSTIAZ EFENDI, (X DKV),261104DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261105DKV,SAS2024TH,FAHRI AFRIANSYAH, (X DKV),261105DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261106DKV,SAS2024TH,FAHRI SEPTIAWAN, (X DKV),261106DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261107DKV,SAS2024TH,FARREL DWI IRWANTO, (X DKV),261107DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261108DKV,SAS2024TH,FITRI WULANDARI, (X DKV),261108DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261109DKV,SAS2024TH,FITRIA ROBBY ANI, (X DKV),261109DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261110DKV,SAS2024TH,HELMY KURNIAWAN, (X DKV),261110DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261111DKV,SAS2024TH,IQBAL HABIBALLAH, (X DKV),261111DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261112DKV,SAS2024TH,KIKI CAHYONO, (X DKV),261112DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261113DKV,SAS2024TH,MARCHO SIMON PETRUS BANU, (X DKV),261113DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261114DKV,SAS2024TH,MAULIDHA NUR IZATIN, (X DKV),261114DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261115DKV,SAS2024TH,MAULINDA DEWI, (X DKV),261115DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261116DKV,SAS2024TH,MUHAMAD ALFIAN, (X DKV),261116DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261117DKV,SAS2024TH,MUHAMAD ANGGA SURYA SAPUTRA, (X DKV),261117DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261118DKV,SAS2024TH,MUHAMAD BIAN NURHIKMAH, (X DKV),261118DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261119DKV,SAS2024TH,MUHAMAD RIDWAN, (X DKV),261119DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261120DKV,SAS2024TH,MUHAMMAD ALFATH, (X DKV),261120DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261121DKV,SAS2024TH,MUHAMMAD KHAIRI EL FUAD, (X DKV),261121DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261122DKV,SAS2024TH,MUHAMMAD ROSYAD PURNOMO, (X DKV),261122DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261123DKV,SAS2024TH,MUHAMMAD ZIDANE ALI CANTONA, (X DKV),261123DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261124DKV,SAS2024TH,NAILA ENJELITA, (X DKV),261124DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261125DKV,SAS2024TH,NATHANAEL MOSES SETIADY, (X DKV),261125DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261126DKV,SAS2024TH,NURAINI, (X DKV),261126DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261127DKV,SAS2024TH,RIDO SAPUTRO, (X DKV),261127DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261128DKV,SAS2024TH,SHANDITYA ALVARO, (X DKV),261128DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261129DKV,SAS2024TH,SISKA HANDAYANI, (X DKV),261129DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261130DKV,SAS2024TH,SUCI CANTIKA RAMADANI, (X DKV),261130DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261131DKV,SAS2024TH,SULLY, (X DKV),261131DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261132DKV,SAS2024TH,TRI AWALUDIN, (X DKV),261132DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261133DKV,SAS2024TH,UKASAH AL MUQRI ASSADUSI, (X DKV),261133DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261134DKV,SAS2024TH,VIOLA SASIKIRANA, (X DKV),261134DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261135DKV,SAS2024TH,ZAHRA APRILIA FAADHILAH, (X DKV),261135DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261136DKV,SAS2024TH,ZAKIRAH THALITA ZAHRAH, (X DKV),261136DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261137MPLB,SAS2024TH,ADELLIA RISMA KIRANA, (X MPLB 1),261137MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261138MPLB,SAS2024TH,ALYA PUTRI NAZWA, (X MPLB 1),261138MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261139MPLB,SAS2024TH,ASTIA DESVITA, (X MPLB 1),261139MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261140MPLB,SAS2024TH,ASTRID OKTAVIA LESTARI, (X MPLB 1),261140MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261141MPLB,SAS2024TH,CINDY AYU AGUSTIENA, (X MPLB 1),261141MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261142MPLB,SAS2024TH,CINTA AURIA PUTRI MULYANA, (X MPLB 1),261142MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261143MPLB,SAS2024TH,DEFHINA FEBRIYAHYA, (X MPLB 1),261143MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261144MPLB,SAS2024TH,DELA SUSANTI, (X MPLB 1),261144MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261145MPLB,SAS2024TH,DINA ANGRAENI, (X MPLB 1),261145MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261146MPLB,SAS2024TH,DIVA SALSABILA, (X MPLB 1),261146MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261147MPLB,SAS2024TH,ENGGI AULIA AMANDA PUTRI, (X MPLB 1),261147MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261148MPLB,SAS2024TH,ERIN LARAS SATI, (X MPLB 1),261148MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261149MPLB,SAS2024TH,EVA PURNAMASARI, (X MPLB 1),261149MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261150MPLB,SAS2024TH,FAIRUZ MAULIDA FAIZ, (X MPLB 1),261150MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261151MPLB,SAS2024TH,FATDILAH ANGGI ROFITA, (X MPLB 1),261151MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261152MPLB,SAS2024TH,FEBBY AMRIYANI PUTRI, (X MPLB 1),261152MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261153MPLB,SAS2024TH,FIYANTIKA ERVI, (X MPLB 1),261153MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261154MPLB,SAS2024TH,GISELLA LUTFYA PRAMESTY, (X MPLB 1),261154MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261155MPLB,SAS2024TH,ICA AMELIA, (X MPLB 1),261155MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261156MPLB,SAS2024TH,IKA MEILANI PUTRI, (X MPLB 1),261156MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261157MPLB,SAS2024TH,INTAN CAHAYANI, (X MPLB 1),261157MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261158MPLB,SAS2024TH,KADEK DWI SEPTIANA, (X MPLB 1),261158MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261159MPLB,SAS2024TH,KAYLA AURELLIA LARISSA, (X MPLB 1),261159MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261160MPLB,SAS2024TH,KEISA SAFIRA, (X MPLB 1),261160MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261161MPLB,SAS2024TH,LAILA SYIFA, (X MPLB 1),261161MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261162MPLB,SAS2024TH,MARSHELLA ANDREANI SABU BADIN, (X MPLB 1),261162MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261163MPLB,SAS2024TH,MEYSA ARISMA NATALIA, (X MPLB 1),261163MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261164MPLB,SAS2024TH,MONICA RATNA ADELIA, (X MPLB 1),261164MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261165MPLB,SAS2024TH,MOZA LESTARI RAMADHANI, (X MPLB 1),261165MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261166MPLB,SAS2024TH,NADIA HIDAYAT, (X MPLB 1),261166MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261167MPLB,SAS2024TH,NAZWA AFIFAH, (X MPLB 1),261167MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261168MPLB,SAS2024TH,PUPUT AMEL LESTARI, (X MPLB 1),261168MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261169MPLB,SAS2024TH,PUTRI NADHIFAH RAMADHANI, (X MPLB 1),261169MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261170MPLB,SAS2024TH,PUTRI NAZWA LAMAHODA, (X MPLB 1),261170MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261171MPLB,SAS2024TH,PUTRI SALSABILLA, (X MPLB 1),261171MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261172MPLB,SAS2024TH,RAISYAH HANDAYANI, (X MPLB 1),261172MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261173MPLB,SAS2024TH,RANI ZUNIARDANA, (X MPLB 1),261173MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261174MPLB,SAS2024TH,RASYA SINTA DEWI, (X MPLB 1),261174MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261175MPLB,SAS2024TH,REGINA NURHAYATI, (X MPLB 1),261175MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261176MPLB,SAS2024TH,ROSDIANA, (X MPLB 1),261176MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261177MPLB,SAS2024TH,SITI ASSILLA FATIMAH, (X MPLB 1),261177MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261178MPLB,SAS2024TH,SRI MULYANINGRUM, (X MPLB 1),261178MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261179MPLB,SAS2024TH,SUCI SETYAWATI, (X MPLB 1),261179MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261180MPLB,SAS2024TH,TARA JESYIKA, (X MPLB 1),261180MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261181MPLB,SAS2024TH,WIWIN MUSTIKA SARI, (X MPLB 1),261181MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261182MPLB,SAS2024TH,ADESIA PUTRI, (X MPLB 2),261182MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261183MPLB,SAS2024TH,ADHITA NAZHIRA, (X MPLB 2),261183MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261184MPLB,SAS2024TH,AFRINA NAFLAH SABIYA, (X MPLB 2),261184MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261185MPLB,SAS2024TH,AMELLIA FEBRIYANI, (X MPLB 2),261185MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261186MPLB,SAS2024TH,ANDINI HERYANTI, (X MPLB 2),261186MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261187MPLB,SAS2024TH,ANDINI SABELLA, (X MPLB 2),261187MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261188MPLB,SAS2024TH,ANNISA RAMADANI, (X MPLB 2),261188MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261189MPLB,SAS2024TH,ASSYIFA SALSA BILA, (X MPLB 2),261189MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261190MPLB,SAS2024TH,BELLA FEBRIYANA, (X MPLB 2),261190MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261191MPLB,SAS2024TH,CANTIKA DUWI PRATIWI, (X MPLB 2),261191MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261192MPLB,SAS2024TH,CICILIYA MELANI PUTRI WINATI, (X MPLB 2),261192MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261193MPLB,SAS2024TH,DIVA DESTIANA, (X MPLB 2),261193MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261194MPLB,SAS2024TH,EKA NORMA RAMADHANI, (X MPLB 2),261194MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261195MPLB,SAS2024TH,EKI TARSINI, (X MPLB 2),261195MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261196MPLB,SAS2024TH,ELSYA AULIYA, (X MPLB 2),261196MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261197MPLB,SAS2024TH,ERIKA LULU GHATHFAAN, (X MPLB 2),261197MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261198MPLB,SAS2024TH,FUTRIA KHALISA, (X MPLB 2),261198MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261199MPLB,SAS2024TH,INDAH NURZULIA, (X MPLB 2),261199MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261200MPLB,SAS2024TH,INDAH RAHMAWATI, (X MPLB 2),261200MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261201MPLB,SAS2024TH,INDAH TRI HAPSARI, (X MPLB 2),261201MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261202MPLB,SAS2024TH,INNEZ PUTRIA ABIDIN, (X MPLB 2),261202MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261203MPLB,SAS2024TH,KEISYA RAMADHANI, (X MPLB 2),261203MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261204MPLB,SAS2024TH,KEYLA FEBRIA, (X MPLB 2),261204MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261205MPLB,SAS2024TH,LUTFIYAH MAHIROH, (X MPLB 2),261205MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261206MPLB,SAS2024TH,LUTHFIYYATUN INKA PERMATASARI, (X MPLB 2),261206MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261207MPLB,SAS2024TH,MARINAH, (X MPLB 2),261207MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261208MPLB,SAS2024TH,MARTHASYA CANTIKA DEWI, (X MPLB 2),261208MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261209MPLB,SAS2024TH,MESYA, (X MPLB 2),261209MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261210MPLB,SAS2024TH,MUTHIA ZAHRAH, (X MPLB 2),261210MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261211MPLB,SAS2024TH,NABILA PUTRI RAMADHANI, (X MPLB 2),261211MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261212MPLB,SAS2024TH,NADEA ELMA PAKASI, (X MPLB 2),261212MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261213MPLB,SAS2024TH,NATASYA PUTRI CAHYANA, (X MPLB 2),261213MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261214MPLB,SAS2024TH,NELLA AGUSTINA, (X MPLB 2),261214MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261215MPLB,SAS2024TH,NOVA LILI HANDRAYANI, (X MPLB 2),261215MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261216MPLB,SAS2024TH,NOVA LINA ANJANI, (X MPLB 2),261216MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261217MPLB,SAS2024TH,PUTRI APRILIA ZAHRA, (X MPLB 2),261217MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261218MPLB,SAS2024TH,RACHMA ANNISA, (X MPLB 2),261218MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261219MPLB,SAS2024TH,RASYAH RACHMA SETIAWAN, (X MPLB 2),261219MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261220MPLB,SAS2024TH,REINATA PRIHATINI, (X MPLB 2),261220MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261221MPLB,SAS2024TH,RISNA HASANAH, (X MPLB 2),261221MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261222MPLB,SAS2024TH,SILVI MELANI PUTRI, (X MPLB 2),261222MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261223MPLB,SAS2024TH,SITI FATIMAH JULIANA, (X MPLB 2),261223MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261224MPLB,SAS2024TH,SULIS KASIH RAMADHANI, (X MPLB 2),261224MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261225MPLB,SAS2024TH,TARISA NURASIAH, (X MPLB 2),261225MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261226MPLB,SAS2024TH,THYNTA ASMARANI PUTRI, (X MPLB 2),261226MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261227PM,SAS2024TH,AJENG KARTIKA CHANDRALIS PUTRI, (X PM),261227PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261228PM,SAS2024TH,AL RASYA TRI SAHLAN, (X PM),261228PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261229PM,SAS2024TH,ANDIKA, (X PM),261229PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261230PM,SAS2024TH,ANDRYANTO FEBRIANSYAH, (X PM),261230PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261231PM,SAS2024TH,ARIF FIRMANSYAH, (X PM),261231PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261232PM,SAS2024TH,AVRILIA ZAHRA, (X PM),261232PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261233PM,SAS2024TH,DEWITA MAHARANI, (X PM),261233PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261234PM,SAS2024TH,DINA LUDFIANA, (X PM),261234PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261235PM,SAS2024TH,DONI SAPUTRA, (X PM),261235PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261236PM,SAS2024TH,EGA ANANDA RENOTA, (X PM),261236PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261237PM,SAS2024TH,FAHRI ANDRIAWAN BAHTIAR, (X PM),261237PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261238PM,SAS2024TH,FAREL PANCA SENA, (X PM),261238PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261239PM,SAS2024TH,FRIDA RISTA MARTASA, (X PM),261239PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261240PM,SAS2024TH,GUNTUR RYANDI, (X PM),261240PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261241PM,SAS2024TH,HERDI ALFIYANSAH, (X PM),261241PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261242PM,SAS2024TH,KEVIN ROMAN SAPUTRA, (X PM),261242PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261243PM,SAS2024TH,KEYLA KEYSA UTAMI, (X PM),261243PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261244PM,SAS2024TH,KHARIZKA YULI AMELIA, (X PM),261244PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261245PM,SAS2024TH,LIDIA SULISTIAWATI, (X PM),261245PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261246PM,SAS2024TH,MUHAMAD ILHAM NURSYAHBANI, (X PM),261246PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261247PM,SAS2024TH,MUHAMAD RIDWAN, (X PM),261247PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261248PM,SAS2024TH,MUHAMMAD FAUZAN PRATAMA, (X PM),261248PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261249PM,SAS2024TH,NATASYA NATALIA, (X PM),261249PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261250PM,SAS2024TH,NIA DAMAYANTI, (X PM),261250PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261251PM,SAS2024TH,NUR AINI, (X PM),261251PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261252PM,SAS2024TH,NUR ALAMSYAH, (X PM),261252PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261253PM,SAS2024TH,PANDU ARYA PRATAMA, (X PM),261253PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261254PM,SAS2024TH,PUTRA EKA PRASETYO, (X PM),261254PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261255PM,SAS2024TH,PUTRI NUR ANJANI, (X PM),261255PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261256PM,SAS2024TH,REFANDI FERDIANSAH, (X PM),261256PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261257PM,SAS2024TH,REHAN INDRA PRATAMA, (X PM),261257PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261258PM,SAS2024TH,REVANI DWI RAHAYU, (X PM),261258PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261259PM,SAS2024TH,REYHAN ERLANGGA, (X PM),261259PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261260PM,SAS2024TH,REZA SATRIA KUSUMA, (X PM),261260PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261261PM,SAS2024TH,RIZKY PUTRA KURNIA, (X PM),261261PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261262PM,SAS2024TH,ROSA APRILIANI, (X PM),261262PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261263PM,SAS2024TH,SELLY SESILIA AL FIANTI, (X PM),261263PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261264PM,SAS2024TH,SEPTI RAHMADINI, (X PM),261264PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261265PM,SAS2024TH,SERLI AULIA, (X PM),261265PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261266PM,SAS2024TH,SHERLY CHAIRRUNNISA SETIAWAN, (X PM),261266PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261267PM,SAS2024TH,SYAFA ARUNA, (X PM),261267PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261268PM,SAS2024TH,TRI RAMADANI, (X PM),261268PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261269PM,SAS2024TH,WAHYU SAPUTRA, (X PM),261269PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261270PM,SAS2024TH,WINDA FAIDAH, (X PM),261270PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261271PM,SAS2024TH,WULAN RIYONO, (X PM),261271PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261272TJKT,SAS2024TH,ABDUL MUHAMAD HAIR, (X TJKT 1),261272TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261273TJKT,SAS2024TH,ACHMAD RIDWAN, (X TJKT 1),261273TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261274TJKT,SAS2024TH,ALTAN NARENDRA FIRMANSYAH, (X TJKT 1),261274TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261275TJKT,SAS2024TH,ANDHIKA HERDIANA, (X TJKT 1),261275TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261276TJKT,SAS2024TH,ANDINI AULIA PUTRI, (X TJKT 1),261276TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261277TJKT,SAS2024TH,ANDREAN RAZYA ANNAVI, (X TJKT 1),261277TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261278TJKT,SAS2024TH,ANDRIAN WIJAYA, (X TJKT 1),261278TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261279TJKT,SAS2024TH,CINTA JULYA LARASATI, (X TJKT 1),261279TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261280TJKT,SAS2024TH,DAYAN PATTIH KHALAM, (X TJKT 1),261280TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261281TJKT,SAS2024TH,DECO ADI PRIYANDA, (X TJKT 1),261281TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261282TJKT,SAS2024TH,DICKI SAI HIKARU, (X TJKT 1),261282TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261283TJKT,SAS2024TH,FAJAR ARIASIH, (X TJKT 1),261283TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261284TJKT,SAS2024TH,FAJAR FATUR ROKHIM, (X TJKT 1),261284TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261285TJKT,SAS2024TH,FAKHRI SYAPUTRO, (X TJKT 1),261285TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261286TJKT,SAS2024TH,FARDAN IHZA RAMADHAN, (X TJKT 1),261286TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261287TJKT,SAS2024TH,FEBRIAN RACHMANSYAH, (X TJKT 1),261287TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261288TJKT,SAS2024TH,FERNANDO KUNARDI, (X TJKT 1),261288TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261289TJKT,SAS2024TH,GADING ALFARIZY, (X TJKT 1),261289TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261290TJKT,SAS2024TH,HAIKEL PRATAMA, (X TJKT 1),261290TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261291TJKT,SAS2024TH,IKCSAN RAMADHAN, (X TJKT 1),261291TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261292TJKT,SAS2024TH,MALIK AHMAD GUSTAVO, (X TJKT 1),261292TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261293TJKT,SAS2024TH,MARIO JENS TRIYULENS MANU, (X TJKT 1),261293TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261294TJKT,SAS2024TH,MUHAMAD ABIDZAR, (X TJKT 1),261294TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261295TJKT,SAS2024TH,MUHAMAD AKSAL ZILMANSAH, (X TJKT 1),261295TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261296TJKT,SAS2024TH,MUHAMAD FAZRUL MAULIDI, (X TJKT 1),261296TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261297TJKT,SAS2024TH,MUHAMAD NUR HIDAUYATTULOH, (X TJKT 1),261297TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261298TJKT,SAS2024TH,MUHAMMAD ABDUL RASYID, (X TJKT 1),261298TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261299TJKT,SAS2024TH,MUHAMMAD AIRIL SYAVA, (X TJKT 1),261299TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261300TJKT,SAS2024TH,MUHAMMAD FAIRUZ ADNAN, (X TJKT 1),261300TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261301TJKT,SAS2024TH,MUHAMMAD KHAFI RAMADANI, (X TJKT 1),261301TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261302TJKT,SAS2024TH,PUTRA NUR BIQI, (X TJKT 1),261302TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261303TJKT,SAS2024TH,RAFA RADITYA, (X TJKT 1),261303TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261304TJKT,SAS2024TH,RAFLI ARDY, (X TJKT 1),261304TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261305TJKT,SAS2024TH,RAMDHANI, (X TJKT 1),261305TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261306TJKT,SAS2024TH,RASYA RADITYA PRASETYO, (X TJKT 1),261306TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261307TJKT,SAS2024TH,REYKHAN APRIYANTO, (X TJKT 1),261307TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261308TJKT,SAS2024TH,RIAN CATUR PRASETIO, (X TJKT 1),261308TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261309TJKT,SAS2024TH,RICKO NOVA ARIANTO, (X TJKT 1),261309TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261310TJKT,SAS2024TH,RIDHO BINTANG SAPUTRA, (X TJKT 1),261310TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261311TJKT,SAS2024TH,RISZKI YUDA PRAKOSO, (X TJKT 1),261311TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261312TJKT,SAS2024TH,RIZKY HERDIAN, (X TJKT 1),261312TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261313TJKT,SAS2024TH,RYAN WIBOWO, (X TJKT 1),261313TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261314TJKT,SAS2024TH,SURYA TJANDRA WIJAYA, (X TJKT 1),261314TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261315TJKT,SAS2024TH,UMAR ABDULLAH, (X TJKT 1),261315TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261316TJKT,SAS2024TH,YULITA DIYATAMA, (X TJKT 1),261316TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261317TJKT,SAS2024TH,ZAKARIA NUR AKBAR, (X TJKT 1),261317TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261318TJKT,SAS2024TH,ADITYA PRATAMA, (X TJKT 2),261318TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261319TJKT,SAS2024TH,AFIF AMMAR, (X TJKT 2),261319TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261320TJKT,SAS2024TH,AHMAD AFRIYANSYAH, (X TJKT 2),261320TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261321TJKT,SAS2024TH,AHMAD RIZKI KURNIAWAN, (X TJKT 2),261321TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261322TJKT,SAS2024TH,ANDHIKA SAPUTRA, (X TJKT 2),261322TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261323TJKT,SAS2024TH,ARDIANSYAH, (X TJKT 2),261323TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261324TJKT,SAS2024TH,ARI FEBIANSYAH, (X TJKT 2),261324TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261325TJKT,SAS2024TH,ARIANSYAH JANUWAR, (X TJKT 2),261325TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261326TJKT,SAS2024TH,BAGAS ARIANTO, (X TJKT 2),261326TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261327TJKT,SAS2024TH,BHAKTI ARI SETYAWAN, (X TJKT 2),261327TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261328TJKT,SAS2024TH,CAESAR KUBILAI KHAN, (X TJKT 2),261328TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261329TJKT,SAS2024TH,DANI RAMADHAN, (X TJKT 2),261329TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261330TJKT,SAS2024TH,DEMAZ YOKA, (X TJKT 2),261330TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261331TJKT,SAS2024TH,DICKY ADITYA AKBAR, (X TJKT 2),261331TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261332TJKT,SAS2024TH,DIMAS SETYAWAN, (X TJKT 2),261332TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261333TJKT,SAS2024TH,DIRGA PUTRA FIRMANSYAH, (X TJKT 2),261333TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261334TJKT,SAS2024TH,ERWIN MAULANA, (X TJKT 2),261334TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261335TJKT,SAS2024TH,FARIH KESIT, (X TJKT 2),261335TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261336TJKT,SAS2024TH,FATHIR ARISWIDYANATA, (X TJKT 2),261336TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261337TJKT,SAS2024TH,FAUZAN, (X TJKT 2),261337TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261338TJKT,SAS2024TH,FEBRI HARIYANTO, (X TJKT 2),261338TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261339TJKT,SAS2024TH,FYKI PRATAMA, (X TJKT 2),261339TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261340TJKT,SAS2024TH,GANI ADHARKA PUTRAWARDANA, (X TJKT 2),261340TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261341TJKT,SAS2024TH,ILHAM, (X TJKT 2),261341TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261342TJKT,SAS2024TH,LUTHFI DWI NOVANTO, (X TJKT 2),261342TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261343TJKT,SAS2024TH,MUHAMAD ABDUL ROSSI, (X TJKT 2),261343TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261344TJKT,SAS2024TH,MUHAMAD ALI FAUZAN, (X TJKT 2),261344TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261345TJKT,SAS2024TH,MUHAMAD AR RIDHO, (X TJKT 2),261345TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261346TJKT,SAS2024TH,MUHAMMAD ABHIZART FAHLEVI, (X TJKT 2),261346TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261347TJKT,SAS2024TH,MUHAMMAD ADLY FEBRIAN, (X TJKT 2),261347TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261348TJKT,SAS2024TH,MUHAMMAD AMRIL MUZAKI, (X TJKT 2),261348TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261349TJKT,SAS2024TH,MUHAMMAD FASHYA ARIFIN, (X TJKT 2),261349TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261350TJKT,SAS2024TH,MUHAMMAD FATHAH NUGROHO, (X TJKT 2),261350TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261351TJKT,SAS2024TH,MUHAMMAD FURQON MUQORROBIN, (X TJKT 2),261351TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261352TJKT,SAS2024TH,RAIHAN PUTRA ABDILLAH, (X TJKT 2),261352TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261353TJKT,SAS2024TH,RIAN KUSUMADIKA, (X TJKT 2),261353TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261354TJKT,SAS2024TH,RIDHO SURYA ATMAJA, (X TJKT 2),261354TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261355TJKT,SAS2024TH,RIFA AGAM, (X TJKT 2),261355TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261356TJKT,SAS2024TH,RIFQI DWI ANDIKA, (X TJKT 2),261356TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261357TJKT,SAS2024TH,RIZKI NOVA PRATAMA, (X TJKT 2),261357TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261358TJKT,SAS2024TH,RUDE MARCHALINO, (X TJKT 2),261358TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261359TJKT,SAS2024TH,SULTAN ABDU AL FAATHIR, (X TJKT 2),261359TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261360TJKT,SAS2024TH,TEZAR ADITYA, (X TJKT 2),261360TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261361TJKT,SAS2024TH,WAHYU LAKSANA PUTRA, (X TJKT 2),261361TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261362TJKT,SAS2024TH,YAYAN ARDIYANSAH, (X TJKT 2),261362TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261363TJKT,SAS2024TH,YULIANTO PRASETIO, (X TJKT 2),261363TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261364TJKT,SAS2024TH,ABDUL LATIP, (X TJKT 3),261364TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261365TJKT,SAS2024TH,ADAM KHAIRY YASHA, (X TJKT 3),261365TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261366TJKT,SAS2024TH,ADITIYA HERIYANTO, (X TJKT 3),261366TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261367TJKT,SAS2024TH,ADITYA AWAL TAZUDIN, (X TJKT 3),261367TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261368TJKT,SAS2024TH,ADITYA PUTRA PANGESTU, (X TJKT 3),261368TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261369TJKT,SAS2024TH,AFSOLIEAN KARIF, (X TJKT 3),261369TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261370TJKT,SAS2024TH,AHMAD FADILLAH SYA'BAN, (X TJKT 3),261370TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261371TJKT,SAS2024TH,AHMAD KHAIRUL MUSTOFA, (X TJKT 3),261371TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261372TJKT,SAS2024TH,AHMAD RIFAI, (X TJKT 3),261372TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261373TJKT,SAS2024TH,ALI PATRIYO, (X TJKT 3),261373TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261374TJKT,SAS2024TH,ALNO ANSYAHARIN, (X TJKT 3),261374TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261375TJKT,SAS2024TH,ANGGA PUTRA, (X TJKT 3),261375TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261376TJKT,SAS2024TH,ARDITYA BAGAS PRATAMA, (X TJKT 3),261376TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261377TJKT,SAS2024TH,DIKY RIYADI, (X TJKT 3),261377TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261378TJKT,SAS2024TH,FAHIM MUHAMMAD AL DAFFA, (X TJKT 3),261378TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261379TJKT,SAS2024TH,FAJAR PURNAMA, (X TJKT 3),261379TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261380TJKT,SAS2024TH,FAJRI DWI SAPUTRA, (X TJKT 3),261380TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261381TJKT,SAS2024TH,GIRI MAS PERKASA, (X TJKT 3),261381TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261382TJKT,SAS2024TH,HAYKAL NUR RIZKI, (X TJKT 3),261382TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261383TJKT,SAS2024TH,KATON FAJAR IRAWAN, (X TJKT 3),261383TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261384TJKT,SAS2024TH,KHARIS ALMEIDA ROHMAN, (X TJKT 3),261384TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261385TJKT,SAS2024TH,MOHAMMAD ZIKRA ARFARIDZI, (X TJKT 3),261385TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261386TJKT,SAS2024TH,MUHAMAD LUTFI GHIFFARIE, (X TJKT 3),261386TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261387TJKT,SAS2024TH,MUHAMAD REFFA, (X TJKT 3),261387TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261388TJKT,SAS2024TH,MUHAMAD RIO FRAMUDYA HERMAWAN, (X TJKT 3),261388TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261389TJKT,SAS2024TH,MUHAMMAD ARLIAN SYAPUTRA, (X TJKT 3),261389TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261390TJKT,SAS2024TH,MUHAMMAD FARHAN RAMADHAN, (X TJKT 3),261390TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261391TJKT,SAS2024TH,MUHAMMAD NADHIF RIZALDY, (X TJKT 3),261391TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261392TJKT,SAS2024TH,MUHAMMAD SYARIF AL FATHIER, (X TJKT 3),261392TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261393TJKT,SAS2024TH,MUHAMMAD WILDAN ALFURQON, (X TJKT 3),261393TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261394TJKT,SAS2024TH,MUHAMMAD WILDAN DWI CHANDRA, (X TJKT 3),261394TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261395TJKT,SAS2024TH,PERI SUBAKTI, (X TJKT 3),261395TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261396TJKT,SAS2024TH,RAHMADHAN RIZAL THAULANI, (X TJKT 3),261396TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261397TJKT,SAS2024TH,RAYHAN ARIFIN HIDAYAT, (X TJKT 3),261397TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261398TJKT,SAS2024TH,RAYHAN JULIAN, (X TJKT 3),261398TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261399TJKT,SAS2024TH,RAYHAN NURIL MUSTAQIM, (X TJKT 3),261399TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261400TJKT,SAS2024TH,RAZKA KHAIRUL AMARULLAH, (X TJKT 3),261400TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261401TJKT,SAS2024TH,REZA EGI SAPUTRA, (X TJKT 3),261401TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261402TJKT,SAS2024TH,RIZKI MUHAMAD RAFI, (X TJKT 3),261402TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261403TJKT,SAS2024TH,RIZKY ADI NUGROHO, (X TJKT 3),261403TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261404TJKT,SAS2024TH,RIZKY MUHAMMAD KURNIAWAN, (X TJKT 3),261404TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261405TJKT,SAS2024TH,SATRIA ERLANGGA, (X TJKT 3),261405TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261406TJKT,SAS2024TH,SULTAN NUR ANDRIANSYAH, (X TJKT 3),261406TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261407TJKT,SAS2024TH,SYAHWAL HARIS LUKMANOV, (X TJKT 3),261407TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261408TJKT,SAS2024TH,VICKIH HARIANTO, (X TJKT 3),261408TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261409TJKT,SAS2024TH,YUSRON AL FAWAZ, (X TJKT 3),261409TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261410AKL,SAS2024TH,AMILLIA RUSDYANTO, (XI AKL 1),261410AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261411AKL,SAS2024TH,AWALLUDIN RAHMAN, (XI AKL 1),261411AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261412AKL,SAS2024TH,AYU EKA LESTARI, (XI AKL 1),261412AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261413AKL,SAS2024TH,CANAYYA AZKA NOVERA, (XI AKL 1),261413AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261414AKL,SAS2024TH,DAHLYA, (XI AKL 1),261414AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261415AKL,SAS2024TH,DANIEL FERDINAN, (XI AKL 1),261415AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261416AKL,SAS2024TH,DESTA NUR SETIAWAN PRATAMA, (XI AKL 1),261416AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261417AKL,SAS2024TH,DESVIANTI ANANDA, (XI AKL 1),261417AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261418AKL,SAS2024TH,DZULFIKAR, (XI AKL 1),261418AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261419AKL,SAS2024TH,EFATHA APRELIA ZAI, (XI AKL 1),261419AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261420AKL,SAS2024TH,ERRICA MERLIAN HIDAYAT, (XI AKL 1),261420AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261421AKL,SAS2024TH,FAHTAN ABIMANYU PRASETIA, (XI AKL 1),261421AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261422AKL,SAS2024TH,INAYAH SALSABILAH, (XI AKL 1),261422AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261423AKL,SAS2024TH,IQBAL NUL IKHWAN, (XI AKL 1),261423AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261424AKL,SAS2024TH,JULIAN ALFIUS, (XI AKL 1),261424AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261425AKL,SAS2024TH,JULIUS CHRISTIAN HUTABARAT, (XI AKL 1),261425AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261426AKL,SAS2024TH,KINANTI AULIA, (XI AKL 1),261426AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261427AKL,SAS2024TH,LEHA, (XI AKL 1),261427AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261428AKL,SAS2024TH,MARDIANA, (XI AKL 1),261428AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261429AKL,SAS2024TH,MEDITA LESTARI SUKMA, (XI AKL 1),261429AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261430AKL,SAS2024TH,MELI MERLIYANTI, (XI AKL 1),261430AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261431AKL,SAS2024TH,MONICA SARI DEVI, (XI AKL 1),261431AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261432AKL,SAS2024TH,NABIL RAMDANI, (XI AKL 1),261432AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261433AKL,SAS2024TH,NABILA PUTRI WINANTO, (XI AKL 1),261433AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261434AKL,SAS2024TH,NAJLA KEYRA TANTRI, (XI AKL 1),261434AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261435AKL,SAS2024TH,NANDA ARYA PUTRA, (XI AKL 1),261435AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261436AKL,SAS2024TH,NAURA LUTFIAH RAHMADINA, (XI AKL 1),261436AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261437AKL,SAS2024TH,PURWANTI, (XI AKL 1),261437AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261438AKL,SAS2024TH,RAFI DWI FEBIAN, (XI AKL 1),261438AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261439AKL,SAS2024TH,RATU SAILA SIMA, (XI AKL 1),261439AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261440AKL,SAS2024TH,RIVALDI HAERUDIN, (XI AKL 1),261440AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261441AKL,SAS2024TH,RIZKY ALFIAN, (XI AKL 1),261441AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261442AKL,SAS2024TH,SELA AMALIAH, (XI AKL 1),261442AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261443AKL,SAS2024TH,SHOLEH MARWIDIKA, (XI AKL 1),261443AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261444AKL,SAS2024TH,TASYA MARIMBI, (XI AKL 1),261444AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261445AKL,SAS2024TH,TATIA NUR APRIYANI, (XI AKL 1),261445AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261446AKL,SAS2024TH,TESSA LAVINA WIJAYA PHANG, (XI AKL 1),261446AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261447AKL,SAS2024TH,TILAR MIFTAKHUL JANAH, (XI AKL 1),261447AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261448AKL,SAS2024TH,ADINDA ALYA DWI ANGGRAENI, (XI AKL 2),261448AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261449AKL,SAS2024TH,AGUNG ARDIANSYAH, (XI AKL 2),261449AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261450AKL,SAS2024TH,AKHMELIA CITRA BUDIYANTI, (XI AKL 2),261450AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261451AKL,SAS2024TH,ALFIN KHOIRUL WILDAN, (XI AKL 2),261451AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261452AKL,SAS2024TH,ALISA HILDA APRILIA, (XI AKL 2),261452AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261453AKL,SAS2024TH,ALVI NURMALA D. W, (XI AKL 2),261453AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261454AKL,SAS2024TH,AMIRA KANZA DESLIA, (XI AKL 2),261454AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261455AKL,SAS2024TH,ANI, (XI AKL 2),261455AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261456AKL,SAS2024TH,ANNISA, (XI AKL 2),261456AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261457AKL,SAS2024TH,AULIA FITRIANI, (XI AKL 2),261457AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261458AKL,SAS2024TH,AYU NIA SARAH, (XI AKL 2),261458AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261459AKL,SAS2024TH,DILA AYU LESTARI, (XI AKL 2),261459AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261460AKL,SAS2024TH,DITA VIA ANGGRAENI, (XI AKL 2),261460AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261461AKL,SAS2024TH,EKO PRASETYO, (XI AKL 2),261461AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261462AKL,SAS2024TH,ERVAN HIDAYAT, (XI AKL 2),261462AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261463AKL,SAS2024TH,FRASTIO, (XI AKL 2),261463AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261464AKL,SAS2024TH,GALANG RIZKI ANUGRAH, (XI AKL 2),261464AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261465AKL,SAS2024TH,HARMELIA NAISA PUTRI, (XI AKL 2),261465AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261466AKL,SAS2024TH,IQBAL PERMANA, (XI AKL 2),261466AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261467AKL,SAS2024TH,JEFRI GIOVANIE, (XI AKL 2),261467AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261468AKL,SAS2024TH,KAYLA PUTRI AGUSTIN, (XI AKL 2),261468AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261469AKL,SAS2024TH,KEYZIA SYAFFA ADHILA, (XI AKL 2),261469AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261470AKL,SAS2024TH,M. FAUZI ABDUL ROHIM, (XI AKL 2),261470AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261471AKL,SAS2024TH,MEIFRIZA DWI PUTRA, (XI AKL 2),261471AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261472AKL,SAS2024TH,MOHAMAD RIZKY ALBIANSYAH, (XI AKL 2),261472AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261473AKL,SAS2024TH,MUHAMAD ILHAM, (XI AKL 2),261473AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261474AKL,SAS2024TH,NABILA AL ZAHRA, (XI AKL 2),261474AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261475AKL,SAS2024TH,NOVRIA NAYLA ZAHRA, (XI AKL 2),261475AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261476AKL,SAS2024TH,RENA PUJI LESTARI, (XI AKL 2),261476AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261477AKL,SAS2024TH,REVA AGIS ADELLIA, (XI AKL 2),261477AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261478AKL,SAS2024TH,RIZKY WIJAYA, (XI AKL 2),261478AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261479AKL,SAS2024TH,RIZQI AMANDA, (XI AKL 2),261479AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261480AKL,SAS2024TH,RYFAN ALAMSYAH, (XI AKL 2),261480AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261481AKL,SAS2024TH,SERINA AMELIA PUTRI, (XI AKL 2),261481AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261482AKL,SAS2024TH,SITI NUR FADILAH, (XI AKL 2),261482AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261483AKL,SAS2024TH,SOFHIA AROFAH, (XI AKL 2),261483AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261484AKL,SAS2024TH,SUSI LESTARI LESTIA DEWI, (XI AKL 2),261484AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261485AKL,SAS2024TH,TAUFIK SAPUTRA, (XI AKL 2),261485AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261486AKL,SAS2024TH,TUBAGUS UBAIDILLAH FAJRIN, (XI AKL 2),261486AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261487AKL,SAS2024TH,VANI EKA MELIA, (XI AKL 2),261487AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261488AKL,SAS2024TH,VIRLA DWI ARIYANTI, (XI AKL 2),261488AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261489AKL,SAS2024TH,WIDI ANJARWATI, (XI AKL 2),261489AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261490AKL,SAS2024TH,WIDIYA NINGSIH, (XI AKL 2),261490AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261491DKV,SAS2024TH,ADE SETYA CANDRA, (XI DKV),261491DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261492DKV,SAS2024TH,ARIANSYAH, (XI DKV),261492DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261493DKV,SAS2024TH,ARYA SUBAGJA, (XI DKV),261493DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261494DKV,SAS2024TH,DIAN NOVITA SARI, (XI DKV),261494DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261495DKV,SAS2024TH,DIDA PERKASA, (XI DKV),261495DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261496DKV,SAS2024TH,EGHA PATRIANSYAH, (XI DKV),261496DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261497DKV,SAS2024TH,ESMERALDA VALENCIA WIDJAJA, (XI DKV),261497DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261498DKV,SAS2024TH,FAHIRA ANA PUTRI, (XI DKV),261498DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261499DKV,SAS2024TH,FARHAN SETYAWAN, (XI DKV),261499DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261500DKV,SAS2024TH,GITA INDAH SABANA, (XI DKV),261500DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261501DKV,SAS2024TH,IBNU ADITYA ADNAN, (XI DKV),261501DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261502DKV,SAS2024TH,IKHSAN BAYU NUGROHO, (XI DKV),261502DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261503DKV,SAS2024TH,ISMAIL AHMAD SAHDAD, (XI DKV),261503DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261504DKV,SAS2024TH,ISTAUFIRIN, (XI DKV),261504DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261505DKV,SAS2024TH,IVAN FERDINAN, (XI DKV),261505DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261506DKV,SAS2024TH,JONI, (XI DKV),261506DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261507DKV,SAS2024TH,JUSTIN RAFAEL, (XI DKV),261507DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261508DKV,SAS2024TH,LANANG SINGGIH PANGESTU, (XI DKV),261508DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261509DKV,SAS2024TH,LEON ALEVI GUSTAN, (XI DKV),261509DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261510DKV,SAS2024TH,MARCELL RAKASE, (XI DKV),261510DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261511DKV,SAS2024TH,MARTIN AL FATHONI, (XI DKV),261511DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261512DKV,SAS2024TH,MIXCEL DIMAS JUNIAWAN, (XI DKV),261512DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261513DKV,SAS2024TH,MOSES DOLVIN MAELISSA, (XI DKV),261513DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261514DKV,SAS2024TH,MUHAMAD RIKO SYAHPUTRA, (XI DKV),261514DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261515DKV,SAS2024TH,MUHAMMAD NURSHAM AHMADINEJAD, (XI DKV),261515DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261516DKV,SAS2024TH,MUTIA VARA DILLA, (XI DKV),261516DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261517DKV,SAS2024TH,NADIA ARDHELIA PUTRI, (XI DKV),261517DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261518DKV,SAS2024TH,NAFI'AJI VANOROSSI, (XI DKV),261518DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261519DKV,SAS2024TH,NOFIA INDRIANI, (XI DKV),261519DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261520DKV,SAS2024TH,RAFFAEL EDGINA, (XI DKV),261520DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261521DKV,SAS2024TH,RAFI ACHMAD APRILIANDI, (XI DKV),261521DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261522DKV,SAS2024TH,RAFKA AFRIZAL MUTTAQIN, (XI DKV),261522DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261523DKV,SAS2024TH,RAIHAN DWI FEBRIYANTO, (XI DKV),261523DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261524DKV,SAS2024TH,RAVI HAFIZ ARDIANSYAH, (XI DKV),261524DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261525DKV,SAS2024TH,REGA JUVENSIA SAPUTRA, (XI DKV),261525DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261526DKV,SAS2024TH,REHAN JULIANTO, (XI DKV),261526DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261527DKV,SAS2024TH,RIFAT AKMAL, (XI DKV),261527DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261528DKV,SAS2024TH,RIO ARDIANSYAH, (XI DKV),261528DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261529DKV,SAS2024TH,RIZKY DIAN PERMANA, (XI DKV),261529DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261530DKV,SAS2024TH,RIZQI MUH AKBAR, (XI DKV),261530DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261531DKV,SAS2024TH,RUDIYANSAH, (XI DKV),261531DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261532DKV,SAS2024TH,TUBAGUS RAIHAN RAHMATULLOH HIDAYAT, (XI DKV),261532DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261533DKV,SAS2024TH,VERDINAN WILLIAM HOLLE, (XI DKV),261533DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261534DKV,SAS2024TH,ZASKIA DEVINA ROSALINA, (XI DKV),261534DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261535MPLB,SAS2024TH,ADINDA BUNGA LESTARI, (XI MPLB 1),261535MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261536MPLB,SAS2024TH,ALISYA MERIYANTI, (XI MPLB 1),261536MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261537MPLB,SAS2024TH,ANANDA CINTHYA CLARA ARITONANG, (XI MPLB 1),261537MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261538MPLB,SAS2024TH,ANISSA AL - KHOIRIYAH, (XI MPLB 1),261538MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261539MPLB,SAS2024TH,AZ-ZAHRA NUR AZIZAH SYAHRANI, (XI MPLB 1),261539MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261540MPLB,SAS2024TH,CARLA FERNANDA PUTRI, (XI MPLB 1),261540MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261541MPLB,SAS2024TH,CHATARINA OCTHA PUTRYANI DEYO, (XI MPLB 1),261541MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261542MPLB,SAS2024TH,CHATRIN VEXIA, (XI MPLB 1),261542MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261543MPLB,SAS2024TH,CHESYA TRYASA PUTRY, (XI MPLB 1),261543MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261544MPLB,SAS2024TH,DEVI RISFA DAMIANTI ATONIS, (XI MPLB 1),261544MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261545MPLB,SAS2024TH,DHEA DWI ARYANI, (XI MPLB 1),261545MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261546MPLB,SAS2024TH,EKA SEPTI WULANDARI, (XI MPLB 1),261546MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261547MPLB,SAS2024TH,ELLEN EVELYN ALDEA, (XI MPLB 1),261547MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261548MPLB,SAS2024TH,EUIS MARYANTI, (XI MPLB 1),261548MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261549MPLB,SAS2024TH,FEBY PRAMONO, (XI MPLB 1),261549MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261550MPLB,SAS2024TH,FIVEILIKA CANDRA SARI, (XI MPLB 1),261550MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261551MPLB,SAS2024TH,HARTINI, (XI MPLB 1),261551MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261552MPLB,SAS2024TH,IKA WULANDARI, (XI MPLB 1),261552MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261553MPLB,SAS2024TH,JELITA AURELIA, (XI MPLB 1),261553MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261554MPLB,SAS2024TH,JUWITA HERLINA KABNANI, (XI MPLB 1),261554MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261555MPLB,SAS2024TH,KAMILAH NURSEHA, (XI MPLB 1),261555MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261556MPLB,SAS2024TH,KAYLA RAHMADINI, (XI MPLB 1),261556MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261557MPLB,SAS2024TH,KOMALA SARI, (XI MPLB 1),261557MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261558MPLB,SAS2024TH,LAELI SYIFA AYU NURINSANI, (XI MPLB 1),261558MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261559MPLB,SAS2024TH,LUDIANA FEBRIANI, (XI MPLB 1),261559MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261560MPLB,SAS2024TH,MARIA KARMELIN TADA WAWIN, (XI MPLB 1),261560MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261561MPLB,SAS2024TH,MAULIDYAH SYAM, (XI MPLB 1),261561MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261562MPLB,SAS2024TH,NADYAH AYU KUSUMAWATI, (XI MPLB 1),261562MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261563MPLB,SAS2024TH,NAGITA JUANISAH, (XI MPLB 1),261563MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261564MPLB,SAS2024TH,NAZWA ERSALIA PUTRI, (XI MPLB 1),261564MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261565MPLB,SAS2024TH,NOVA ARYANI BASTIAN, (XI MPLB 1),261565MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261566MPLB,SAS2024TH,NUR AINI AFRIDA, (XI MPLB 1),261566MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261567MPLB,SAS2024TH,NUR FITRIAH RAMADHANI, (XI MPLB 1),261567MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261568MPLB,SAS2024TH,PERMATA AYUDIA, (XI MPLB 1),261568MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261569MPLB,SAS2024TH,PUTRI OCTAVIA RAMADHANY, (XI MPLB 1),261569MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261570MPLB,SAS2024TH,RIZKY DAMAYANTI, (XI MPLB 1),261570MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261571MPLB,SAS2024TH,SEPTI DWI ERIATI, (XI MPLB 1),261571MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261572MPLB,SAS2024TH,SINGGIH UMI UTAMI, (XI MPLB 1),261572MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261573MPLB,SAS2024TH,SYAFA AZZAHRA, (XI MPLB 1),261573MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261574MPLB,SAS2024TH,SZASKYA NOER HANY, (XI MPLB 1),261574MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261575MPLB,SAS2024TH,TARA ZAGITHA, (XI MPLB 1),261575MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261576MPLB,SAS2024TH,TIARA PUTRI ANDIKA, (XI MPLB 1),261576MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261577MPLB,SAS2024TH,WULAN NOVITA SARI, (XI MPLB 1),261577MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261578MPLB,SAS2024TH,ALILATULBARIZA KESYA AGISTI, (XI MPLB 2),261578MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261579MPLB,SAS2024TH,ANNISA KUSMARI, (XI MPLB 2),261579MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261580MPLB,SAS2024TH,AWALIA BUNGA ZHARIFAH, (XI MPLB 2),261580MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261581MPLB,SAS2024TH,AWALIATUL KAMILA, (XI MPLB 2),261581MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261582MPLB,SAS2024TH,CARLA JUNITA, (XI MPLB 2),261582MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261583MPLB,SAS2024TH,DELLA MEISYA ALIFIA, (XI MPLB 2),261583MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261584MPLB,SAS2024TH,DIAH AYU LESTARI, (XI MPLB 2),261584MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261585MPLB,SAS2024TH,DINA APRILIA, (XI MPLB 2),261585MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261586MPLB,SAS2024TH,DWI NAZWA DHILA, (XI MPLB 2),261586MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261587MPLB,SAS2024TH,FAATIHUL KHASANAH, (XI MPLB 2),261587MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261588MPLB,SAS2024TH,FADILA RAHMASARI, (XI MPLB 2),261588MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261589MPLB,SAS2024TH,FITRI ARILA ZAHRA, (XI MPLB 2),261589MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261590MPLB,SAS2024TH,FITRI HANDAYANI, (XI MPLB 2),261590MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261591MPLB,SAS2024TH,GUSTINA, (XI MPLB 2),261591MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261592MPLB,SAS2024TH,HAFIZAH SUSANTI, (XI MPLB 2),261592MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261593MPLB,SAS2024TH,ILYASA RAMADANINGTIAS PRASETYA, (XI MPLB 2),261593MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261594MPLB,SAS2024TH,JESIKA LOSARY HELDY, (XI MPLB 2),261594MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261595MPLB,SAS2024TH,LINDA AGUSTIN, (XI MPLB 2),261595MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261596MPLB,SAS2024TH,LUNA AMALIA AZAHRA, (XI MPLB 2),261596MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261597MPLB,SAS2024TH,LUTFIYATUN NISA, (XI MPLB 2),261597MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261598MPLB,SAS2024TH,MUTIA APRILAH, (XI MPLB 2),261598MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261599MPLB,SAS2024TH,NABILA AZAHRA, (XI MPLB 2),261599MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261600MPLB,SAS2024TH,NABILA PUTRI DAMAYANTI, (XI MPLB 2),261600MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261601MPLB,SAS2024TH,NABILA ZAHRA, (XI MPLB 2),261601MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261602MPLB,SAS2024TH,NAULI SYAHLINA, (XI MPLB 2),261602MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261603MPLB,SAS2024TH,NAYA NATHANIA, (XI MPLB 2),261603MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261604MPLB,SAS2024TH,NAYLA HERLITA, (XI MPLB 2),261604MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261605MPLB,SAS2024TH,NOVIA EKA SAFITRI, (XI MPLB 2),261605MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261606MPLB,SAS2024TH,NOVITA NATASHA, (XI MPLB 2),261606MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261607MPLB,SAS2024TH,NUR AMALAH, (XI MPLB 2),261607MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261608MPLB,SAS2024TH,PUTRI MUHTAZAH, (XI MPLB 2),261608MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261609MPLB,SAS2024TH,RINA ZAHRAH, (XI MPLB 2),261609MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261610MPLB,SAS2024TH,RIZKA SYAFA MAGHFIRA, (XI MPLB 2),261610MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261611MPLB,SAS2024TH,SAFINATUN NAJA, (XI MPLB 2),261611MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261612MPLB,SAS2024TH,SALWA AURISKI AGUSTIN, (XI MPLB 2),261612MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261613MPLB,SAS2024TH,SISKA AMELIA, (XI MPLB 2),261613MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261614MPLB,SAS2024TH,SITI ROBIYAH ADAWIYAH, (XI MPLB 2),261614MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261615MPLB,SAS2024TH,SITI ROHMATULLATIFAH, (XI MPLB 2),261615MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261616MPLB,SAS2024TH,SITI SOFIAH, (XI MPLB 2),261616MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261617MPLB,SAS2024TH,SIVA AULIANI, (XI MPLB 2),261617MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261618MPLB,SAS2024TH,SYIFA QURROTUL 'AIN, (XI MPLB 2),261618MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261619MPLB,SAS2024TH,USWATUN HASANAH, (XI MPLB 2),261619MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261620MPLB,SAS2024TH,ZALFA NABILA PRISTI, (XI MPLB 2),261620MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261621PM,SAS2024TH,AIRIN, (XI PM),261621PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261622PM,SAS2024TH,ANGGI SIAGIAN, (XI PM),261622PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261623PM,SAS2024TH,AURA ADREZY SUPRIYADI, (XI PM),261623PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261624PM,SAS2024TH,AURA KAYLLA PUTRI, (XI PM),261624PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261625PM,SAS2024TH,BOBBY BARUNA, (XI PM),261625PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261626PM,SAS2024TH,CIPTO ALDI PRAMANA, (XI PM),261626PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261627PM,SAS2024TH,DAVIQ KHALIK, (XI PM),261627PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261628PM,SAS2024TH,DIAH KOMALA SARI, (XI PM),261628PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261629PM,SAS2024TH,DIANA PUTRI, (XI PM),261629PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261630PM,SAS2024TH,ENGGAR NANDA SAPUTRA, (XI PM),261630PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261631PM,SAS2024TH,EVI FEBRIYANI, (XI PM),261631PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261632PM,SAS2024TH,FAUZAN JABAHNUR, (XI PM),261632PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261633PM,SAS2024TH,FAUZI GHOZALI, (XI PM),261633PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261634PM,SAS2024TH,FITRI ANDRIYANI, (XI PM),261634PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261635PM,SAS2024TH,FRISCA ANGGITA RAHMADINA, (XI PM),261635PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261636PM,SAS2024TH,FRISINTA EGI AHFATUROHMAH, (XI PM),261636PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261637PM,SAS2024TH,GALANG ROMADHON, (XI PM),261637PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261638PM,SAS2024TH,JEYAN SABILLI, (XI PM),261638PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261639PM,SAS2024TH,M.RAFLI ANDIKA, (XI PM),261639PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261640PM,SAS2024TH,MISEL MONIKA FEYBIOLA, (XI PM),261640PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261641PM,SAS2024TH,MOHAMMAD RIF'AN KHOLILI, (XI PM),261641PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261642PM,SAS2024TH,MUHAMAD AZIZ AL BUKHORY, (XI PM),261642PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261643PM,SAS2024TH,MUHAMAD ILMAN ZIDNI, (XI PM),261643PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261644PM,SAS2024TH,MUHAMMAD HAQQIN NAZILI, (XI PM),261644PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261645PM,SAS2024TH,MUHAMMAD RASYA, (XI PM),261645PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261646PM,SAS2024TH,MUHAMMAD RIDWAN, (XI PM),261646PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261647PM,SAS2024TH,NADIA SANDRA PRATIWI, (XI PM),261647PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261648PM,SAS2024TH,NEIVIELL OLIVIA TJONG, (XI PM),261648PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261649PM,SAS2024TH,NETI PRIYANA, (XI PM),261649PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261650PM,SAS2024TH,NEYSAH DHEA PUTRI, (XI PM),261650PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261651PM,SAS2024TH,NOVA RIANSAH, (XI PM),261651PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261652PM,SAS2024TH,NURUL MULYANI, (XI PM),261652PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261653PM,SAS2024TH,PUTRI NIANSYAH HANDAYANI, (XI PM),261653PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261654PM,SAS2024TH,RAHAYU NOVITA LESTARI, (XI PM),261654PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261655PM,SAS2024TH,RIFQI MAYZA DWI SAPUTRA, (XI PM),261655PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261656PM,SAS2024TH,RISKI, (XI PM),261656PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261657PM,SAS2024TH,ROMLAH SULISTIOWATI, (XI PM),261657PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261658PM,SAS2024TH,SAHRUL ARIPIN, (XI PM),261658PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261659PM,SAS2024TH,SENDY EKA FAJRIANSYAH, (XI PM),261659PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261660PM,SAS2024TH,SUCI RAHMA WATI, (XI PM),261660PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261661PM,SAS2024TH,YUDHA ADI WIJAYA, (XI PM),261661PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261662PM,SAS2024TH,ZAKY RADITYA SUSANTA, (XI PM),261662PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261663TJKT,SAS2024TH,ACHMAD ZAENI ALIFIANSYAH, (XI TJKT 1),261663TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261664TJKT,SAS2024TH,ADE FEBIYAN, (XI TJKT 1),261664TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261665TJKT,SAS2024TH,AKBAR MAULANA, (XI TJKT 1),261665TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261666TJKT,SAS2024TH,ALDI FIRMAN SYAH, (XI TJKT 1),261666TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261667TJKT,SAS2024TH,ALEX REVALDO, (XI TJKT 1),261667TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261668TJKT,SAS2024TH,ALFINTER RICO PARNINGOTAN, (XI TJKT 1),261668TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261669TJKT,SAS2024TH,ALVIAN DWI SASONGKO, (XI TJKT 1),261669TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261670TJKT,SAS2024TH,AMSAL LEONARDO TOBING, (XI TJKT 1),261670TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261671TJKT,SAS2024TH,BAYU SULTAN, (XI TJKT 1),261671TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261672TJKT,SAS2024TH,DAFFA FADLIL AFAN, (XI TJKT 1),261672TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261673TJKT,SAS2024TH,DESTEFANO ADAM REIVAND, (XI TJKT 1),261673TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261674TJKT,SAS2024TH,DIMAS PRAYUDI, (XI TJKT 1),261674TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261675TJKT,SAS2024TH,DYMAS PANJI PANGESTU, (XI TJKT 1),261675TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261676TJKT,SAS2024TH,EGY HARDIANSYAH, (XI TJKT 1),261676TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261677TJKT,SAS2024TH,EVANDRA GUSTI RAHARJO, (XI TJKT 1),261677TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261678TJKT,SAS2024TH,FADHIL FARIZI AZIZ, (XI TJKT 1),261678TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261679TJKT,SAS2024TH,FAISSAL ARMANTO, (XI TJKT 1),261679TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261680TJKT,SAS2024TH,FAREL AFIATUSADID AHMAD, (XI TJKT 1),261680TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261681TJKT,SAS2024TH,FEBRIO SAMMY NUGRAHA, (XI TJKT 1),261681TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261682TJKT,SAS2024TH,HERNAN BUDI LAKSNA, (XI TJKT 1),261682TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261683TJKT,SAS2024TH,ILHAM SAHRUL HASAN, (XI TJKT 1),261683TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261684TJKT,SAS2024TH,IMAM SURYO SUCIPTO, (XI TJKT 1),261684TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261685TJKT,SAS2024TH,INTAN ANGGELIA PUTRI, (XI TJKT 1),261685TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261686TJKT,SAS2024TH,JAFAR UMAR THALIB AL GHIFARI, (XI TJKT 1),261686TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261687TJKT,SAS2024TH,KLIWLY KASMALA HERMAWAN, (XI TJKT 1),261687TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261688TJKT,SAS2024TH,MONICA JULIANA, (XI TJKT 1),261688TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261689TJKT,SAS2024TH,MUHAMAD AZRIL IHSANI, (XI TJKT 1),261689TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261690TJKT,SAS2024TH,MUHAMAD FERDI LESMANA, (XI TJKT 1),261690TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261691TJKT,SAS2024TH,MUHAMAD ZAKI SAPUTRA, (XI TJKT 1),261691TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261692TJKT,SAS2024TH,MUHAMMAD BAGAS FEBRIANSYAH, (XI TJKT 1),261692TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261693TJKT,SAS2024TH,MUHAMMAD FAISHAL, (XI TJKT 1),261693TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261694TJKT,SAS2024TH,MUHAMMAD ILFAN MAULANA, (XI TJKT 1),261694TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261695TJKT,SAS2024TH,MUHAMMAD ILHAM, (XI TJKT 1),261695TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261696TJKT,SAS2024TH,MUHAMMAD NAUFAL MAHDI, (XI TJKT 1),261696TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261697TJKT,SAS2024TH,MUHAMMAD RAHMAT DANI, (XI TJKT 1),261697TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261698TJKT,SAS2024TH,NUGI SATRIA, (XI TJKT 1),261698TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261699TJKT,SAS2024TH,NUR AJI INDRA MAULANA, (XI TJKT 1),261699TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261700TJKT,SAS2024TH,RADITYA SELWA NOVA, (XI TJKT 1),261700TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261701TJKT,SAS2024TH,RAMA WIGUNA, (XI TJKT 1),261701TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261702TJKT,SAS2024TH,RENDY ARDIANSYAH, (XI TJKT 1),261702TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261703TJKT,SAS2024TH,RIFA GLAND ALINSKIE, (XI TJKT 1),261703TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261704TJKT,SAS2024TH,RIKY ARYA SAPUTRO, (XI TJKT 1),261704TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261705TJKT,SAS2024TH,SHAHIBUR RIDWAN, (XI TJKT 1),261705TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261706TJKT,SAS2024TH,WAHYU ANJAR SETIAWAN, (XI TJKT 1),261706TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261707TJKT,SAS2024TH,ZAKY ADRIAN FERNANDO, (XI TJKT 1),261707TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261708TJKT,SAS2024TH,ADI SAPUTRA, (XI TJKT 2),261708TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261709TJKT,SAS2024TH,ADI SETYO GUNAWAN, (XI TJKT 2),261709TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261710TJKT,SAS2024TH,AFRIZA HARDIANTO SAPUTRA, (XI TJKT 2),261710TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261711TJKT,SAS2024TH,AHMAD ADRIAN PRATAMA, (XI TJKT 2),261711TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261712TJKT,SAS2024TH,AJI ILHAM, (XI TJKT 2),261712TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261713TJKT,SAS2024TH,ANGGI ARDIYANSAH, (XI TJKT 2),261713TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261714TJKT,SAS2024TH,ANZANI PESTA JUWITA NAIBAHO, (XI TJKT 2),261714TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261715TJKT,SAS2024TH,ARYA NURKHOLIK, (XI TJKT 2),261715TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261716TJKT,SAS2024TH,BAGAS DWI PRAYOGA, (XI TJKT 2),261716TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261717TJKT,SAS2024TH,BAYU FIRGIAWAN LISTANTO, (XI TJKT 2),261717TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261718TJKT,SAS2024TH,DAFFA ANGGARA RADITYA, (XI TJKT 2),261718TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261719TJKT,SAS2024TH,ERLAND SBASTIAN GUNAWAN, (XI TJKT 2),261719TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261720TJKT,SAS2024TH,FARIS AHMAD RIFQY, (XI TJKT 2),261720TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261721TJKT,SAS2024TH,FAYAD HAWARI, (XI TJKT 2),261721TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261722TJKT,SAS2024TH,GILANG MUHADZIB, (XI TJKT 2),261722TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261723TJKT,SAS2024TH,IBNU BACTIAR GULTOM, (XI TJKT 2),261723TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261724TJKT,SAS2024TH,IKFANSYAH, (XI TJKT 2),261724TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261725TJKT,SAS2024TH,IKHSAN NURRIZKY, (XI TJKT 2),261725TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261726TJKT,SAS2024TH,JONATHAN IGBAL PUTRA, (XI TJKT 2),261726TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261727TJKT,SAS2024TH,LEFI NURYANDI, (XI TJKT 2),261727TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261728TJKT,SAS2024TH,MERLINA EVELYN, (XI TJKT 2),261728TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261729TJKT,SAS2024TH,MUHAMAD RISKI, (XI TJKT 2),261729TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261730TJKT,SAS2024TH,MUHAMAD SYAISAR RAMADHAN, (XI TJKT 2),261730TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261731TJKT,SAS2024TH,MUHAMMAD ADRIANSYAH, (XI TJKT 2),261731TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261732TJKT,SAS2024TH,MUHAMMAD GILANG RADITIYA, (XI TJKT 2),261732TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261733TJKT,SAS2024TH,MUHAMMAD RIZKI SAPUTRA, (XI TJKT 2),261733TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261734TJKT,SAS2024TH,MUHAMMAD SAEFULAH, (XI TJKT 2),261734TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261735TJKT,SAS2024TH,NAUKY BAGUS PRATAMA, (XI TJKT 2),261735TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261736TJKT,SAS2024TH,NUR AWAL SANTOSO, (XI TJKT 2),261736TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261737TJKT,SAS2024TH,RADIT SYAHPUTRA, (XI TJKT 2),261737TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261738TJKT,SAS2024TH,RAFFI PRASETIA, (XI TJKT 2),261738TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261739TJKT,SAS2024TH,RAHMANDANI, (XI TJKT 2),261739TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261740TJKT,SAS2024TH,RENDI IRWANSYAH, (XI TJKT 2),261740TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261741TJKT,SAS2024TH,RENDY PUTRA AFIA, (XI TJKT 2),261741TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261742TJKT,SAS2024TH,RIZKY KURNIAWAN, (XI TJKT 2),261742TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261743TJKT,SAS2024TH,RIZQI MARDIANSYAH, (XI TJKT 2),261743TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261744TJKT,SAS2024TH,ROMI CANDRA WINATA, (XI TJKT 2),261744TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261745TJKT,SAS2024TH,SHERIL ARDIKA ASSHAWA, (XI TJKT 2),261745TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261746TJKT,SAS2024TH,SONI SAPUTRA, (XI TJKT 2),261746TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261747TJKT,SAS2024TH,SYAHDANI AGUSTIO, (XI TJKT 2),261747TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261748TJKT,SAS2024TH,WIKO RIPANDA PUTRA, (XI TJKT 2),261748TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261749TJKT,SAS2024TH,ADE RAFLI, (XI TJKT 3),261749TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261750TJKT,SAS2024TH,AGUNG NUR RISKI, (XI TJKT 3),261750TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261751TJKT,SAS2024TH,AHMAD ABIDZAR RIFA'I, (XI TJKT 3),261751TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261752TJKT,SAS2024TH,AHMAD EKA PRATAMA, (XI TJKT 3),261752TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261753TJKT,SAS2024TH,AHMAD HAERUL HADI, (XI TJKT 3),261753TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261754TJKT,SAS2024TH,BAGAS SADEWO JATI, (XI TJKT 3),261754TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261755TJKT,SAS2024TH,DIMAS SAPUTRA, (XI TJKT 3),261755TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261756TJKT,SAS2024TH,DWI ADI NUGROHO, (XI TJKT 3),261756TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261757TJKT,SAS2024TH,ERIK YOGA PRATAMA, (XI TJKT 3),261757TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261758TJKT,SAS2024TH,ERLANGGA SAPUTRA, (XI TJKT 3),261758TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261759TJKT,SAS2024TH,EVAN TRILYANTO, (XI TJKT 3),261759TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261760TJKT,SAS2024TH,FADHIL KURNIAWAN, (XI TJKT 3),261760TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261761TJKT,SAS2024TH,FAHMI WIJAYA, (XI TJKT 3),261761TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261762TJKT,SAS2024TH,FASKALIS HAMBALLAH AKBAR, (XI TJKT 3),261762TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261763TJKT,SAS2024TH,FAZA ZAHIDAN, (XI TJKT 3),261763TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261764TJKT,SAS2024TH,GALIH ADI APRIANSYAH, (XI TJKT 3),261764TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261765TJKT,SAS2024TH,IBNU BASUNJAY, (XI TJKT 3),261765TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261766TJKT,SAS2024TH,IBRA HAFIZH HERMAWAN, (XI TJKT 3),261766TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261767TJKT,SAS2024TH,IRWAN SURYANATA, (XI TJKT 3),261767TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261768TJKT,SAS2024TH,LUTFIANSYAH ALFAHREZI, (XI TJKT 3),261768TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261769TJKT,SAS2024TH,MAULANA ISHAQ, (XI TJKT 3),261769TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261770TJKT,SAS2024TH,MAULANA SANJAYA, (XI TJKT 3),261770TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261771TJKT,SAS2024TH,MOHAMMAD FAIZ SHALIHIN, (XI TJKT 3),261771TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261772TJKT,SAS2024TH,MUHAMAD IQBAL AL FAREZI, (XI TJKT 3),261772TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261773TJKT,SAS2024TH,MUHAMMAD ARMAN MALIKI, (XI TJKT 3),261773TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261774TJKT,SAS2024TH,MUHAMMAD CHOIRUL HAMZAH, (XI TJKT 3),261774TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261775TJKT,SAS2024TH,MUHAMMAD FADIL, (XI TJKT 3),261775TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261776TJKT,SAS2024TH,MUHAMMAD HAIKHAL RAMDHANI, (XI TJKT 3),261776TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261777TJKT,SAS2024TH,MUHAMMAD RAIHAN, (XI TJKT 3),261777TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261778TJKT,SAS2024TH,NASYIFA ADINDA, (XI TJKT 3),261778TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261779TJKT,SAS2024TH,NOREEN TRIPUTRA, (XI TJKT 3),261779TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261780TJKT,SAS2024TH,PUTRA RASIET ANDRIANSYAH PRATAMA, (XI TJKT 3),261780TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261781TJKT,SAS2024TH,RADITYA PUTRA HARSYAH, (XI TJKT 3),261781TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261782TJKT,SAS2024TH,RADJA HIDAYAT, (XI TJKT 3),261782TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261783TJKT,SAS2024TH,RAIHAN PUTRA LESMANA, (XI TJKT 3),261783TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261784TJKT,SAS2024TH,RAKAN WIJAYA NENDRA, (XI TJKT 3),261784TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261785TJKT,SAS2024TH,RASYA BAGUS GUNAWAN, (XI TJKT 3),261785TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261786TJKT,SAS2024TH,RIDWAN SAPUTRA, (XI TJKT 3),261786TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261787TJKT,SAS2024TH,RIZAL NURIYANTO, (XI TJKT 3),261787TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261788TJKT,SAS2024TH,RIZKI FATIH AKMAL, (XI TJKT 3),261788TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261789TJKT,SAS2024TH,RIZKY RAHMADAN FALIFI, (XI TJKT 3),261789TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261790TJKT,SAS2024TH,ZAKI NURSYAHMAN, (XI TJKT 3),261790TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261791PM,SAS2024TH,DEJAVU PUTRI EREN, (XI PM),261791PM@gmail.com,XI PM</t>
   </si>
 </sst>
 </file>
@@ -2785,8 +2785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979F1E54-0C4D-3440-89E4-D641D164212B}">
   <dimension ref="A1:A792"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection sqref="A1:A792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/temp_doc/STS X XI 2024 GENAP/impor peserta ujian.xlsx
+++ b/temp_doc/STS X XI 2024 GENAP/impor peserta ujian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/STS X XI 2024 GENAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150552F5-DD08-A143-BFB0-256AE5269206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F107B2-1F90-BD4B-A38B-A107669CD414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{27161CB0-D36A-224C-8430-01DF8F3BE240}"/>
   </bookViews>
@@ -41,2377 +41,2377 @@
     <t>username,password,firstname,lastname,email,cohort1</t>
   </si>
   <si>
-    <t>261001AKL,SAS2024TH,ABDUL RAHMAN AS SAMI, (X AKL 1),261001AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261002AKL,SAS2024TH,AFRILIANI, (X AKL 1),261002AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261003AKL,SAS2024TH,AHMAD DWI ILHAM, (X AKL 1),261003AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261004AKL,SAS2024TH,AHMAD RASYA PRAYOGA, (X AKL 1),261004AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261005AKL,SAS2024TH,AJI PRASETIYO, (X AKL 1),261005AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261006AKL,SAS2024TH,ALDO PRATAMA, (X AKL 1),261006AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261007AKL,SAS2024TH,ALIF RAMADHONA, (X AKL 1),261007AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261008AKL,SAS2024TH,AMELIA ANGGRAENI, (X AKL 1),261008AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261009AKL,SAS2024TH,AQILLA RAFA AMELIA, (X AKL 1),261009AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261010AKL,SAS2024TH,AULIA AZIZAH, (X AKL 1),261010AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261011AKL,SAS2024TH,BAYU AJI PRATAMA, (X AKL 1),261011AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261012AKL,SAS2024TH,CESYAR RAMADHAN, (X AKL 1),261012AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261013AKL,SAS2024TH,CHELSEA NAFISA, (X AKL 1),261013AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261014AKL,SAS2024TH,DAVINA NAZILLA ZALFA, (X AKL 1),261014AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261015AKL,SAS2024TH,DEALOVA YOCHIKA, (X AKL 1),261015AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261016AKL,SAS2024TH,DELA NUR AZIZAH, (X AKL 1),261016AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261017AKL,SAS2024TH,DELLA PUSPITA SARI, (X AKL 1),261017AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261018AKL,SAS2024TH,DIKA JULISTIAN, (X AKL 1),261018AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261019AKL,SAS2024TH,EKA NOVIA ALYZKA, (X AKL 1),261019AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261020AKL,SAS2024TH,ELISABETH, (X AKL 1),261020AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261021AKL,SAS2024TH,ELSAH RAMADHANI, (X AKL 1),261021AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261022AKL,SAS2024TH,FAIZAL AKHMAD FAKHREZI, (X AKL 1),261022AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261023AKL,SAS2024TH,GILANG SAPUTRA, (X AKL 1),261023AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261024AKL,SAS2024TH,HANDOKO DWI OKTAVIANA, (X AKL 1),261024AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261025AKL,SAS2024TH,JULIA RAHMAWATI, (X AKL 1),261025AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261026AKL,SAS2024TH,KAILA ZAHRA, (X AKL 1),261026AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261027AKL,SAS2024TH,KHESYA HARYANTI, (X AKL 1),261027AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261028AKL,SAS2024TH,MALA RAMADANI, (X AKL 1),261028AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261029AKL,SAS2024TH,MEGA APRILIA ANGGREINI, (X AKL 1),261029AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261030AKL,SAS2024TH,MELISA NADIA PUTRI, (X AKL 1),261030AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261031AKL,SAS2024TH,MUHAMMAD KHOLIK, (X AKL 1),261031AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261032AKL,SAS2024TH,MUHAMMAD NUR ILHAM, (X AKL 1),261032AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261033AKL,SAS2024TH,PUSPITA ANGGRAENI MARETA, (X AKL 1),261033AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261034AKL,SAS2024TH,RAISYAH IRAWAN, (X AKL 1),261034AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261035AKL,SAS2024TH,RISKA AMELIA, (X AKL 1),261035AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261036AKL,SAS2024TH,SAGITA TRI CAHYANI, (X AKL 1),261036AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261037AKL,SAS2024TH,SALSA ARIESTY PRATAMA, (X AKL 1),261037AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261038AKL,SAS2024TH,SITI HANIIFAH, (X AKL 1),261038AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261039AKL,SAS2024TH,VIOLLETTE GABRIELA CHRISANTA, (X AKL 1),261039AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261040AKL,SAS2024TH,WIDYA LUTHFI, (X AKL 1),261040AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261041AKL,SAS2024TH,WILLIAM ELGIE FEDROSA, (X AKL 1),261041AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261042AKL,SAS2024TH,YENNY, (X AKL 1),261042AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261043AKL,SAS2024TH,ZAHARA, (X AKL 1),261043AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261044AKL,SAS2024TH,ZAHRA AL RIZKY ARTA, (X AKL 1),261044AKL@gmail.com,X AKL 1</t>
-  </si>
-  <si>
-    <t>261045AKL,SAS2024TH,ADITIYA FIRMANSYAH, (X AKL 2),261045AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261046AKL,SAS2024TH,AFIFAH PERWITA SARI, (X AKL 2),261046AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261047AKL,SAS2024TH,AHMAD MAULANA MARCEL, (X AKL 2),261047AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261048AKL,SAS2024TH,ANANG TRIYULIANTO, (X AKL 2),261048AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261049AKL,SAS2024TH,ANISAH FITRI, (X AKL 2),261049AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261050AKL,SAS2024TH,ARDI SAPUTRA, (X AKL 2),261050AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261051AKL,SAS2024TH,ARINI WULANDARI, (X AKL 2),261051AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261052AKL,SAS2024TH,DAMAR NOPRIANSAH, (X AKL 2),261052AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261053AKL,SAS2024TH,DEA SAFITRI, (X AKL 2),261053AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261054AKL,SAS2024TH,DEACY PUTRI AULIA, (X AKL 2),261054AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261055AKL,SAS2024TH,DEFAN AHMAD NURKHOLIS, (X AKL 2),261055AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261056AKL,SAS2024TH,DESLYANA SAFITRI, (X AKL 2),261056AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261057AKL,SAS2024TH,DEWI JULIANTI SAPITRI, (X AKL 2),261057AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261058AKL,SAS2024TH,DEWI SOFIA KUNUPUS, (X AKL 2),261058AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261059AKL,SAS2024TH,DWI SUSILAWATI, (X AKL 2),261059AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261060AKL,SAS2024TH,FAHRY ARDIANSYAH, (X AKL 2),261060AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261061AKL,SAS2024TH,GHEA PEBRIANA, (X AKL 2),261061AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261062AKL,SAS2024TH,HENNY KALINA, (X AKL 2),261062AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261063AKL,SAS2024TH,HILAL RAMDHANI, (X AKL 2),261063AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261064AKL,SAS2024TH,KEYSA PUTRI MELANDRI, (X AKL 2),261064AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261065AKL,SAS2024TH,M FERZIANSYAH SAPUTRA, (X AKL 2),261065AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261066AKL,SAS2024TH,MARSYA HALWA MARITZA, (X AKL 2),261066AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261067AKL,SAS2024TH,MELIFTIANI, (X AKL 2),261067AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261068AKL,SAS2024TH,MUHAMAD FAHREZY FAIRUS, (X AKL 2),261068AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261069AKL,SAS2024TH,MUHAMAD RIZAL YUSWANTO, (X AKL 2),261069AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261070AKL,SAS2024TH,MUHAMMAD FAHRIF, (X AKL 2),261070AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261071AKL,SAS2024TH,MUHAMMAD RIFALDIANSYAH, (X AKL 2),261071AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261072AKL,SAS2024TH,NABILA DWI LESTARI, (X AKL 2),261072AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261073AKL,SAS2024TH,NAYNA MULYANI, (X AKL 2),261073AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261074AKL,SAS2024TH,NAZWA ZAENABO, (X AKL 2),261074AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261075AKL,SAS2024TH,NIKEISHA ANINDYA FAUZI, (X AKL 2),261075AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261076AKL,SAS2024TH,PANDE MANGOLOI PANDIANGAN, (X AKL 2),261076AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261077AKL,SAS2024TH,PANDU ANANG WIDODO SAPUTRA, (X AKL 2),261077AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261078AKL,SAS2024TH,PANJI ARYA PRASETYA, (X AKL 2),261078AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261079AKL,SAS2024TH,RAISHA NURDIANA, (X AKL 2),261079AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261080AKL,SAS2024TH,RASYA ARDIANSYAH, (X AKL 2),261080AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261081AKL,SAS2024TH,RENDI ARDIANSYAH, (X AKL 2),261081AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261082AKL,SAS2024TH,RISMA NUR INDAH LESTARI, (X AKL 2),261082AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261083AKL,SAS2024TH,RIZKA CAHAYA RAMADHAN, (X AKL 2),261083AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261084AKL,SAS2024TH,RYAN DWI ARDIANSYAH, (X AKL 2),261084AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261085AKL,SAS2024TH,SALMA NUR AISYAH, (X AKL 2),261085AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261086AKL,SAS2024TH,SALZADILA AVRIL PUTRI, (X AKL 2),261086AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261087AKL,SAS2024TH,SITI NURAINI, (X AKL 2),261087AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261088AKL,SAS2024TH,TIARA KUSUMA NINGRUM, (X AKL 2),261088AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261089AKL,SAS2024TH,WULAN DWI RAMADANI, (X AKL 2),261089AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261090AKL,SAS2024TH,ZALSA MAYSHA ADELLA, (X AKL 2),261090AKL@gmail.com,X AKL 2</t>
-  </si>
-  <si>
-    <t>261091DKV,SAS2024TH,ADAM MAULANA, (X DKV),261091DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261092DKV,SAS2024TH,ADITYA KRISNA DJAJA, (X DKV),261092DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261093DKV,SAS2024TH,ADITYA TANGGUH PRAMANA PUTRA, (X DKV),261093DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261094DKV,SAS2024TH,ADRIAN SANJAYA, (X DKV),261094DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261095DKV,SAS2024TH,ALIF APRILIYANSAH, (X DKV),261095DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261096DKV,SAS2024TH,CARRYN FEBRIANTY, (X DKV),261096DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261097DKV,SAS2024TH,CHRISTIAN JOSEPHINE, (X DKV),261097DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261098DKV,SAS2024TH,DAENG DALLE, (X DKV),261098DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261099DKV,SAS2024TH,DIRA PUTRI RAHMASARI, (X DKV),261099DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261100DKV,SAS2024TH,DJENAR MAHESA PUTRI, (X DKV),261100DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261101DKV,SAS2024TH,DWIKI JULIYANA, (X DKV),261101DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261102DKV,SAS2024TH,EKKLESIA FIRDA LIANA, (X DKV),261102DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261103DKV,SAS2024TH,ERIYANI RAHMA, (X DKV),261103DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261104DKV,SAS2024TH,EVAN AGUSTIAZ EFENDI, (X DKV),261104DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261105DKV,SAS2024TH,FAHRI AFRIANSYAH, (X DKV),261105DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261106DKV,SAS2024TH,FAHRI SEPTIAWAN, (X DKV),261106DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261107DKV,SAS2024TH,FARREL DWI IRWANTO, (X DKV),261107DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261108DKV,SAS2024TH,FITRI WULANDARI, (X DKV),261108DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261109DKV,SAS2024TH,FITRIA ROBBY ANI, (X DKV),261109DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261110DKV,SAS2024TH,HELMY KURNIAWAN, (X DKV),261110DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261111DKV,SAS2024TH,IQBAL HABIBALLAH, (X DKV),261111DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261112DKV,SAS2024TH,KIKI CAHYONO, (X DKV),261112DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261113DKV,SAS2024TH,MARCHO SIMON PETRUS BANU, (X DKV),261113DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261114DKV,SAS2024TH,MAULIDHA NUR IZATIN, (X DKV),261114DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261115DKV,SAS2024TH,MAULINDA DEWI, (X DKV),261115DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261116DKV,SAS2024TH,MUHAMAD ALFIAN, (X DKV),261116DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261117DKV,SAS2024TH,MUHAMAD ANGGA SURYA SAPUTRA, (X DKV),261117DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261118DKV,SAS2024TH,MUHAMAD BIAN NURHIKMAH, (X DKV),261118DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261119DKV,SAS2024TH,MUHAMAD RIDWAN, (X DKV),261119DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261120DKV,SAS2024TH,MUHAMMAD ALFATH, (X DKV),261120DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261121DKV,SAS2024TH,MUHAMMAD KHAIRI EL FUAD, (X DKV),261121DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261122DKV,SAS2024TH,MUHAMMAD ROSYAD PURNOMO, (X DKV),261122DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261123DKV,SAS2024TH,MUHAMMAD ZIDANE ALI CANTONA, (X DKV),261123DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261124DKV,SAS2024TH,NAILA ENJELITA, (X DKV),261124DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261125DKV,SAS2024TH,NATHANAEL MOSES SETIADY, (X DKV),261125DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261126DKV,SAS2024TH,NURAINI, (X DKV),261126DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261127DKV,SAS2024TH,RIDO SAPUTRO, (X DKV),261127DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261128DKV,SAS2024TH,SHANDITYA ALVARO, (X DKV),261128DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261129DKV,SAS2024TH,SISKA HANDAYANI, (X DKV),261129DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261130DKV,SAS2024TH,SUCI CANTIKA RAMADANI, (X DKV),261130DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261131DKV,SAS2024TH,SULLY, (X DKV),261131DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261132DKV,SAS2024TH,TRI AWALUDIN, (X DKV),261132DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261133DKV,SAS2024TH,UKASAH AL MUQRI ASSADUSI, (X DKV),261133DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261134DKV,SAS2024TH,VIOLA SASIKIRANA, (X DKV),261134DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261135DKV,SAS2024TH,ZAHRA APRILIA FAADHILAH, (X DKV),261135DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261136DKV,SAS2024TH,ZAKIRAH THALITA ZAHRAH, (X DKV),261136DKV@gmail.com,X DKV</t>
-  </si>
-  <si>
-    <t>261137MPLB,SAS2024TH,ADELLIA RISMA KIRANA, (X MPLB 1),261137MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261138MPLB,SAS2024TH,ALYA PUTRI NAZWA, (X MPLB 1),261138MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261139MPLB,SAS2024TH,ASTIA DESVITA, (X MPLB 1),261139MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261140MPLB,SAS2024TH,ASTRID OKTAVIA LESTARI, (X MPLB 1),261140MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261141MPLB,SAS2024TH,CINDY AYU AGUSTIENA, (X MPLB 1),261141MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261142MPLB,SAS2024TH,CINTA AURIA PUTRI MULYANA, (X MPLB 1),261142MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261143MPLB,SAS2024TH,DEFHINA FEBRIYAHYA, (X MPLB 1),261143MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261144MPLB,SAS2024TH,DELA SUSANTI, (X MPLB 1),261144MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261145MPLB,SAS2024TH,DINA ANGRAENI, (X MPLB 1),261145MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261146MPLB,SAS2024TH,DIVA SALSABILA, (X MPLB 1),261146MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261147MPLB,SAS2024TH,ENGGI AULIA AMANDA PUTRI, (X MPLB 1),261147MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261148MPLB,SAS2024TH,ERIN LARAS SATI, (X MPLB 1),261148MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261149MPLB,SAS2024TH,EVA PURNAMASARI, (X MPLB 1),261149MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261150MPLB,SAS2024TH,FAIRUZ MAULIDA FAIZ, (X MPLB 1),261150MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261151MPLB,SAS2024TH,FATDILAH ANGGI ROFITA, (X MPLB 1),261151MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261152MPLB,SAS2024TH,FEBBY AMRIYANI PUTRI, (X MPLB 1),261152MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261153MPLB,SAS2024TH,FIYANTIKA ERVI, (X MPLB 1),261153MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261154MPLB,SAS2024TH,GISELLA LUTFYA PRAMESTY, (X MPLB 1),261154MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261155MPLB,SAS2024TH,ICA AMELIA, (X MPLB 1),261155MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261156MPLB,SAS2024TH,IKA MEILANI PUTRI, (X MPLB 1),261156MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261157MPLB,SAS2024TH,INTAN CAHAYANI, (X MPLB 1),261157MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261158MPLB,SAS2024TH,KADEK DWI SEPTIANA, (X MPLB 1),261158MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261159MPLB,SAS2024TH,KAYLA AURELLIA LARISSA, (X MPLB 1),261159MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261160MPLB,SAS2024TH,KEISA SAFIRA, (X MPLB 1),261160MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261161MPLB,SAS2024TH,LAILA SYIFA, (X MPLB 1),261161MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261162MPLB,SAS2024TH,MARSHELLA ANDREANI SABU BADIN, (X MPLB 1),261162MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261163MPLB,SAS2024TH,MEYSA ARISMA NATALIA, (X MPLB 1),261163MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261164MPLB,SAS2024TH,MONICA RATNA ADELIA, (X MPLB 1),261164MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261165MPLB,SAS2024TH,MOZA LESTARI RAMADHANI, (X MPLB 1),261165MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261166MPLB,SAS2024TH,NADIA HIDAYAT, (X MPLB 1),261166MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261167MPLB,SAS2024TH,NAZWA AFIFAH, (X MPLB 1),261167MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261168MPLB,SAS2024TH,PUPUT AMEL LESTARI, (X MPLB 1),261168MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261169MPLB,SAS2024TH,PUTRI NADHIFAH RAMADHANI, (X MPLB 1),261169MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261170MPLB,SAS2024TH,PUTRI NAZWA LAMAHODA, (X MPLB 1),261170MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261171MPLB,SAS2024TH,PUTRI SALSABILLA, (X MPLB 1),261171MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261172MPLB,SAS2024TH,RAISYAH HANDAYANI, (X MPLB 1),261172MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261173MPLB,SAS2024TH,RANI ZUNIARDANA, (X MPLB 1),261173MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261174MPLB,SAS2024TH,RASYA SINTA DEWI, (X MPLB 1),261174MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261175MPLB,SAS2024TH,REGINA NURHAYATI, (X MPLB 1),261175MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261176MPLB,SAS2024TH,ROSDIANA, (X MPLB 1),261176MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261177MPLB,SAS2024TH,SITI ASSILLA FATIMAH, (X MPLB 1),261177MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261178MPLB,SAS2024TH,SRI MULYANINGRUM, (X MPLB 1),261178MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261179MPLB,SAS2024TH,SUCI SETYAWATI, (X MPLB 1),261179MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261180MPLB,SAS2024TH,TARA JESYIKA, (X MPLB 1),261180MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261181MPLB,SAS2024TH,WIWIN MUSTIKA SARI, (X MPLB 1),261181MPLB@gmail.com,X MPLB 1</t>
-  </si>
-  <si>
-    <t>261182MPLB,SAS2024TH,ADESIA PUTRI, (X MPLB 2),261182MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261183MPLB,SAS2024TH,ADHITA NAZHIRA, (X MPLB 2),261183MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261184MPLB,SAS2024TH,AFRINA NAFLAH SABIYA, (X MPLB 2),261184MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261185MPLB,SAS2024TH,AMELLIA FEBRIYANI, (X MPLB 2),261185MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261186MPLB,SAS2024TH,ANDINI HERYANTI, (X MPLB 2),261186MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261187MPLB,SAS2024TH,ANDINI SABELLA, (X MPLB 2),261187MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261188MPLB,SAS2024TH,ANNISA RAMADANI, (X MPLB 2),261188MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261189MPLB,SAS2024TH,ASSYIFA SALSA BILA, (X MPLB 2),261189MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261190MPLB,SAS2024TH,BELLA FEBRIYANA, (X MPLB 2),261190MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261191MPLB,SAS2024TH,CANTIKA DUWI PRATIWI, (X MPLB 2),261191MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261192MPLB,SAS2024TH,CICILIYA MELANI PUTRI WINATI, (X MPLB 2),261192MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261193MPLB,SAS2024TH,DIVA DESTIANA, (X MPLB 2),261193MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261194MPLB,SAS2024TH,EKA NORMA RAMADHANI, (X MPLB 2),261194MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261195MPLB,SAS2024TH,EKI TARSINI, (X MPLB 2),261195MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261196MPLB,SAS2024TH,ELSYA AULIYA, (X MPLB 2),261196MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261197MPLB,SAS2024TH,ERIKA LULU GHATHFAAN, (X MPLB 2),261197MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261198MPLB,SAS2024TH,FUTRIA KHALISA, (X MPLB 2),261198MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261199MPLB,SAS2024TH,INDAH NURZULIA, (X MPLB 2),261199MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261200MPLB,SAS2024TH,INDAH RAHMAWATI, (X MPLB 2),261200MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261201MPLB,SAS2024TH,INDAH TRI HAPSARI, (X MPLB 2),261201MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261202MPLB,SAS2024TH,INNEZ PUTRIA ABIDIN, (X MPLB 2),261202MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261203MPLB,SAS2024TH,KEISYA RAMADHANI, (X MPLB 2),261203MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261204MPLB,SAS2024TH,KEYLA FEBRIA, (X MPLB 2),261204MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261205MPLB,SAS2024TH,LUTFIYAH MAHIROH, (X MPLB 2),261205MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261206MPLB,SAS2024TH,LUTHFIYYATUN INKA PERMATASARI, (X MPLB 2),261206MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261207MPLB,SAS2024TH,MARINAH, (X MPLB 2),261207MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261208MPLB,SAS2024TH,MARTHASYA CANTIKA DEWI, (X MPLB 2),261208MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261209MPLB,SAS2024TH,MESYA, (X MPLB 2),261209MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261210MPLB,SAS2024TH,MUTHIA ZAHRAH, (X MPLB 2),261210MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261211MPLB,SAS2024TH,NABILA PUTRI RAMADHANI, (X MPLB 2),261211MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261212MPLB,SAS2024TH,NADEA ELMA PAKASI, (X MPLB 2),261212MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261213MPLB,SAS2024TH,NATASYA PUTRI CAHYANA, (X MPLB 2),261213MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261214MPLB,SAS2024TH,NELLA AGUSTINA, (X MPLB 2),261214MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261215MPLB,SAS2024TH,NOVA LILI HANDRAYANI, (X MPLB 2),261215MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261216MPLB,SAS2024TH,NOVA LINA ANJANI, (X MPLB 2),261216MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261217MPLB,SAS2024TH,PUTRI APRILIA ZAHRA, (X MPLB 2),261217MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261218MPLB,SAS2024TH,RACHMA ANNISA, (X MPLB 2),261218MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261219MPLB,SAS2024TH,RASYAH RACHMA SETIAWAN, (X MPLB 2),261219MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261220MPLB,SAS2024TH,REINATA PRIHATINI, (X MPLB 2),261220MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261221MPLB,SAS2024TH,RISNA HASANAH, (X MPLB 2),261221MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261222MPLB,SAS2024TH,SILVI MELANI PUTRI, (X MPLB 2),261222MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261223MPLB,SAS2024TH,SITI FATIMAH JULIANA, (X MPLB 2),261223MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261224MPLB,SAS2024TH,SULIS KASIH RAMADHANI, (X MPLB 2),261224MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261225MPLB,SAS2024TH,TARISA NURASIAH, (X MPLB 2),261225MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261226MPLB,SAS2024TH,THYNTA ASMARANI PUTRI, (X MPLB 2),261226MPLB@gmail.com,X MPLB 2</t>
-  </si>
-  <si>
-    <t>261227PM,SAS2024TH,AJENG KARTIKA CHANDRALIS PUTRI, (X PM),261227PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261228PM,SAS2024TH,AL RASYA TRI SAHLAN, (X PM),261228PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261229PM,SAS2024TH,ANDIKA, (X PM),261229PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261230PM,SAS2024TH,ANDRYANTO FEBRIANSYAH, (X PM),261230PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261231PM,SAS2024TH,ARIF FIRMANSYAH, (X PM),261231PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261232PM,SAS2024TH,AVRILIA ZAHRA, (X PM),261232PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261233PM,SAS2024TH,DEWITA MAHARANI, (X PM),261233PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261234PM,SAS2024TH,DINA LUDFIANA, (X PM),261234PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261235PM,SAS2024TH,DONI SAPUTRA, (X PM),261235PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261236PM,SAS2024TH,EGA ANANDA RENOTA, (X PM),261236PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261237PM,SAS2024TH,FAHRI ANDRIAWAN BAHTIAR, (X PM),261237PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261238PM,SAS2024TH,FAREL PANCA SENA, (X PM),261238PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261239PM,SAS2024TH,FRIDA RISTA MARTASA, (X PM),261239PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261240PM,SAS2024TH,GUNTUR RYANDI, (X PM),261240PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261241PM,SAS2024TH,HERDI ALFIYANSAH, (X PM),261241PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261242PM,SAS2024TH,KEVIN ROMAN SAPUTRA, (X PM),261242PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261243PM,SAS2024TH,KEYLA KEYSA UTAMI, (X PM),261243PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261244PM,SAS2024TH,KHARIZKA YULI AMELIA, (X PM),261244PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261245PM,SAS2024TH,LIDIA SULISTIAWATI, (X PM),261245PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261246PM,SAS2024TH,MUHAMAD ILHAM NURSYAHBANI, (X PM),261246PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261247PM,SAS2024TH,MUHAMAD RIDWAN, (X PM),261247PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261248PM,SAS2024TH,MUHAMMAD FAUZAN PRATAMA, (X PM),261248PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261249PM,SAS2024TH,NATASYA NATALIA, (X PM),261249PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261250PM,SAS2024TH,NIA DAMAYANTI, (X PM),261250PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261251PM,SAS2024TH,NUR AINI, (X PM),261251PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261252PM,SAS2024TH,NUR ALAMSYAH, (X PM),261252PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261253PM,SAS2024TH,PANDU ARYA PRATAMA, (X PM),261253PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261254PM,SAS2024TH,PUTRA EKA PRASETYO, (X PM),261254PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261255PM,SAS2024TH,PUTRI NUR ANJANI, (X PM),261255PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261256PM,SAS2024TH,REFANDI FERDIANSAH, (X PM),261256PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261257PM,SAS2024TH,REHAN INDRA PRATAMA, (X PM),261257PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261258PM,SAS2024TH,REVANI DWI RAHAYU, (X PM),261258PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261259PM,SAS2024TH,REYHAN ERLANGGA, (X PM),261259PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261260PM,SAS2024TH,REZA SATRIA KUSUMA, (X PM),261260PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261261PM,SAS2024TH,RIZKY PUTRA KURNIA, (X PM),261261PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261262PM,SAS2024TH,ROSA APRILIANI, (X PM),261262PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261263PM,SAS2024TH,SELLY SESILIA AL FIANTI, (X PM),261263PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261264PM,SAS2024TH,SEPTI RAHMADINI, (X PM),261264PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261265PM,SAS2024TH,SERLI AULIA, (X PM),261265PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261266PM,SAS2024TH,SHERLY CHAIRRUNNISA SETIAWAN, (X PM),261266PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261267PM,SAS2024TH,SYAFA ARUNA, (X PM),261267PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261268PM,SAS2024TH,TRI RAMADANI, (X PM),261268PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261269PM,SAS2024TH,WAHYU SAPUTRA, (X PM),261269PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261270PM,SAS2024TH,WINDA FAIDAH, (X PM),261270PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261271PM,SAS2024TH,WULAN RIYONO, (X PM),261271PM@gmail.com,X PM</t>
-  </si>
-  <si>
-    <t>261272TJKT,SAS2024TH,ABDUL MUHAMAD HAIR, (X TJKT 1),261272TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261273TJKT,SAS2024TH,ACHMAD RIDWAN, (X TJKT 1),261273TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261274TJKT,SAS2024TH,ALTAN NARENDRA FIRMANSYAH, (X TJKT 1),261274TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261275TJKT,SAS2024TH,ANDHIKA HERDIANA, (X TJKT 1),261275TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261276TJKT,SAS2024TH,ANDINI AULIA PUTRI, (X TJKT 1),261276TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261277TJKT,SAS2024TH,ANDREAN RAZYA ANNAVI, (X TJKT 1),261277TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261278TJKT,SAS2024TH,ANDRIAN WIJAYA, (X TJKT 1),261278TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261279TJKT,SAS2024TH,CINTA JULYA LARASATI, (X TJKT 1),261279TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261280TJKT,SAS2024TH,DAYAN PATTIH KHALAM, (X TJKT 1),261280TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261281TJKT,SAS2024TH,DECO ADI PRIYANDA, (X TJKT 1),261281TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261282TJKT,SAS2024TH,DICKI SAI HIKARU, (X TJKT 1),261282TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261283TJKT,SAS2024TH,FAJAR ARIASIH, (X TJKT 1),261283TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261284TJKT,SAS2024TH,FAJAR FATUR ROKHIM, (X TJKT 1),261284TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261285TJKT,SAS2024TH,FAKHRI SYAPUTRO, (X TJKT 1),261285TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261286TJKT,SAS2024TH,FARDAN IHZA RAMADHAN, (X TJKT 1),261286TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261287TJKT,SAS2024TH,FEBRIAN RACHMANSYAH, (X TJKT 1),261287TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261288TJKT,SAS2024TH,FERNANDO KUNARDI, (X TJKT 1),261288TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261289TJKT,SAS2024TH,GADING ALFARIZY, (X TJKT 1),261289TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261290TJKT,SAS2024TH,HAIKEL PRATAMA, (X TJKT 1),261290TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261291TJKT,SAS2024TH,IKCSAN RAMADHAN, (X TJKT 1),261291TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261292TJKT,SAS2024TH,MALIK AHMAD GUSTAVO, (X TJKT 1),261292TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261293TJKT,SAS2024TH,MARIO JENS TRIYULENS MANU, (X TJKT 1),261293TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261294TJKT,SAS2024TH,MUHAMAD ABIDZAR, (X TJKT 1),261294TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261295TJKT,SAS2024TH,MUHAMAD AKSAL ZILMANSAH, (X TJKT 1),261295TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261296TJKT,SAS2024TH,MUHAMAD FAZRUL MAULIDI, (X TJKT 1),261296TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261297TJKT,SAS2024TH,MUHAMAD NUR HIDAUYATTULOH, (X TJKT 1),261297TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261298TJKT,SAS2024TH,MUHAMMAD ABDUL RASYID, (X TJKT 1),261298TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261299TJKT,SAS2024TH,MUHAMMAD AIRIL SYAVA, (X TJKT 1),261299TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261300TJKT,SAS2024TH,MUHAMMAD FAIRUZ ADNAN, (X TJKT 1),261300TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261301TJKT,SAS2024TH,MUHAMMAD KHAFI RAMADANI, (X TJKT 1),261301TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261302TJKT,SAS2024TH,PUTRA NUR BIQI, (X TJKT 1),261302TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261303TJKT,SAS2024TH,RAFA RADITYA, (X TJKT 1),261303TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261304TJKT,SAS2024TH,RAFLI ARDY, (X TJKT 1),261304TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261305TJKT,SAS2024TH,RAMDHANI, (X TJKT 1),261305TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261306TJKT,SAS2024TH,RASYA RADITYA PRASETYO, (X TJKT 1),261306TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261307TJKT,SAS2024TH,REYKHAN APRIYANTO, (X TJKT 1),261307TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261308TJKT,SAS2024TH,RIAN CATUR PRASETIO, (X TJKT 1),261308TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261309TJKT,SAS2024TH,RICKO NOVA ARIANTO, (X TJKT 1),261309TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261310TJKT,SAS2024TH,RIDHO BINTANG SAPUTRA, (X TJKT 1),261310TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261311TJKT,SAS2024TH,RISZKI YUDA PRAKOSO, (X TJKT 1),261311TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261312TJKT,SAS2024TH,RIZKY HERDIAN, (X TJKT 1),261312TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261313TJKT,SAS2024TH,RYAN WIBOWO, (X TJKT 1),261313TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261314TJKT,SAS2024TH,SURYA TJANDRA WIJAYA, (X TJKT 1),261314TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261315TJKT,SAS2024TH,UMAR ABDULLAH, (X TJKT 1),261315TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261316TJKT,SAS2024TH,YULITA DIYATAMA, (X TJKT 1),261316TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261317TJKT,SAS2024TH,ZAKARIA NUR AKBAR, (X TJKT 1),261317TJKT@gmail.com,X TJKT 1</t>
-  </si>
-  <si>
-    <t>261318TJKT,SAS2024TH,ADITYA PRATAMA, (X TJKT 2),261318TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261319TJKT,SAS2024TH,AFIF AMMAR, (X TJKT 2),261319TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261320TJKT,SAS2024TH,AHMAD AFRIYANSYAH, (X TJKT 2),261320TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261321TJKT,SAS2024TH,AHMAD RIZKI KURNIAWAN, (X TJKT 2),261321TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261322TJKT,SAS2024TH,ANDHIKA SAPUTRA, (X TJKT 2),261322TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261323TJKT,SAS2024TH,ARDIANSYAH, (X TJKT 2),261323TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261324TJKT,SAS2024TH,ARI FEBIANSYAH, (X TJKT 2),261324TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261325TJKT,SAS2024TH,ARIANSYAH JANUWAR, (X TJKT 2),261325TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261326TJKT,SAS2024TH,BAGAS ARIANTO, (X TJKT 2),261326TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261327TJKT,SAS2024TH,BHAKTI ARI SETYAWAN, (X TJKT 2),261327TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261328TJKT,SAS2024TH,CAESAR KUBILAI KHAN, (X TJKT 2),261328TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261329TJKT,SAS2024TH,DANI RAMADHAN, (X TJKT 2),261329TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261330TJKT,SAS2024TH,DEMAZ YOKA, (X TJKT 2),261330TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261331TJKT,SAS2024TH,DICKY ADITYA AKBAR, (X TJKT 2),261331TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261332TJKT,SAS2024TH,DIMAS SETYAWAN, (X TJKT 2),261332TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261333TJKT,SAS2024TH,DIRGA PUTRA FIRMANSYAH, (X TJKT 2),261333TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261334TJKT,SAS2024TH,ERWIN MAULANA, (X TJKT 2),261334TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261335TJKT,SAS2024TH,FARIH KESIT, (X TJKT 2),261335TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261336TJKT,SAS2024TH,FATHIR ARISWIDYANATA, (X TJKT 2),261336TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261337TJKT,SAS2024TH,FAUZAN, (X TJKT 2),261337TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261338TJKT,SAS2024TH,FEBRI HARIYANTO, (X TJKT 2),261338TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261339TJKT,SAS2024TH,FYKI PRATAMA, (X TJKT 2),261339TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261340TJKT,SAS2024TH,GANI ADHARKA PUTRAWARDANA, (X TJKT 2),261340TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261341TJKT,SAS2024TH,ILHAM, (X TJKT 2),261341TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261342TJKT,SAS2024TH,LUTHFI DWI NOVANTO, (X TJKT 2),261342TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261343TJKT,SAS2024TH,MUHAMAD ABDUL ROSSI, (X TJKT 2),261343TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261344TJKT,SAS2024TH,MUHAMAD ALI FAUZAN, (X TJKT 2),261344TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261345TJKT,SAS2024TH,MUHAMAD AR RIDHO, (X TJKT 2),261345TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261346TJKT,SAS2024TH,MUHAMMAD ABHIZART FAHLEVI, (X TJKT 2),261346TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261347TJKT,SAS2024TH,MUHAMMAD ADLY FEBRIAN, (X TJKT 2),261347TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261348TJKT,SAS2024TH,MUHAMMAD AMRIL MUZAKI, (X TJKT 2),261348TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261349TJKT,SAS2024TH,MUHAMMAD FASHYA ARIFIN, (X TJKT 2),261349TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261350TJKT,SAS2024TH,MUHAMMAD FATHAH NUGROHO, (X TJKT 2),261350TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261351TJKT,SAS2024TH,MUHAMMAD FURQON MUQORROBIN, (X TJKT 2),261351TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261352TJKT,SAS2024TH,RAIHAN PUTRA ABDILLAH, (X TJKT 2),261352TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261353TJKT,SAS2024TH,RIAN KUSUMADIKA, (X TJKT 2),261353TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261354TJKT,SAS2024TH,RIDHO SURYA ATMAJA, (X TJKT 2),261354TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261355TJKT,SAS2024TH,RIFA AGAM, (X TJKT 2),261355TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261356TJKT,SAS2024TH,RIFQI DWI ANDIKA, (X TJKT 2),261356TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261357TJKT,SAS2024TH,RIZKI NOVA PRATAMA, (X TJKT 2),261357TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261358TJKT,SAS2024TH,RUDE MARCHALINO, (X TJKT 2),261358TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261359TJKT,SAS2024TH,SULTAN ABDU AL FAATHIR, (X TJKT 2),261359TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261360TJKT,SAS2024TH,TEZAR ADITYA, (X TJKT 2),261360TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261361TJKT,SAS2024TH,WAHYU LAKSANA PUTRA, (X TJKT 2),261361TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261362TJKT,SAS2024TH,YAYAN ARDIYANSAH, (X TJKT 2),261362TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261363TJKT,SAS2024TH,YULIANTO PRASETIO, (X TJKT 2),261363TJKT@gmail.com,X TJKT 2</t>
-  </si>
-  <si>
-    <t>261364TJKT,SAS2024TH,ABDUL LATIP, (X TJKT 3),261364TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261365TJKT,SAS2024TH,ADAM KHAIRY YASHA, (X TJKT 3),261365TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261366TJKT,SAS2024TH,ADITIYA HERIYANTO, (X TJKT 3),261366TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261367TJKT,SAS2024TH,ADITYA AWAL TAZUDIN, (X TJKT 3),261367TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261368TJKT,SAS2024TH,ADITYA PUTRA PANGESTU, (X TJKT 3),261368TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261369TJKT,SAS2024TH,AFSOLIEAN KARIF, (X TJKT 3),261369TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261370TJKT,SAS2024TH,AHMAD FADILLAH SYA'BAN, (X TJKT 3),261370TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261371TJKT,SAS2024TH,AHMAD KHAIRUL MUSTOFA, (X TJKT 3),261371TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261372TJKT,SAS2024TH,AHMAD RIFAI, (X TJKT 3),261372TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261373TJKT,SAS2024TH,ALI PATRIYO, (X TJKT 3),261373TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261374TJKT,SAS2024TH,ALNO ANSYAHARIN, (X TJKT 3),261374TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261375TJKT,SAS2024TH,ANGGA PUTRA, (X TJKT 3),261375TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261376TJKT,SAS2024TH,ARDITYA BAGAS PRATAMA, (X TJKT 3),261376TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261377TJKT,SAS2024TH,DIKY RIYADI, (X TJKT 3),261377TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261378TJKT,SAS2024TH,FAHIM MUHAMMAD AL DAFFA, (X TJKT 3),261378TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261379TJKT,SAS2024TH,FAJAR PURNAMA, (X TJKT 3),261379TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261380TJKT,SAS2024TH,FAJRI DWI SAPUTRA, (X TJKT 3),261380TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261381TJKT,SAS2024TH,GIRI MAS PERKASA, (X TJKT 3),261381TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261382TJKT,SAS2024TH,HAYKAL NUR RIZKI, (X TJKT 3),261382TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261383TJKT,SAS2024TH,KATON FAJAR IRAWAN, (X TJKT 3),261383TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261384TJKT,SAS2024TH,KHARIS ALMEIDA ROHMAN, (X TJKT 3),261384TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261385TJKT,SAS2024TH,MOHAMMAD ZIKRA ARFARIDZI, (X TJKT 3),261385TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261386TJKT,SAS2024TH,MUHAMAD LUTFI GHIFFARIE, (X TJKT 3),261386TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261387TJKT,SAS2024TH,MUHAMAD REFFA, (X TJKT 3),261387TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261388TJKT,SAS2024TH,MUHAMAD RIO FRAMUDYA HERMAWAN, (X TJKT 3),261388TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261389TJKT,SAS2024TH,MUHAMMAD ARLIAN SYAPUTRA, (X TJKT 3),261389TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261390TJKT,SAS2024TH,MUHAMMAD FARHAN RAMADHAN, (X TJKT 3),261390TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261391TJKT,SAS2024TH,MUHAMMAD NADHIF RIZALDY, (X TJKT 3),261391TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261392TJKT,SAS2024TH,MUHAMMAD SYARIF AL FATHIER, (X TJKT 3),261392TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261393TJKT,SAS2024TH,MUHAMMAD WILDAN ALFURQON, (X TJKT 3),261393TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261394TJKT,SAS2024TH,MUHAMMAD WILDAN DWI CHANDRA, (X TJKT 3),261394TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261395TJKT,SAS2024TH,PERI SUBAKTI, (X TJKT 3),261395TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261396TJKT,SAS2024TH,RAHMADHAN RIZAL THAULANI, (X TJKT 3),261396TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261397TJKT,SAS2024TH,RAYHAN ARIFIN HIDAYAT, (X TJKT 3),261397TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261398TJKT,SAS2024TH,RAYHAN JULIAN, (X TJKT 3),261398TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261399TJKT,SAS2024TH,RAYHAN NURIL MUSTAQIM, (X TJKT 3),261399TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261400TJKT,SAS2024TH,RAZKA KHAIRUL AMARULLAH, (X TJKT 3),261400TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261401TJKT,SAS2024TH,REZA EGI SAPUTRA, (X TJKT 3),261401TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261402TJKT,SAS2024TH,RIZKI MUHAMAD RAFI, (X TJKT 3),261402TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261403TJKT,SAS2024TH,RIZKY ADI NUGROHO, (X TJKT 3),261403TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261404TJKT,SAS2024TH,RIZKY MUHAMMAD KURNIAWAN, (X TJKT 3),261404TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261405TJKT,SAS2024TH,SATRIA ERLANGGA, (X TJKT 3),261405TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261406TJKT,SAS2024TH,SULTAN NUR ANDRIANSYAH, (X TJKT 3),261406TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261407TJKT,SAS2024TH,SYAHWAL HARIS LUKMANOV, (X TJKT 3),261407TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261408TJKT,SAS2024TH,VICKIH HARIANTO, (X TJKT 3),261408TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261409TJKT,SAS2024TH,YUSRON AL FAWAZ, (X TJKT 3),261409TJKT@gmail.com,X TJKT 3</t>
-  </si>
-  <si>
-    <t>261410AKL,SAS2024TH,AMILLIA RUSDYANTO, (XI AKL 1),261410AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261411AKL,SAS2024TH,AWALLUDIN RAHMAN, (XI AKL 1),261411AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261412AKL,SAS2024TH,AYU EKA LESTARI, (XI AKL 1),261412AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261413AKL,SAS2024TH,CANAYYA AZKA NOVERA, (XI AKL 1),261413AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261414AKL,SAS2024TH,DAHLYA, (XI AKL 1),261414AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261415AKL,SAS2024TH,DANIEL FERDINAN, (XI AKL 1),261415AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261416AKL,SAS2024TH,DESTA NUR SETIAWAN PRATAMA, (XI AKL 1),261416AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261417AKL,SAS2024TH,DESVIANTI ANANDA, (XI AKL 1),261417AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261418AKL,SAS2024TH,DZULFIKAR, (XI AKL 1),261418AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261419AKL,SAS2024TH,EFATHA APRELIA ZAI, (XI AKL 1),261419AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261420AKL,SAS2024TH,ERRICA MERLIAN HIDAYAT, (XI AKL 1),261420AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261421AKL,SAS2024TH,FAHTAN ABIMANYU PRASETIA, (XI AKL 1),261421AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261422AKL,SAS2024TH,INAYAH SALSABILAH, (XI AKL 1),261422AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261423AKL,SAS2024TH,IQBAL NUL IKHWAN, (XI AKL 1),261423AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261424AKL,SAS2024TH,JULIAN ALFIUS, (XI AKL 1),261424AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261425AKL,SAS2024TH,JULIUS CHRISTIAN HUTABARAT, (XI AKL 1),261425AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261426AKL,SAS2024TH,KINANTI AULIA, (XI AKL 1),261426AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261427AKL,SAS2024TH,LEHA, (XI AKL 1),261427AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261428AKL,SAS2024TH,MARDIANA, (XI AKL 1),261428AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261429AKL,SAS2024TH,MEDITA LESTARI SUKMA, (XI AKL 1),261429AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261430AKL,SAS2024TH,MELI MERLIYANTI, (XI AKL 1),261430AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261431AKL,SAS2024TH,MONICA SARI DEVI, (XI AKL 1),261431AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261432AKL,SAS2024TH,NABIL RAMDANI, (XI AKL 1),261432AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261433AKL,SAS2024TH,NABILA PUTRI WINANTO, (XI AKL 1),261433AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261434AKL,SAS2024TH,NAJLA KEYRA TANTRI, (XI AKL 1),261434AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261435AKL,SAS2024TH,NANDA ARYA PUTRA, (XI AKL 1),261435AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261436AKL,SAS2024TH,NAURA LUTFIAH RAHMADINA, (XI AKL 1),261436AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261437AKL,SAS2024TH,PURWANTI, (XI AKL 1),261437AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261438AKL,SAS2024TH,RAFI DWI FEBIAN, (XI AKL 1),261438AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261439AKL,SAS2024TH,RATU SAILA SIMA, (XI AKL 1),261439AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261440AKL,SAS2024TH,RIVALDI HAERUDIN, (XI AKL 1),261440AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261441AKL,SAS2024TH,RIZKY ALFIAN, (XI AKL 1),261441AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261442AKL,SAS2024TH,SELA AMALIAH, (XI AKL 1),261442AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261443AKL,SAS2024TH,SHOLEH MARWIDIKA, (XI AKL 1),261443AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261444AKL,SAS2024TH,TASYA MARIMBI, (XI AKL 1),261444AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261445AKL,SAS2024TH,TATIA NUR APRIYANI, (XI AKL 1),261445AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261446AKL,SAS2024TH,TESSA LAVINA WIJAYA PHANG, (XI AKL 1),261446AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261447AKL,SAS2024TH,TILAR MIFTAKHUL JANAH, (XI AKL 1),261447AKL@gmail.com,XI AKL 1</t>
-  </si>
-  <si>
-    <t>261448AKL,SAS2024TH,ADINDA ALYA DWI ANGGRAENI, (XI AKL 2),261448AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261449AKL,SAS2024TH,AGUNG ARDIANSYAH, (XI AKL 2),261449AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261450AKL,SAS2024TH,AKHMELIA CITRA BUDIYANTI, (XI AKL 2),261450AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261451AKL,SAS2024TH,ALFIN KHOIRUL WILDAN, (XI AKL 2),261451AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261452AKL,SAS2024TH,ALISA HILDA APRILIA, (XI AKL 2),261452AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261453AKL,SAS2024TH,ALVI NURMALA D. W, (XI AKL 2),261453AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261454AKL,SAS2024TH,AMIRA KANZA DESLIA, (XI AKL 2),261454AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261455AKL,SAS2024TH,ANI, (XI AKL 2),261455AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261456AKL,SAS2024TH,ANNISA, (XI AKL 2),261456AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261457AKL,SAS2024TH,AULIA FITRIANI, (XI AKL 2),261457AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261458AKL,SAS2024TH,AYU NIA SARAH, (XI AKL 2),261458AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261459AKL,SAS2024TH,DILA AYU LESTARI, (XI AKL 2),261459AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261460AKL,SAS2024TH,DITA VIA ANGGRAENI, (XI AKL 2),261460AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261461AKL,SAS2024TH,EKO PRASETYO, (XI AKL 2),261461AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261462AKL,SAS2024TH,ERVAN HIDAYAT, (XI AKL 2),261462AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261463AKL,SAS2024TH,FRASTIO, (XI AKL 2),261463AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261464AKL,SAS2024TH,GALANG RIZKI ANUGRAH, (XI AKL 2),261464AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261465AKL,SAS2024TH,HARMELIA NAISA PUTRI, (XI AKL 2),261465AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261466AKL,SAS2024TH,IQBAL PERMANA, (XI AKL 2),261466AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261467AKL,SAS2024TH,JEFRI GIOVANIE, (XI AKL 2),261467AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261468AKL,SAS2024TH,KAYLA PUTRI AGUSTIN, (XI AKL 2),261468AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261469AKL,SAS2024TH,KEYZIA SYAFFA ADHILA, (XI AKL 2),261469AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261470AKL,SAS2024TH,M. FAUZI ABDUL ROHIM, (XI AKL 2),261470AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261471AKL,SAS2024TH,MEIFRIZA DWI PUTRA, (XI AKL 2),261471AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261472AKL,SAS2024TH,MOHAMAD RIZKY ALBIANSYAH, (XI AKL 2),261472AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261473AKL,SAS2024TH,MUHAMAD ILHAM, (XI AKL 2),261473AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261474AKL,SAS2024TH,NABILA AL ZAHRA, (XI AKL 2),261474AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261475AKL,SAS2024TH,NOVRIA NAYLA ZAHRA, (XI AKL 2),261475AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261476AKL,SAS2024TH,RENA PUJI LESTARI, (XI AKL 2),261476AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261477AKL,SAS2024TH,REVA AGIS ADELLIA, (XI AKL 2),261477AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261478AKL,SAS2024TH,RIZKY WIJAYA, (XI AKL 2),261478AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261479AKL,SAS2024TH,RIZQI AMANDA, (XI AKL 2),261479AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261480AKL,SAS2024TH,RYFAN ALAMSYAH, (XI AKL 2),261480AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261481AKL,SAS2024TH,SERINA AMELIA PUTRI, (XI AKL 2),261481AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261482AKL,SAS2024TH,SITI NUR FADILAH, (XI AKL 2),261482AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261483AKL,SAS2024TH,SOFHIA AROFAH, (XI AKL 2),261483AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261484AKL,SAS2024TH,SUSI LESTARI LESTIA DEWI, (XI AKL 2),261484AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261485AKL,SAS2024TH,TAUFIK SAPUTRA, (XI AKL 2),261485AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261486AKL,SAS2024TH,TUBAGUS UBAIDILLAH FAJRIN, (XI AKL 2),261486AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261487AKL,SAS2024TH,VANI EKA MELIA, (XI AKL 2),261487AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261488AKL,SAS2024TH,VIRLA DWI ARIYANTI, (XI AKL 2),261488AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261489AKL,SAS2024TH,WIDI ANJARWATI, (XI AKL 2),261489AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261490AKL,SAS2024TH,WIDIYA NINGSIH, (XI AKL 2),261490AKL@gmail.com,XI AKL 2</t>
-  </si>
-  <si>
-    <t>261491DKV,SAS2024TH,ADE SETYA CANDRA, (XI DKV),261491DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261492DKV,SAS2024TH,ARIANSYAH, (XI DKV),261492DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261493DKV,SAS2024TH,ARYA SUBAGJA, (XI DKV),261493DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261494DKV,SAS2024TH,DIAN NOVITA SARI, (XI DKV),261494DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261495DKV,SAS2024TH,DIDA PERKASA, (XI DKV),261495DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261496DKV,SAS2024TH,EGHA PATRIANSYAH, (XI DKV),261496DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261497DKV,SAS2024TH,ESMERALDA VALENCIA WIDJAJA, (XI DKV),261497DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261498DKV,SAS2024TH,FAHIRA ANA PUTRI, (XI DKV),261498DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261499DKV,SAS2024TH,FARHAN SETYAWAN, (XI DKV),261499DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261500DKV,SAS2024TH,GITA INDAH SABANA, (XI DKV),261500DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261501DKV,SAS2024TH,IBNU ADITYA ADNAN, (XI DKV),261501DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261502DKV,SAS2024TH,IKHSAN BAYU NUGROHO, (XI DKV),261502DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261503DKV,SAS2024TH,ISMAIL AHMAD SAHDAD, (XI DKV),261503DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261504DKV,SAS2024TH,ISTAUFIRIN, (XI DKV),261504DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261505DKV,SAS2024TH,IVAN FERDINAN, (XI DKV),261505DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261506DKV,SAS2024TH,JONI, (XI DKV),261506DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261507DKV,SAS2024TH,JUSTIN RAFAEL, (XI DKV),261507DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261508DKV,SAS2024TH,LANANG SINGGIH PANGESTU, (XI DKV),261508DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261509DKV,SAS2024TH,LEON ALEVI GUSTAN, (XI DKV),261509DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261510DKV,SAS2024TH,MARCELL RAKASE, (XI DKV),261510DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261511DKV,SAS2024TH,MARTIN AL FATHONI, (XI DKV),261511DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261512DKV,SAS2024TH,MIXCEL DIMAS JUNIAWAN, (XI DKV),261512DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261513DKV,SAS2024TH,MOSES DOLVIN MAELISSA, (XI DKV),261513DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261514DKV,SAS2024TH,MUHAMAD RIKO SYAHPUTRA, (XI DKV),261514DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261515DKV,SAS2024TH,MUHAMMAD NURSHAM AHMADINEJAD, (XI DKV),261515DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261516DKV,SAS2024TH,MUTIA VARA DILLA, (XI DKV),261516DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261517DKV,SAS2024TH,NADIA ARDHELIA PUTRI, (XI DKV),261517DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261518DKV,SAS2024TH,NAFI'AJI VANOROSSI, (XI DKV),261518DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261519DKV,SAS2024TH,NOFIA INDRIANI, (XI DKV),261519DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261520DKV,SAS2024TH,RAFFAEL EDGINA, (XI DKV),261520DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261521DKV,SAS2024TH,RAFI ACHMAD APRILIANDI, (XI DKV),261521DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261522DKV,SAS2024TH,RAFKA AFRIZAL MUTTAQIN, (XI DKV),261522DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261523DKV,SAS2024TH,RAIHAN DWI FEBRIYANTO, (XI DKV),261523DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261524DKV,SAS2024TH,RAVI HAFIZ ARDIANSYAH, (XI DKV),261524DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261525DKV,SAS2024TH,REGA JUVENSIA SAPUTRA, (XI DKV),261525DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261526DKV,SAS2024TH,REHAN JULIANTO, (XI DKV),261526DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261527DKV,SAS2024TH,RIFAT AKMAL, (XI DKV),261527DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261528DKV,SAS2024TH,RIO ARDIANSYAH, (XI DKV),261528DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261529DKV,SAS2024TH,RIZKY DIAN PERMANA, (XI DKV),261529DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261530DKV,SAS2024TH,RIZQI MUH AKBAR, (XI DKV),261530DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261531DKV,SAS2024TH,RUDIYANSAH, (XI DKV),261531DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261532DKV,SAS2024TH,TUBAGUS RAIHAN RAHMATULLOH HIDAYAT, (XI DKV),261532DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261533DKV,SAS2024TH,VERDINAN WILLIAM HOLLE, (XI DKV),261533DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261534DKV,SAS2024TH,ZASKIA DEVINA ROSALINA, (XI DKV),261534DKV@gmail.com,XI DKV</t>
-  </si>
-  <si>
-    <t>261535MPLB,SAS2024TH,ADINDA BUNGA LESTARI, (XI MPLB 1),261535MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261536MPLB,SAS2024TH,ALISYA MERIYANTI, (XI MPLB 1),261536MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261537MPLB,SAS2024TH,ANANDA CINTHYA CLARA ARITONANG, (XI MPLB 1),261537MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261538MPLB,SAS2024TH,ANISSA AL - KHOIRIYAH, (XI MPLB 1),261538MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261539MPLB,SAS2024TH,AZ-ZAHRA NUR AZIZAH SYAHRANI, (XI MPLB 1),261539MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261540MPLB,SAS2024TH,CARLA FERNANDA PUTRI, (XI MPLB 1),261540MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261541MPLB,SAS2024TH,CHATARINA OCTHA PUTRYANI DEYO, (XI MPLB 1),261541MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261542MPLB,SAS2024TH,CHATRIN VEXIA, (XI MPLB 1),261542MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261543MPLB,SAS2024TH,CHESYA TRYASA PUTRY, (XI MPLB 1),261543MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261544MPLB,SAS2024TH,DEVI RISFA DAMIANTI ATONIS, (XI MPLB 1),261544MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261545MPLB,SAS2024TH,DHEA DWI ARYANI, (XI MPLB 1),261545MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261546MPLB,SAS2024TH,EKA SEPTI WULANDARI, (XI MPLB 1),261546MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261547MPLB,SAS2024TH,ELLEN EVELYN ALDEA, (XI MPLB 1),261547MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261548MPLB,SAS2024TH,EUIS MARYANTI, (XI MPLB 1),261548MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261549MPLB,SAS2024TH,FEBY PRAMONO, (XI MPLB 1),261549MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261550MPLB,SAS2024TH,FIVEILIKA CANDRA SARI, (XI MPLB 1),261550MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261551MPLB,SAS2024TH,HARTINI, (XI MPLB 1),261551MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261552MPLB,SAS2024TH,IKA WULANDARI, (XI MPLB 1),261552MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261553MPLB,SAS2024TH,JELITA AURELIA, (XI MPLB 1),261553MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261554MPLB,SAS2024TH,JUWITA HERLINA KABNANI, (XI MPLB 1),261554MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261555MPLB,SAS2024TH,KAMILAH NURSEHA, (XI MPLB 1),261555MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261556MPLB,SAS2024TH,KAYLA RAHMADINI, (XI MPLB 1),261556MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261557MPLB,SAS2024TH,KOMALA SARI, (XI MPLB 1),261557MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261558MPLB,SAS2024TH,LAELI SYIFA AYU NURINSANI, (XI MPLB 1),261558MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261559MPLB,SAS2024TH,LUDIANA FEBRIANI, (XI MPLB 1),261559MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261560MPLB,SAS2024TH,MARIA KARMELIN TADA WAWIN, (XI MPLB 1),261560MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261561MPLB,SAS2024TH,MAULIDYAH SYAM, (XI MPLB 1),261561MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261562MPLB,SAS2024TH,NADYAH AYU KUSUMAWATI, (XI MPLB 1),261562MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261563MPLB,SAS2024TH,NAGITA JUANISAH, (XI MPLB 1),261563MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261564MPLB,SAS2024TH,NAZWA ERSALIA PUTRI, (XI MPLB 1),261564MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261565MPLB,SAS2024TH,NOVA ARYANI BASTIAN, (XI MPLB 1),261565MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261566MPLB,SAS2024TH,NUR AINI AFRIDA, (XI MPLB 1),261566MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261567MPLB,SAS2024TH,NUR FITRIAH RAMADHANI, (XI MPLB 1),261567MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261568MPLB,SAS2024TH,PERMATA AYUDIA, (XI MPLB 1),261568MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261569MPLB,SAS2024TH,PUTRI OCTAVIA RAMADHANY, (XI MPLB 1),261569MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261570MPLB,SAS2024TH,RIZKY DAMAYANTI, (XI MPLB 1),261570MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261571MPLB,SAS2024TH,SEPTI DWI ERIATI, (XI MPLB 1),261571MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261572MPLB,SAS2024TH,SINGGIH UMI UTAMI, (XI MPLB 1),261572MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261573MPLB,SAS2024TH,SYAFA AZZAHRA, (XI MPLB 1),261573MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261574MPLB,SAS2024TH,SZASKYA NOER HANY, (XI MPLB 1),261574MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261575MPLB,SAS2024TH,TARA ZAGITHA, (XI MPLB 1),261575MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261576MPLB,SAS2024TH,TIARA PUTRI ANDIKA, (XI MPLB 1),261576MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261577MPLB,SAS2024TH,WULAN NOVITA SARI, (XI MPLB 1),261577MPLB@gmail.com,XI MPLB 1</t>
-  </si>
-  <si>
-    <t>261578MPLB,SAS2024TH,ALILATULBARIZA KESYA AGISTI, (XI MPLB 2),261578MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261579MPLB,SAS2024TH,ANNISA KUSMARI, (XI MPLB 2),261579MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261580MPLB,SAS2024TH,AWALIA BUNGA ZHARIFAH, (XI MPLB 2),261580MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261581MPLB,SAS2024TH,AWALIATUL KAMILA, (XI MPLB 2),261581MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261582MPLB,SAS2024TH,CARLA JUNITA, (XI MPLB 2),261582MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261583MPLB,SAS2024TH,DELLA MEISYA ALIFIA, (XI MPLB 2),261583MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261584MPLB,SAS2024TH,DIAH AYU LESTARI, (XI MPLB 2),261584MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261585MPLB,SAS2024TH,DINA APRILIA, (XI MPLB 2),261585MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261586MPLB,SAS2024TH,DWI NAZWA DHILA, (XI MPLB 2),261586MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261587MPLB,SAS2024TH,FAATIHUL KHASANAH, (XI MPLB 2),261587MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261588MPLB,SAS2024TH,FADILA RAHMASARI, (XI MPLB 2),261588MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261589MPLB,SAS2024TH,FITRI ARILA ZAHRA, (XI MPLB 2),261589MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261590MPLB,SAS2024TH,FITRI HANDAYANI, (XI MPLB 2),261590MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261591MPLB,SAS2024TH,GUSTINA, (XI MPLB 2),261591MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261592MPLB,SAS2024TH,HAFIZAH SUSANTI, (XI MPLB 2),261592MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261593MPLB,SAS2024TH,ILYASA RAMADANINGTIAS PRASETYA, (XI MPLB 2),261593MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261594MPLB,SAS2024TH,JESIKA LOSARY HELDY, (XI MPLB 2),261594MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261595MPLB,SAS2024TH,LINDA AGUSTIN, (XI MPLB 2),261595MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261596MPLB,SAS2024TH,LUNA AMALIA AZAHRA, (XI MPLB 2),261596MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261597MPLB,SAS2024TH,LUTFIYATUN NISA, (XI MPLB 2),261597MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261598MPLB,SAS2024TH,MUTIA APRILAH, (XI MPLB 2),261598MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261599MPLB,SAS2024TH,NABILA AZAHRA, (XI MPLB 2),261599MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261600MPLB,SAS2024TH,NABILA PUTRI DAMAYANTI, (XI MPLB 2),261600MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261601MPLB,SAS2024TH,NABILA ZAHRA, (XI MPLB 2),261601MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261602MPLB,SAS2024TH,NAULI SYAHLINA, (XI MPLB 2),261602MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261603MPLB,SAS2024TH,NAYA NATHANIA, (XI MPLB 2),261603MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261604MPLB,SAS2024TH,NAYLA HERLITA, (XI MPLB 2),261604MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261605MPLB,SAS2024TH,NOVIA EKA SAFITRI, (XI MPLB 2),261605MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261606MPLB,SAS2024TH,NOVITA NATASHA, (XI MPLB 2),261606MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261607MPLB,SAS2024TH,NUR AMALAH, (XI MPLB 2),261607MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261608MPLB,SAS2024TH,PUTRI MUHTAZAH, (XI MPLB 2),261608MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261609MPLB,SAS2024TH,RINA ZAHRAH, (XI MPLB 2),261609MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261610MPLB,SAS2024TH,RIZKA SYAFA MAGHFIRA, (XI MPLB 2),261610MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261611MPLB,SAS2024TH,SAFINATUN NAJA, (XI MPLB 2),261611MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261612MPLB,SAS2024TH,SALWA AURISKI AGUSTIN, (XI MPLB 2),261612MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261613MPLB,SAS2024TH,SISKA AMELIA, (XI MPLB 2),261613MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261614MPLB,SAS2024TH,SITI ROBIYAH ADAWIYAH, (XI MPLB 2),261614MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261615MPLB,SAS2024TH,SITI ROHMATULLATIFAH, (XI MPLB 2),261615MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261616MPLB,SAS2024TH,SITI SOFIAH, (XI MPLB 2),261616MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261617MPLB,SAS2024TH,SIVA AULIANI, (XI MPLB 2),261617MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261618MPLB,SAS2024TH,SYIFA QURROTUL 'AIN, (XI MPLB 2),261618MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261619MPLB,SAS2024TH,USWATUN HASANAH, (XI MPLB 2),261619MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261620MPLB,SAS2024TH,ZALFA NABILA PRISTI, (XI MPLB 2),261620MPLB@gmail.com,XI MPLB 2</t>
-  </si>
-  <si>
-    <t>261621PM,SAS2024TH,AIRIN, (XI PM),261621PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261622PM,SAS2024TH,ANGGI SIAGIAN, (XI PM),261622PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261623PM,SAS2024TH,AURA ADREZY SUPRIYADI, (XI PM),261623PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261624PM,SAS2024TH,AURA KAYLLA PUTRI, (XI PM),261624PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261625PM,SAS2024TH,BOBBY BARUNA, (XI PM),261625PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261626PM,SAS2024TH,CIPTO ALDI PRAMANA, (XI PM),261626PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261627PM,SAS2024TH,DAVIQ KHALIK, (XI PM),261627PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261628PM,SAS2024TH,DIAH KOMALA SARI, (XI PM),261628PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261629PM,SAS2024TH,DIANA PUTRI, (XI PM),261629PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261630PM,SAS2024TH,ENGGAR NANDA SAPUTRA, (XI PM),261630PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261631PM,SAS2024TH,EVI FEBRIYANI, (XI PM),261631PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261632PM,SAS2024TH,FAUZAN JABAHNUR, (XI PM),261632PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261633PM,SAS2024TH,FAUZI GHOZALI, (XI PM),261633PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261634PM,SAS2024TH,FITRI ANDRIYANI, (XI PM),261634PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261635PM,SAS2024TH,FRISCA ANGGITA RAHMADINA, (XI PM),261635PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261636PM,SAS2024TH,FRISINTA EGI AHFATUROHMAH, (XI PM),261636PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261637PM,SAS2024TH,GALANG ROMADHON, (XI PM),261637PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261638PM,SAS2024TH,JEYAN SABILLI, (XI PM),261638PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261639PM,SAS2024TH,M.RAFLI ANDIKA, (XI PM),261639PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261640PM,SAS2024TH,MISEL MONIKA FEYBIOLA, (XI PM),261640PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261641PM,SAS2024TH,MOHAMMAD RIF'AN KHOLILI, (XI PM),261641PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261642PM,SAS2024TH,MUHAMAD AZIZ AL BUKHORY, (XI PM),261642PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261643PM,SAS2024TH,MUHAMAD ILMAN ZIDNI, (XI PM),261643PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261644PM,SAS2024TH,MUHAMMAD HAQQIN NAZILI, (XI PM),261644PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261645PM,SAS2024TH,MUHAMMAD RASYA, (XI PM),261645PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261646PM,SAS2024TH,MUHAMMAD RIDWAN, (XI PM),261646PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261647PM,SAS2024TH,NADIA SANDRA PRATIWI, (XI PM),261647PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261648PM,SAS2024TH,NEIVIELL OLIVIA TJONG, (XI PM),261648PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261649PM,SAS2024TH,NETI PRIYANA, (XI PM),261649PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261650PM,SAS2024TH,NEYSAH DHEA PUTRI, (XI PM),261650PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261651PM,SAS2024TH,NOVA RIANSAH, (XI PM),261651PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261652PM,SAS2024TH,NURUL MULYANI, (XI PM),261652PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261653PM,SAS2024TH,PUTRI NIANSYAH HANDAYANI, (XI PM),261653PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261654PM,SAS2024TH,RAHAYU NOVITA LESTARI, (XI PM),261654PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261655PM,SAS2024TH,RIFQI MAYZA DWI SAPUTRA, (XI PM),261655PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261656PM,SAS2024TH,RISKI, (XI PM),261656PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261657PM,SAS2024TH,ROMLAH SULISTIOWATI, (XI PM),261657PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261658PM,SAS2024TH,SAHRUL ARIPIN, (XI PM),261658PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261659PM,SAS2024TH,SENDY EKA FAJRIANSYAH, (XI PM),261659PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261660PM,SAS2024TH,SUCI RAHMA WATI, (XI PM),261660PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261661PM,SAS2024TH,YUDHA ADI WIJAYA, (XI PM),261661PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261662PM,SAS2024TH,ZAKY RADITYA SUSANTA, (XI PM),261662PM@gmail.com,XI PM</t>
-  </si>
-  <si>
-    <t>261663TJKT,SAS2024TH,ACHMAD ZAENI ALIFIANSYAH, (XI TJKT 1),261663TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261664TJKT,SAS2024TH,ADE FEBIYAN, (XI TJKT 1),261664TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261665TJKT,SAS2024TH,AKBAR MAULANA, (XI TJKT 1),261665TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261666TJKT,SAS2024TH,ALDI FIRMAN SYAH, (XI TJKT 1),261666TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261667TJKT,SAS2024TH,ALEX REVALDO, (XI TJKT 1),261667TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261668TJKT,SAS2024TH,ALFINTER RICO PARNINGOTAN, (XI TJKT 1),261668TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261669TJKT,SAS2024TH,ALVIAN DWI SASONGKO, (XI TJKT 1),261669TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261670TJKT,SAS2024TH,AMSAL LEONARDO TOBING, (XI TJKT 1),261670TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261671TJKT,SAS2024TH,BAYU SULTAN, (XI TJKT 1),261671TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261672TJKT,SAS2024TH,DAFFA FADLIL AFAN, (XI TJKT 1),261672TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261673TJKT,SAS2024TH,DESTEFANO ADAM REIVAND, (XI TJKT 1),261673TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261674TJKT,SAS2024TH,DIMAS PRAYUDI, (XI TJKT 1),261674TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261675TJKT,SAS2024TH,DYMAS PANJI PANGESTU, (XI TJKT 1),261675TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261676TJKT,SAS2024TH,EGY HARDIANSYAH, (XI TJKT 1),261676TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261677TJKT,SAS2024TH,EVANDRA GUSTI RAHARJO, (XI TJKT 1),261677TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261678TJKT,SAS2024TH,FADHIL FARIZI AZIZ, (XI TJKT 1),261678TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261679TJKT,SAS2024TH,FAISSAL ARMANTO, (XI TJKT 1),261679TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261680TJKT,SAS2024TH,FAREL AFIATUSADID AHMAD, (XI TJKT 1),261680TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261681TJKT,SAS2024TH,FEBRIO SAMMY NUGRAHA, (XI TJKT 1),261681TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261682TJKT,SAS2024TH,HERNAN BUDI LAKSNA, (XI TJKT 1),261682TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261683TJKT,SAS2024TH,ILHAM SAHRUL HASAN, (XI TJKT 1),261683TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261684TJKT,SAS2024TH,IMAM SURYO SUCIPTO, (XI TJKT 1),261684TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261685TJKT,SAS2024TH,INTAN ANGGELIA PUTRI, (XI TJKT 1),261685TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261686TJKT,SAS2024TH,JAFAR UMAR THALIB AL GHIFARI, (XI TJKT 1),261686TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261687TJKT,SAS2024TH,KLIWLY KASMALA HERMAWAN, (XI TJKT 1),261687TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261688TJKT,SAS2024TH,MONICA JULIANA, (XI TJKT 1),261688TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261689TJKT,SAS2024TH,MUHAMAD AZRIL IHSANI, (XI TJKT 1),261689TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261690TJKT,SAS2024TH,MUHAMAD FERDI LESMANA, (XI TJKT 1),261690TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261691TJKT,SAS2024TH,MUHAMAD ZAKI SAPUTRA, (XI TJKT 1),261691TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261692TJKT,SAS2024TH,MUHAMMAD BAGAS FEBRIANSYAH, (XI TJKT 1),261692TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261693TJKT,SAS2024TH,MUHAMMAD FAISHAL, (XI TJKT 1),261693TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261694TJKT,SAS2024TH,MUHAMMAD ILFAN MAULANA, (XI TJKT 1),261694TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261695TJKT,SAS2024TH,MUHAMMAD ILHAM, (XI TJKT 1),261695TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261696TJKT,SAS2024TH,MUHAMMAD NAUFAL MAHDI, (XI TJKT 1),261696TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261697TJKT,SAS2024TH,MUHAMMAD RAHMAT DANI, (XI TJKT 1),261697TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261698TJKT,SAS2024TH,NUGI SATRIA, (XI TJKT 1),261698TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261699TJKT,SAS2024TH,NUR AJI INDRA MAULANA, (XI TJKT 1),261699TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261700TJKT,SAS2024TH,RADITYA SELWA NOVA, (XI TJKT 1),261700TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261701TJKT,SAS2024TH,RAMA WIGUNA, (XI TJKT 1),261701TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261702TJKT,SAS2024TH,RENDY ARDIANSYAH, (XI TJKT 1),261702TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261703TJKT,SAS2024TH,RIFA GLAND ALINSKIE, (XI TJKT 1),261703TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261704TJKT,SAS2024TH,RIKY ARYA SAPUTRO, (XI TJKT 1),261704TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261705TJKT,SAS2024TH,SHAHIBUR RIDWAN, (XI TJKT 1),261705TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261706TJKT,SAS2024TH,WAHYU ANJAR SETIAWAN, (XI TJKT 1),261706TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261707TJKT,SAS2024TH,ZAKY ADRIAN FERNANDO, (XI TJKT 1),261707TJKT@gmail.com,XI TJKT 1</t>
-  </si>
-  <si>
-    <t>261708TJKT,SAS2024TH,ADI SAPUTRA, (XI TJKT 2),261708TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261709TJKT,SAS2024TH,ADI SETYO GUNAWAN, (XI TJKT 2),261709TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261710TJKT,SAS2024TH,AFRIZA HARDIANTO SAPUTRA, (XI TJKT 2),261710TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261711TJKT,SAS2024TH,AHMAD ADRIAN PRATAMA, (XI TJKT 2),261711TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261712TJKT,SAS2024TH,AJI ILHAM, (XI TJKT 2),261712TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261713TJKT,SAS2024TH,ANGGI ARDIYANSAH, (XI TJKT 2),261713TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261714TJKT,SAS2024TH,ANZANI PESTA JUWITA NAIBAHO, (XI TJKT 2),261714TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261715TJKT,SAS2024TH,ARYA NURKHOLIK, (XI TJKT 2),261715TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261716TJKT,SAS2024TH,BAGAS DWI PRAYOGA, (XI TJKT 2),261716TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261717TJKT,SAS2024TH,BAYU FIRGIAWAN LISTANTO, (XI TJKT 2),261717TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261718TJKT,SAS2024TH,DAFFA ANGGARA RADITYA, (XI TJKT 2),261718TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261719TJKT,SAS2024TH,ERLAND SBASTIAN GUNAWAN, (XI TJKT 2),261719TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261720TJKT,SAS2024TH,FARIS AHMAD RIFQY, (XI TJKT 2),261720TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261721TJKT,SAS2024TH,FAYAD HAWARI, (XI TJKT 2),261721TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261722TJKT,SAS2024TH,GILANG MUHADZIB, (XI TJKT 2),261722TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261723TJKT,SAS2024TH,IBNU BACTIAR GULTOM, (XI TJKT 2),261723TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261724TJKT,SAS2024TH,IKFANSYAH, (XI TJKT 2),261724TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261725TJKT,SAS2024TH,IKHSAN NURRIZKY, (XI TJKT 2),261725TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261726TJKT,SAS2024TH,JONATHAN IGBAL PUTRA, (XI TJKT 2),261726TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261727TJKT,SAS2024TH,LEFI NURYANDI, (XI TJKT 2),261727TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261728TJKT,SAS2024TH,MERLINA EVELYN, (XI TJKT 2),261728TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261729TJKT,SAS2024TH,MUHAMAD RISKI, (XI TJKT 2),261729TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261730TJKT,SAS2024TH,MUHAMAD SYAISAR RAMADHAN, (XI TJKT 2),261730TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261731TJKT,SAS2024TH,MUHAMMAD ADRIANSYAH, (XI TJKT 2),261731TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261732TJKT,SAS2024TH,MUHAMMAD GILANG RADITIYA, (XI TJKT 2),261732TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261733TJKT,SAS2024TH,MUHAMMAD RIZKI SAPUTRA, (XI TJKT 2),261733TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261734TJKT,SAS2024TH,MUHAMMAD SAEFULAH, (XI TJKT 2),261734TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261735TJKT,SAS2024TH,NAUKY BAGUS PRATAMA, (XI TJKT 2),261735TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261736TJKT,SAS2024TH,NUR AWAL SANTOSO, (XI TJKT 2),261736TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261737TJKT,SAS2024TH,RADIT SYAHPUTRA, (XI TJKT 2),261737TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261738TJKT,SAS2024TH,RAFFI PRASETIA, (XI TJKT 2),261738TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261739TJKT,SAS2024TH,RAHMANDANI, (XI TJKT 2),261739TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261740TJKT,SAS2024TH,RENDI IRWANSYAH, (XI TJKT 2),261740TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261741TJKT,SAS2024TH,RENDY PUTRA AFIA, (XI TJKT 2),261741TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261742TJKT,SAS2024TH,RIZKY KURNIAWAN, (XI TJKT 2),261742TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261743TJKT,SAS2024TH,RIZQI MARDIANSYAH, (XI TJKT 2),261743TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261744TJKT,SAS2024TH,ROMI CANDRA WINATA, (XI TJKT 2),261744TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261745TJKT,SAS2024TH,SHERIL ARDIKA ASSHAWA, (XI TJKT 2),261745TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261746TJKT,SAS2024TH,SONI SAPUTRA, (XI TJKT 2),261746TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261747TJKT,SAS2024TH,SYAHDANI AGUSTIO, (XI TJKT 2),261747TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261748TJKT,SAS2024TH,WIKO RIPANDA PUTRA, (XI TJKT 2),261748TJKT@gmail.com,XI TJKT 2</t>
-  </si>
-  <si>
-    <t>261749TJKT,SAS2024TH,ADE RAFLI, (XI TJKT 3),261749TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261750TJKT,SAS2024TH,AGUNG NUR RISKI, (XI TJKT 3),261750TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261751TJKT,SAS2024TH,AHMAD ABIDZAR RIFA'I, (XI TJKT 3),261751TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261752TJKT,SAS2024TH,AHMAD EKA PRATAMA, (XI TJKT 3),261752TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261753TJKT,SAS2024TH,AHMAD HAERUL HADI, (XI TJKT 3),261753TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261754TJKT,SAS2024TH,BAGAS SADEWO JATI, (XI TJKT 3),261754TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261755TJKT,SAS2024TH,DIMAS SAPUTRA, (XI TJKT 3),261755TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261756TJKT,SAS2024TH,DWI ADI NUGROHO, (XI TJKT 3),261756TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261757TJKT,SAS2024TH,ERIK YOGA PRATAMA, (XI TJKT 3),261757TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261758TJKT,SAS2024TH,ERLANGGA SAPUTRA, (XI TJKT 3),261758TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261759TJKT,SAS2024TH,EVAN TRILYANTO, (XI TJKT 3),261759TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261760TJKT,SAS2024TH,FADHIL KURNIAWAN, (XI TJKT 3),261760TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261761TJKT,SAS2024TH,FAHMI WIJAYA, (XI TJKT 3),261761TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261762TJKT,SAS2024TH,FASKALIS HAMBALLAH AKBAR, (XI TJKT 3),261762TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261763TJKT,SAS2024TH,FAZA ZAHIDAN, (XI TJKT 3),261763TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261764TJKT,SAS2024TH,GALIH ADI APRIANSYAH, (XI TJKT 3),261764TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261765TJKT,SAS2024TH,IBNU BASUNJAY, (XI TJKT 3),261765TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261766TJKT,SAS2024TH,IBRA HAFIZH HERMAWAN, (XI TJKT 3),261766TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261767TJKT,SAS2024TH,IRWAN SURYANATA, (XI TJKT 3),261767TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261768TJKT,SAS2024TH,LUTFIANSYAH ALFAHREZI, (XI TJKT 3),261768TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261769TJKT,SAS2024TH,MAULANA ISHAQ, (XI TJKT 3),261769TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261770TJKT,SAS2024TH,MAULANA SANJAYA, (XI TJKT 3),261770TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261771TJKT,SAS2024TH,MOHAMMAD FAIZ SHALIHIN, (XI TJKT 3),261771TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261772TJKT,SAS2024TH,MUHAMAD IQBAL AL FAREZI, (XI TJKT 3),261772TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261773TJKT,SAS2024TH,MUHAMMAD ARMAN MALIKI, (XI TJKT 3),261773TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261774TJKT,SAS2024TH,MUHAMMAD CHOIRUL HAMZAH, (XI TJKT 3),261774TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261775TJKT,SAS2024TH,MUHAMMAD FADIL, (XI TJKT 3),261775TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261776TJKT,SAS2024TH,MUHAMMAD HAIKHAL RAMDHANI, (XI TJKT 3),261776TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261777TJKT,SAS2024TH,MUHAMMAD RAIHAN, (XI TJKT 3),261777TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261778TJKT,SAS2024TH,NASYIFA ADINDA, (XI TJKT 3),261778TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261779TJKT,SAS2024TH,NOREEN TRIPUTRA, (XI TJKT 3),261779TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261780TJKT,SAS2024TH,PUTRA RASIET ANDRIANSYAH PRATAMA, (XI TJKT 3),261780TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261781TJKT,SAS2024TH,RADITYA PUTRA HARSYAH, (XI TJKT 3),261781TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261782TJKT,SAS2024TH,RADJA HIDAYAT, (XI TJKT 3),261782TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261783TJKT,SAS2024TH,RAIHAN PUTRA LESMANA, (XI TJKT 3),261783TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261784TJKT,SAS2024TH,RAKAN WIJAYA NENDRA, (XI TJKT 3),261784TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261785TJKT,SAS2024TH,RASYA BAGUS GUNAWAN, (XI TJKT 3),261785TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261786TJKT,SAS2024TH,RIDWAN SAPUTRA, (XI TJKT 3),261786TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261787TJKT,SAS2024TH,RIZAL NURIYANTO, (XI TJKT 3),261787TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261788TJKT,SAS2024TH,RIZKI FATIH AKMAL, (XI TJKT 3),261788TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261789TJKT,SAS2024TH,RIZKY RAHMADAN FALIFI, (XI TJKT 3),261789TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261790TJKT,SAS2024TH,ZAKI NURSYAHMAN, (XI TJKT 3),261790TJKT@gmail.com,XI TJKT 3</t>
-  </si>
-  <si>
-    <t>261791PM,SAS2024TH,DEJAVU PUTRI EREN, (XI PM),261791PM@gmail.com,XI PM</t>
+    <t>261001AKL,SAS2024TH@,ABDUL RAHMAN AS SAMI, (X AKL 1),261001AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261002AKL,SAS2024TH@,AFRILIANI, (X AKL 1),261002AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261003AKL,SAS2024TH@,AHMAD DWI ILHAM, (X AKL 1),261003AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261004AKL,SAS2024TH@,AHMAD RASYA PRAYOGA, (X AKL 1),261004AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261005AKL,SAS2024TH@,AJI PRASETIYO, (X AKL 1),261005AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261006AKL,SAS2024TH@,ALDO PRATAMA, (X AKL 1),261006AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261007AKL,SAS2024TH@,ALIF RAMADHONA, (X AKL 1),261007AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261008AKL,SAS2024TH@,AMELIA ANGGRAENI, (X AKL 1),261008AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261009AKL,SAS2024TH@,AQILLA RAFA AMELIA, (X AKL 1),261009AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261010AKL,SAS2024TH@,AULIA AZIZAH, (X AKL 1),261010AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261011AKL,SAS2024TH@,BAYU AJI PRATAMA, (X AKL 1),261011AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261012AKL,SAS2024TH@,CESYAR RAMADHAN, (X AKL 1),261012AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261013AKL,SAS2024TH@,CHELSEA NAFISA, (X AKL 1),261013AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261014AKL,SAS2024TH@,DAVINA NAZILLA ZALFA, (X AKL 1),261014AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261015AKL,SAS2024TH@,DEALOVA YOCHIKA, (X AKL 1),261015AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261016AKL,SAS2024TH@,DELA NUR AZIZAH, (X AKL 1),261016AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261017AKL,SAS2024TH@,DELLA PUSPITA SARI, (X AKL 1),261017AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261018AKL,SAS2024TH@,DIKA JULISTIAN, (X AKL 1),261018AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261019AKL,SAS2024TH@,EKA NOVIA ALYZKA, (X AKL 1),261019AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261020AKL,SAS2024TH@,ELISABETH, (X AKL 1),261020AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261021AKL,SAS2024TH@,ELSAH RAMADHANI, (X AKL 1),261021AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261022AKL,SAS2024TH@,FAIZAL AKHMAD FAKHREZI, (X AKL 1),261022AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261023AKL,SAS2024TH@,GILANG SAPUTRA, (X AKL 1),261023AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261024AKL,SAS2024TH@,HANDOKO DWI OKTAVIANA, (X AKL 1),261024AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261025AKL,SAS2024TH@,JULIA RAHMAWATI, (X AKL 1),261025AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261026AKL,SAS2024TH@,KAILA ZAHRA, (X AKL 1),261026AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261027AKL,SAS2024TH@,KHESYA HARYANTI, (X AKL 1),261027AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261028AKL,SAS2024TH@,MALA RAMADANI, (X AKL 1),261028AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261029AKL,SAS2024TH@,MEGA APRILIA ANGGREINI, (X AKL 1),261029AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261030AKL,SAS2024TH@,MELISA NADIA PUTRI, (X AKL 1),261030AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261031AKL,SAS2024TH@,MUHAMMAD KHOLIK, (X AKL 1),261031AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261032AKL,SAS2024TH@,MUHAMMAD NUR ILHAM, (X AKL 1),261032AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261033AKL,SAS2024TH@,PUSPITA ANGGRAENI MARETA, (X AKL 1),261033AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261034AKL,SAS2024TH@,RAISYAH IRAWAN, (X AKL 1),261034AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261035AKL,SAS2024TH@,RISKA AMELIA, (X AKL 1),261035AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261036AKL,SAS2024TH@,SAGITA TRI CAHYANI, (X AKL 1),261036AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261037AKL,SAS2024TH@,SALSA ARIESTY PRATAMA, (X AKL 1),261037AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261038AKL,SAS2024TH@,SITI HANIIFAH, (X AKL 1),261038AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261039AKL,SAS2024TH@,VIOLLETTE GABRIELA CHRISANTA, (X AKL 1),261039AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261040AKL,SAS2024TH@,WIDYA LUTHFI, (X AKL 1),261040AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261041AKL,SAS2024TH@,WILLIAM ELGIE FEDROSA, (X AKL 1),261041AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261042AKL,SAS2024TH@,YENNY, (X AKL 1),261042AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261043AKL,SAS2024TH@,ZAHARA, (X AKL 1),261043AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261044AKL,SAS2024TH@,ZAHRA AL RIZKY ARTA, (X AKL 1),261044AKL@gmail.com,X AKL 1</t>
+  </si>
+  <si>
+    <t>261045AKL,SAS2024TH@,ADITIYA FIRMANSYAH, (X AKL 2),261045AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261046AKL,SAS2024TH@,AFIFAH PERWITA SARI, (X AKL 2),261046AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261047AKL,SAS2024TH@,AHMAD MAULANA MARCEL, (X AKL 2),261047AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261048AKL,SAS2024TH@,ANANG TRIYULIANTO, (X AKL 2),261048AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261049AKL,SAS2024TH@,ANISAH FITRI, (X AKL 2),261049AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261050AKL,SAS2024TH@,ARDI SAPUTRA, (X AKL 2),261050AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261051AKL,SAS2024TH@,ARINI WULANDARI, (X AKL 2),261051AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261052AKL,SAS2024TH@,DAMAR NOPRIANSAH, (X AKL 2),261052AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261053AKL,SAS2024TH@,DEA SAFITRI, (X AKL 2),261053AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261054AKL,SAS2024TH@,DEACY PUTRI AULIA, (X AKL 2),261054AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261055AKL,SAS2024TH@,DEFAN AHMAD NURKHOLIS, (X AKL 2),261055AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261056AKL,SAS2024TH@,DESLYANA SAFITRI, (X AKL 2),261056AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261057AKL,SAS2024TH@,DEWI JULIANTI SAPITRI, (X AKL 2),261057AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261058AKL,SAS2024TH@,DEWI SOFIA KUNUPUS, (X AKL 2),261058AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261059AKL,SAS2024TH@,DWI SUSILAWATI, (X AKL 2),261059AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261060AKL,SAS2024TH@,FAHRY ARDIANSYAH, (X AKL 2),261060AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261061AKL,SAS2024TH@,GHEA PEBRIANA, (X AKL 2),261061AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261062AKL,SAS2024TH@,HENNY KALINA, (X AKL 2),261062AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261063AKL,SAS2024TH@,HILAL RAMDHANI, (X AKL 2),261063AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261064AKL,SAS2024TH@,KEYSA PUTRI MELANDRI, (X AKL 2),261064AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261065AKL,SAS2024TH@,M FERZIANSYAH SAPUTRA, (X AKL 2),261065AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261066AKL,SAS2024TH@,MARSYA HALWA MARITZA, (X AKL 2),261066AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261067AKL,SAS2024TH@,MELIFTIANI, (X AKL 2),261067AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261068AKL,SAS2024TH@,MUHAMAD FAHREZY FAIRUS, (X AKL 2),261068AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261069AKL,SAS2024TH@,MUHAMAD RIZAL YUSWANTO, (X AKL 2),261069AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261070AKL,SAS2024TH@,MUHAMMAD FAHRIF, (X AKL 2),261070AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261071AKL,SAS2024TH@,MUHAMMAD RIFALDIANSYAH, (X AKL 2),261071AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261072AKL,SAS2024TH@,NABILA DWI LESTARI, (X AKL 2),261072AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261073AKL,SAS2024TH@,NAYNA MULYANI, (X AKL 2),261073AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261074AKL,SAS2024TH@,NAZWA ZAENABO, (X AKL 2),261074AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261075AKL,SAS2024TH@,NIKEISHA ANINDYA FAUZI, (X AKL 2),261075AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261076AKL,SAS2024TH@,PANDE MANGOLOI PANDIANGAN, (X AKL 2),261076AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261077AKL,SAS2024TH@,PANDU ANANG WIDODO SAPUTRA, (X AKL 2),261077AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261078AKL,SAS2024TH@,PANJI ARYA PRASETYA, (X AKL 2),261078AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261079AKL,SAS2024TH@,RAISHA NURDIANA, (X AKL 2),261079AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261080AKL,SAS2024TH@,RASYA ARDIANSYAH, (X AKL 2),261080AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261081AKL,SAS2024TH@,RENDI ARDIANSYAH, (X AKL 2),261081AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261082AKL,SAS2024TH@,RISMA NUR INDAH LESTARI, (X AKL 2),261082AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261083AKL,SAS2024TH@,RIZKA CAHAYA RAMADHAN, (X AKL 2),261083AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261084AKL,SAS2024TH@,RYAN DWI ARDIANSYAH, (X AKL 2),261084AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261085AKL,SAS2024TH@,SALMA NUR AISYAH, (X AKL 2),261085AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261086AKL,SAS2024TH@,SALZADILA AVRIL PUTRI, (X AKL 2),261086AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261087AKL,SAS2024TH@,SITI NURAINI, (X AKL 2),261087AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261088AKL,SAS2024TH@,TIARA KUSUMA NINGRUM, (X AKL 2),261088AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261089AKL,SAS2024TH@,WULAN DWI RAMADANI, (X AKL 2),261089AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261090AKL,SAS2024TH@,ZALSA MAYSHA ADELLA, (X AKL 2),261090AKL@gmail.com,X AKL 2</t>
+  </si>
+  <si>
+    <t>261091DKV,SAS2024TH@,ADAM MAULANA, (X DKV),261091DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261092DKV,SAS2024TH@,ADITYA KRISNA DJAJA, (X DKV),261092DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261093DKV,SAS2024TH@,ADITYA TANGGUH PRAMANA PUTRA, (X DKV),261093DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261094DKV,SAS2024TH@,ADRIAN SANJAYA, (X DKV),261094DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261095DKV,SAS2024TH@,ALIF APRILIYANSAH, (X DKV),261095DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261096DKV,SAS2024TH@,CARRYN FEBRIANTY, (X DKV),261096DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261097DKV,SAS2024TH@,CHRISTIAN JOSEPHINE, (X DKV),261097DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261098DKV,SAS2024TH@,DAENG DALLE, (X DKV),261098DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261099DKV,SAS2024TH@,DIRA PUTRI RAHMASARI, (X DKV),261099DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261100DKV,SAS2024TH@,DJENAR MAHESA PUTRI, (X DKV),261100DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261101DKV,SAS2024TH@,DWIKI JULIYANA, (X DKV),261101DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261102DKV,SAS2024TH@,EKKLESIA FIRDA LIANA, (X DKV),261102DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261103DKV,SAS2024TH@,ERIYANI RAHMA, (X DKV),261103DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261104DKV,SAS2024TH@,EVAN AGUSTIAZ EFENDI, (X DKV),261104DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261105DKV,SAS2024TH@,FAHRI AFRIANSYAH, (X DKV),261105DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261106DKV,SAS2024TH@,FAHRI SEPTIAWAN, (X DKV),261106DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261107DKV,SAS2024TH@,FARREL DWI IRWANTO, (X DKV),261107DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261108DKV,SAS2024TH@,FITRI WULANDARI, (X DKV),261108DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261109DKV,SAS2024TH@,FITRIA ROBBY ANI, (X DKV),261109DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261110DKV,SAS2024TH@,HELMY KURNIAWAN, (X DKV),261110DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261111DKV,SAS2024TH@,IQBAL HABIBALLAH, (X DKV),261111DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261112DKV,SAS2024TH@,KIKI CAHYONO, (X DKV),261112DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261113DKV,SAS2024TH@,MARCHO SIMON PETRUS BANU, (X DKV),261113DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261114DKV,SAS2024TH@,MAULIDHA NUR IZATIN, (X DKV),261114DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261115DKV,SAS2024TH@,MAULINDA DEWI, (X DKV),261115DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261116DKV,SAS2024TH@,MUHAMAD ALFIAN, (X DKV),261116DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261117DKV,SAS2024TH@,MUHAMAD ANGGA SURYA SAPUTRA, (X DKV),261117DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261118DKV,SAS2024TH@,MUHAMAD BIAN NURHIKMAH, (X DKV),261118DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261119DKV,SAS2024TH@,MUHAMAD RIDWAN, (X DKV),261119DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261120DKV,SAS2024TH@,MUHAMMAD ALFATH, (X DKV),261120DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261121DKV,SAS2024TH@,MUHAMMAD KHAIRI EL FUAD, (X DKV),261121DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261122DKV,SAS2024TH@,MUHAMMAD ROSYAD PURNOMO, (X DKV),261122DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261123DKV,SAS2024TH@,MUHAMMAD ZIDANE ALI CANTONA, (X DKV),261123DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261124DKV,SAS2024TH@,NAILA ENJELITA, (X DKV),261124DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261125DKV,SAS2024TH@,NATHANAEL MOSES SETIADY, (X DKV),261125DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261126DKV,SAS2024TH@,NURAINI, (X DKV),261126DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261127DKV,SAS2024TH@,RIDO SAPUTRO, (X DKV),261127DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261128DKV,SAS2024TH@,SHANDITYA ALVARO, (X DKV),261128DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261129DKV,SAS2024TH@,SISKA HANDAYANI, (X DKV),261129DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261130DKV,SAS2024TH@,SUCI CANTIKA RAMADANI, (X DKV),261130DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261131DKV,SAS2024TH@,SULLY, (X DKV),261131DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261132DKV,SAS2024TH@,TRI AWALUDIN, (X DKV),261132DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261133DKV,SAS2024TH@,UKASAH AL MUQRI ASSADUSI, (X DKV),261133DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261134DKV,SAS2024TH@,VIOLA SASIKIRANA, (X DKV),261134DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261135DKV,SAS2024TH@,ZAHRA APRILIA FAADHILAH, (X DKV),261135DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261136DKV,SAS2024TH@,ZAKIRAH THALITA ZAHRAH, (X DKV),261136DKV@gmail.com,X DKV</t>
+  </si>
+  <si>
+    <t>261137MPLB,SAS2024TH@,ADELLIA RISMA KIRANA, (X MPLB 1),261137MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261138MPLB,SAS2024TH@,ALYA PUTRI NAZWA, (X MPLB 1),261138MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261139MPLB,SAS2024TH@,ASTIA DESVITA, (X MPLB 1),261139MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261140MPLB,SAS2024TH@,ASTRID OKTAVIA LESTARI, (X MPLB 1),261140MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261141MPLB,SAS2024TH@,CINDY AYU AGUSTIENA, (X MPLB 1),261141MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261142MPLB,SAS2024TH@,CINTA AURIA PUTRI MULYANA, (X MPLB 1),261142MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261143MPLB,SAS2024TH@,DEFHINA FEBRIYAHYA, (X MPLB 1),261143MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261144MPLB,SAS2024TH@,DELA SUSANTI, (X MPLB 1),261144MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261145MPLB,SAS2024TH@,DINA ANGRAENI, (X MPLB 1),261145MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261146MPLB,SAS2024TH@,DIVA SALSABILA, (X MPLB 1),261146MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261147MPLB,SAS2024TH@,ENGGI AULIA AMANDA PUTRI, (X MPLB 1),261147MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261148MPLB,SAS2024TH@,ERIN LARAS SATI, (X MPLB 1),261148MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261149MPLB,SAS2024TH@,EVA PURNAMASARI, (X MPLB 1),261149MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261150MPLB,SAS2024TH@,FAIRUZ MAULIDA FAIZ, (X MPLB 1),261150MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261151MPLB,SAS2024TH@,FATDILAH ANGGI ROFITA, (X MPLB 1),261151MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261152MPLB,SAS2024TH@,FEBBY AMRIYANI PUTRI, (X MPLB 1),261152MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261153MPLB,SAS2024TH@,FIYANTIKA ERVI, (X MPLB 1),261153MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261154MPLB,SAS2024TH@,GISELLA LUTFYA PRAMESTY, (X MPLB 1),261154MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261155MPLB,SAS2024TH@,ICA AMELIA, (X MPLB 1),261155MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261156MPLB,SAS2024TH@,IKA MEILANI PUTRI, (X MPLB 1),261156MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261157MPLB,SAS2024TH@,INTAN CAHAYANI, (X MPLB 1),261157MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261158MPLB,SAS2024TH@,KADEK DWI SEPTIANA, (X MPLB 1),261158MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261159MPLB,SAS2024TH@,KAYLA AURELLIA LARISSA, (X MPLB 1),261159MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261160MPLB,SAS2024TH@,KEISA SAFIRA, (X MPLB 1),261160MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261161MPLB,SAS2024TH@,LAILA SYIFA, (X MPLB 1),261161MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261162MPLB,SAS2024TH@,MARSHELLA ANDREANI SABU BADIN, (X MPLB 1),261162MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261163MPLB,SAS2024TH@,MEYSA ARISMA NATALIA, (X MPLB 1),261163MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261164MPLB,SAS2024TH@,MONICA RATNA ADELIA, (X MPLB 1),261164MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261165MPLB,SAS2024TH@,MOZA LESTARI RAMADHANI, (X MPLB 1),261165MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261166MPLB,SAS2024TH@,NADIA HIDAYAT, (X MPLB 1),261166MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261167MPLB,SAS2024TH@,NAZWA AFIFAH, (X MPLB 1),261167MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261168MPLB,SAS2024TH@,PUPUT AMEL LESTARI, (X MPLB 1),261168MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261169MPLB,SAS2024TH@,PUTRI NADHIFAH RAMADHANI, (X MPLB 1),261169MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261170MPLB,SAS2024TH@,PUTRI NAZWA LAMAHODA, (X MPLB 1),261170MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261171MPLB,SAS2024TH@,PUTRI SALSABILLA, (X MPLB 1),261171MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261172MPLB,SAS2024TH@,RAISYAH HANDAYANI, (X MPLB 1),261172MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261173MPLB,SAS2024TH@,RANI ZUNIARDANA, (X MPLB 1),261173MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261174MPLB,SAS2024TH@,RASYA SINTA DEWI, (X MPLB 1),261174MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261175MPLB,SAS2024TH@,REGINA NURHAYATI, (X MPLB 1),261175MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261176MPLB,SAS2024TH@,ROSDIANA, (X MPLB 1),261176MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261177MPLB,SAS2024TH@,SITI ASSILLA FATIMAH, (X MPLB 1),261177MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261178MPLB,SAS2024TH@,SRI MULYANINGRUM, (X MPLB 1),261178MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261179MPLB,SAS2024TH@,SUCI SETYAWATI, (X MPLB 1),261179MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261180MPLB,SAS2024TH@,TARA JESYIKA, (X MPLB 1),261180MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261181MPLB,SAS2024TH@,WIWIN MUSTIKA SARI, (X MPLB 1),261181MPLB@gmail.com,X MPLB 1</t>
+  </si>
+  <si>
+    <t>261182MPLB,SAS2024TH@,ADESIA PUTRI, (X MPLB 2),261182MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261183MPLB,SAS2024TH@,ADHITA NAZHIRA, (X MPLB 2),261183MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261184MPLB,SAS2024TH@,AFRINA NAFLAH SABIYA, (X MPLB 2),261184MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261185MPLB,SAS2024TH@,AMELLIA FEBRIYANI, (X MPLB 2),261185MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261186MPLB,SAS2024TH@,ANDINI HERYANTI, (X MPLB 2),261186MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261187MPLB,SAS2024TH@,ANDINI SABELLA, (X MPLB 2),261187MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261188MPLB,SAS2024TH@,ANNISA RAMADANI, (X MPLB 2),261188MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261189MPLB,SAS2024TH@,ASSYIFA SALSA BILA, (X MPLB 2),261189MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261190MPLB,SAS2024TH@,BELLA FEBRIYANA, (X MPLB 2),261190MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261191MPLB,SAS2024TH@,CANTIKA DUWI PRATIWI, (X MPLB 2),261191MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261192MPLB,SAS2024TH@,CICILIYA MELANI PUTRI WINATI, (X MPLB 2),261192MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261193MPLB,SAS2024TH@,DIVA DESTIANA, (X MPLB 2),261193MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261194MPLB,SAS2024TH@,EKA NORMA RAMADHANI, (X MPLB 2),261194MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261195MPLB,SAS2024TH@,EKI TARSINI, (X MPLB 2),261195MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261196MPLB,SAS2024TH@,ELSYA AULIYA, (X MPLB 2),261196MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261197MPLB,SAS2024TH@,ERIKA LULU GHATHFAAN, (X MPLB 2),261197MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261198MPLB,SAS2024TH@,FUTRIA KHALISA, (X MPLB 2),261198MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261199MPLB,SAS2024TH@,INDAH NURZULIA, (X MPLB 2),261199MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261200MPLB,SAS2024TH@,INDAH RAHMAWATI, (X MPLB 2),261200MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261201MPLB,SAS2024TH@,INDAH TRI HAPSARI, (X MPLB 2),261201MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261202MPLB,SAS2024TH@,INNEZ PUTRIA ABIDIN, (X MPLB 2),261202MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261203MPLB,SAS2024TH@,KEISYA RAMADHANI, (X MPLB 2),261203MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261204MPLB,SAS2024TH@,KEYLA FEBRIA, (X MPLB 2),261204MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261205MPLB,SAS2024TH@,LUTFIYAH MAHIROH, (X MPLB 2),261205MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261206MPLB,SAS2024TH@,LUTHFIYYATUN INKA PERMATASARI, (X MPLB 2),261206MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261207MPLB,SAS2024TH@,MARINAH, (X MPLB 2),261207MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261208MPLB,SAS2024TH@,MARTHASYA CANTIKA DEWI, (X MPLB 2),261208MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261209MPLB,SAS2024TH@,MESYA, (X MPLB 2),261209MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261210MPLB,SAS2024TH@,MUTHIA ZAHRAH, (X MPLB 2),261210MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261211MPLB,SAS2024TH@,NABILA PUTRI RAMADHANI, (X MPLB 2),261211MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261212MPLB,SAS2024TH@,NADEA ELMA PAKASI, (X MPLB 2),261212MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261213MPLB,SAS2024TH@,NATASYA PUTRI CAHYANA, (X MPLB 2),261213MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261214MPLB,SAS2024TH@,NELLA AGUSTINA, (X MPLB 2),261214MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261215MPLB,SAS2024TH@,NOVA LILI HANDRAYANI, (X MPLB 2),261215MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261216MPLB,SAS2024TH@,NOVA LINA ANJANI, (X MPLB 2),261216MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261217MPLB,SAS2024TH@,PUTRI APRILIA ZAHRA, (X MPLB 2),261217MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261218MPLB,SAS2024TH@,RACHMA ANNISA, (X MPLB 2),261218MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261219MPLB,SAS2024TH@,RASYAH RACHMA SETIAWAN, (X MPLB 2),261219MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261220MPLB,SAS2024TH@,REINATA PRIHATINI, (X MPLB 2),261220MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261221MPLB,SAS2024TH@,RISNA HASANAH, (X MPLB 2),261221MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261222MPLB,SAS2024TH@,SILVI MELANI PUTRI, (X MPLB 2),261222MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261223MPLB,SAS2024TH@,SITI FATIMAH JULIANA, (X MPLB 2),261223MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261224MPLB,SAS2024TH@,SULIS KASIH RAMADHANI, (X MPLB 2),261224MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261225MPLB,SAS2024TH@,TARISA NURASIAH, (X MPLB 2),261225MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261226MPLB,SAS2024TH@,THYNTA ASMARANI PUTRI, (X MPLB 2),261226MPLB@gmail.com,X MPLB 2</t>
+  </si>
+  <si>
+    <t>261227PM,SAS2024TH@,AJENG KARTIKA CHANDRALIS PUTRI, (X PM),261227PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261228PM,SAS2024TH@,AL RASYA TRI SAHLAN, (X PM),261228PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261229PM,SAS2024TH@,ANDIKA, (X PM),261229PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261230PM,SAS2024TH@,ANDRYANTO FEBRIANSYAH, (X PM),261230PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261231PM,SAS2024TH@,ARIF FIRMANSYAH, (X PM),261231PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261232PM,SAS2024TH@,AVRILIA ZAHRA, (X PM),261232PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261233PM,SAS2024TH@,DEWITA MAHARANI, (X PM),261233PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261234PM,SAS2024TH@,DINA LUDFIANA, (X PM),261234PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261235PM,SAS2024TH@,DONI SAPUTRA, (X PM),261235PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261236PM,SAS2024TH@,EGA ANANDA RENOTA, (X PM),261236PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261237PM,SAS2024TH@,FAHRI ANDRIAWAN BAHTIAR, (X PM),261237PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261238PM,SAS2024TH@,FAREL PANCA SENA, (X PM),261238PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261239PM,SAS2024TH@,FRIDA RISTA MARTASA, (X PM),261239PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261240PM,SAS2024TH@,GUNTUR RYANDI, (X PM),261240PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261241PM,SAS2024TH@,HERDI ALFIYANSAH, (X PM),261241PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261242PM,SAS2024TH@,KEVIN ROMAN SAPUTRA, (X PM),261242PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261243PM,SAS2024TH@,KEYLA KEYSA UTAMI, (X PM),261243PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261244PM,SAS2024TH@,KHARIZKA YULI AMELIA, (X PM),261244PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261245PM,SAS2024TH@,LIDIA SULISTIAWATI, (X PM),261245PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261246PM,SAS2024TH@,MUHAMAD ILHAM NURSYAHBANI, (X PM),261246PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261247PM,SAS2024TH@,MUHAMAD RIDWAN, (X PM),261247PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261248PM,SAS2024TH@,MUHAMMAD FAUZAN PRATAMA, (X PM),261248PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261249PM,SAS2024TH@,NATASYA NATALIA, (X PM),261249PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261250PM,SAS2024TH@,NIA DAMAYANTI, (X PM),261250PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261251PM,SAS2024TH@,NUR AINI, (X PM),261251PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261252PM,SAS2024TH@,NUR ALAMSYAH, (X PM),261252PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261253PM,SAS2024TH@,PANDU ARYA PRATAMA, (X PM),261253PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261254PM,SAS2024TH@,PUTRA EKA PRASETYO, (X PM),261254PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261255PM,SAS2024TH@,PUTRI NUR ANJANI, (X PM),261255PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261256PM,SAS2024TH@,REFANDI FERDIANSAH, (X PM),261256PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261257PM,SAS2024TH@,REHAN INDRA PRATAMA, (X PM),261257PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261258PM,SAS2024TH@,REVANI DWI RAHAYU, (X PM),261258PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261259PM,SAS2024TH@,REYHAN ERLANGGA, (X PM),261259PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261260PM,SAS2024TH@,REZA SATRIA KUSUMA, (X PM),261260PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261261PM,SAS2024TH@,RIZKY PUTRA KURNIA, (X PM),261261PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261262PM,SAS2024TH@,ROSA APRILIANI, (X PM),261262PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261263PM,SAS2024TH@,SELLY SESILIA AL FIANTI, (X PM),261263PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261264PM,SAS2024TH@,SEPTI RAHMADINI, (X PM),261264PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261265PM,SAS2024TH@,SERLI AULIA, (X PM),261265PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261266PM,SAS2024TH@,SHERLY CHAIRRUNNISA SETIAWAN, (X PM),261266PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261267PM,SAS2024TH@,SYAFA ARUNA, (X PM),261267PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261268PM,SAS2024TH@,TRI RAMADANI, (X PM),261268PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261269PM,SAS2024TH@,WAHYU SAPUTRA, (X PM),261269PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261270PM,SAS2024TH@,WINDA FAIDAH, (X PM),261270PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261271PM,SAS2024TH@,WULAN RIYONO, (X PM),261271PM@gmail.com,X PM</t>
+  </si>
+  <si>
+    <t>261272TJKT,SAS2024TH@,ABDUL MUHAMAD HAIR, (X TJKT 1),261272TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261273TJKT,SAS2024TH@,ACHMAD RIDWAN, (X TJKT 1),261273TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261274TJKT,SAS2024TH@,ALTAN NARENDRA FIRMANSYAH, (X TJKT 1),261274TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261275TJKT,SAS2024TH@,ANDHIKA HERDIANA, (X TJKT 1),261275TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261276TJKT,SAS2024TH@,ANDINI AULIA PUTRI, (X TJKT 1),261276TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261277TJKT,SAS2024TH@,ANDREAN RAZYA ANNAVI, (X TJKT 1),261277TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261278TJKT,SAS2024TH@,ANDRIAN WIJAYA, (X TJKT 1),261278TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261279TJKT,SAS2024TH@,CINTA JULYA LARASATI, (X TJKT 1),261279TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261280TJKT,SAS2024TH@,DAYAN PATTIH KHALAM, (X TJKT 1),261280TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261281TJKT,SAS2024TH@,DECO ADI PRIYANDA, (X TJKT 1),261281TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261282TJKT,SAS2024TH@,DICKI SAI HIKARU, (X TJKT 1),261282TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261283TJKT,SAS2024TH@,FAJAR ARIASIH, (X TJKT 1),261283TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261284TJKT,SAS2024TH@,FAJAR FATUR ROKHIM, (X TJKT 1),261284TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261285TJKT,SAS2024TH@,FAKHRI SYAPUTRO, (X TJKT 1),261285TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261286TJKT,SAS2024TH@,FARDAN IHZA RAMADHAN, (X TJKT 1),261286TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261287TJKT,SAS2024TH@,FEBRIAN RACHMANSYAH, (X TJKT 1),261287TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261288TJKT,SAS2024TH@,FERNANDO KUNARDI, (X TJKT 1),261288TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261289TJKT,SAS2024TH@,GADING ALFARIZY, (X TJKT 1),261289TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261290TJKT,SAS2024TH@,HAIKEL PRATAMA, (X TJKT 1),261290TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261291TJKT,SAS2024TH@,IKCSAN RAMADHAN, (X TJKT 1),261291TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261292TJKT,SAS2024TH@,MALIK AHMAD GUSTAVO, (X TJKT 1),261292TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261293TJKT,SAS2024TH@,MARIO JENS TRIYULENS MANU, (X TJKT 1),261293TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261294TJKT,SAS2024TH@,MUHAMAD ABIDZAR, (X TJKT 1),261294TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261295TJKT,SAS2024TH@,MUHAMAD AKSAL ZILMANSAH, (X TJKT 1),261295TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261296TJKT,SAS2024TH@,MUHAMAD FAZRUL MAULIDI, (X TJKT 1),261296TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261297TJKT,SAS2024TH@,MUHAMAD NUR HIDAUYATTULOH, (X TJKT 1),261297TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261298TJKT,SAS2024TH@,MUHAMMAD ABDUL RASYID, (X TJKT 1),261298TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261299TJKT,SAS2024TH@,MUHAMMAD AIRIL SYAVA, (X TJKT 1),261299TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261300TJKT,SAS2024TH@,MUHAMMAD FAIRUZ ADNAN, (X TJKT 1),261300TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261301TJKT,SAS2024TH@,MUHAMMAD KHAFI RAMADANI, (X TJKT 1),261301TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261302TJKT,SAS2024TH@,PUTRA NUR BIQI, (X TJKT 1),261302TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261303TJKT,SAS2024TH@,RAFA RADITYA, (X TJKT 1),261303TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261304TJKT,SAS2024TH@,RAFLI ARDY, (X TJKT 1),261304TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261305TJKT,SAS2024TH@,RAMDHANI, (X TJKT 1),261305TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261306TJKT,SAS2024TH@,RASYA RADITYA PRASETYO, (X TJKT 1),261306TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261307TJKT,SAS2024TH@,REYKHAN APRIYANTO, (X TJKT 1),261307TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261308TJKT,SAS2024TH@,RIAN CATUR PRASETIO, (X TJKT 1),261308TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261309TJKT,SAS2024TH@,RICKO NOVA ARIANTO, (X TJKT 1),261309TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261310TJKT,SAS2024TH@,RIDHO BINTANG SAPUTRA, (X TJKT 1),261310TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261311TJKT,SAS2024TH@,RISZKI YUDA PRAKOSO, (X TJKT 1),261311TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261312TJKT,SAS2024TH@,RIZKY HERDIAN, (X TJKT 1),261312TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261313TJKT,SAS2024TH@,RYAN WIBOWO, (X TJKT 1),261313TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261314TJKT,SAS2024TH@,SURYA TJANDRA WIJAYA, (X TJKT 1),261314TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261315TJKT,SAS2024TH@,UMAR ABDULLAH, (X TJKT 1),261315TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261316TJKT,SAS2024TH@,YULITA DIYATAMA, (X TJKT 1),261316TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261317TJKT,SAS2024TH@,ZAKARIA NUR AKBAR, (X TJKT 1),261317TJKT@gmail.com,X TJKT 1</t>
+  </si>
+  <si>
+    <t>261318TJKT,SAS2024TH@,ADITYA PRATAMA, (X TJKT 2),261318TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261319TJKT,SAS2024TH@,AFIF AMMAR, (X TJKT 2),261319TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261320TJKT,SAS2024TH@,AHMAD AFRIYANSYAH, (X TJKT 2),261320TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261321TJKT,SAS2024TH@,AHMAD RIZKI KURNIAWAN, (X TJKT 2),261321TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261322TJKT,SAS2024TH@,ANDHIKA SAPUTRA, (X TJKT 2),261322TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261323TJKT,SAS2024TH@,ARDIANSYAH, (X TJKT 2),261323TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261324TJKT,SAS2024TH@,ARI FEBIANSYAH, (X TJKT 2),261324TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261325TJKT,SAS2024TH@,ARIANSYAH JANUWAR, (X TJKT 2),261325TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261326TJKT,SAS2024TH@,BAGAS ARIANTO, (X TJKT 2),261326TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261327TJKT,SAS2024TH@,BHAKTI ARI SETYAWAN, (X TJKT 2),261327TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261328TJKT,SAS2024TH@,CAESAR KUBILAI KHAN, (X TJKT 2),261328TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261329TJKT,SAS2024TH@,DANI RAMADHAN, (X TJKT 2),261329TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261330TJKT,SAS2024TH@,DEMAZ YOKA, (X TJKT 2),261330TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261331TJKT,SAS2024TH@,DICKY ADITYA AKBAR, (X TJKT 2),261331TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261332TJKT,SAS2024TH@,DIMAS SETYAWAN, (X TJKT 2),261332TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261333TJKT,SAS2024TH@,DIRGA PUTRA FIRMANSYAH, (X TJKT 2),261333TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261334TJKT,SAS2024TH@,ERWIN MAULANA, (X TJKT 2),261334TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261335TJKT,SAS2024TH@,FARIH KESIT, (X TJKT 2),261335TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261336TJKT,SAS2024TH@,FATHIR ARISWIDYANATA, (X TJKT 2),261336TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261337TJKT,SAS2024TH@,FAUZAN, (X TJKT 2),261337TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261338TJKT,SAS2024TH@,FEBRI HARIYANTO, (X TJKT 2),261338TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261339TJKT,SAS2024TH@,FYKI PRATAMA, (X TJKT 2),261339TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261340TJKT,SAS2024TH@,GANI ADHARKA PUTRAWARDANA, (X TJKT 2),261340TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261341TJKT,SAS2024TH@,ILHAM, (X TJKT 2),261341TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261342TJKT,SAS2024TH@,LUTHFI DWI NOVANTO, (X TJKT 2),261342TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261343TJKT,SAS2024TH@,MUHAMAD ABDUL ROSSI, (X TJKT 2),261343TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261344TJKT,SAS2024TH@,MUHAMAD ALI FAUZAN, (X TJKT 2),261344TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261345TJKT,SAS2024TH@,MUHAMAD AR RIDHO, (X TJKT 2),261345TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261346TJKT,SAS2024TH@,MUHAMMAD ABHIZART FAHLEVI, (X TJKT 2),261346TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261347TJKT,SAS2024TH@,MUHAMMAD ADLY FEBRIAN, (X TJKT 2),261347TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261348TJKT,SAS2024TH@,MUHAMMAD AMRIL MUZAKI, (X TJKT 2),261348TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261349TJKT,SAS2024TH@,MUHAMMAD FASHYA ARIFIN, (X TJKT 2),261349TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261350TJKT,SAS2024TH@,MUHAMMAD FATHAH NUGROHO, (X TJKT 2),261350TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261351TJKT,SAS2024TH@,MUHAMMAD FURQON MUQORROBIN, (X TJKT 2),261351TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261352TJKT,SAS2024TH@,RAIHAN PUTRA ABDILLAH, (X TJKT 2),261352TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261353TJKT,SAS2024TH@,RIAN KUSUMADIKA, (X TJKT 2),261353TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261354TJKT,SAS2024TH@,RIDHO SURYA ATMAJA, (X TJKT 2),261354TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261355TJKT,SAS2024TH@,RIFA AGAM, (X TJKT 2),261355TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261356TJKT,SAS2024TH@,RIFQI DWI ANDIKA, (X TJKT 2),261356TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261357TJKT,SAS2024TH@,RIZKI NOVA PRATAMA, (X TJKT 2),261357TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261358TJKT,SAS2024TH@,RUDE MARCHALINO, (X TJKT 2),261358TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261359TJKT,SAS2024TH@,SULTAN ABDU AL FAATHIR, (X TJKT 2),261359TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261360TJKT,SAS2024TH@,TEZAR ADITYA, (X TJKT 2),261360TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261361TJKT,SAS2024TH@,WAHYU LAKSANA PUTRA, (X TJKT 2),261361TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261362TJKT,SAS2024TH@,YAYAN ARDIYANSAH, (X TJKT 2),261362TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261363TJKT,SAS2024TH@,YULIANTO PRASETIO, (X TJKT 2),261363TJKT@gmail.com,X TJKT 2</t>
+  </si>
+  <si>
+    <t>261364TJKT,SAS2024TH@,ABDUL LATIP, (X TJKT 3),261364TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261365TJKT,SAS2024TH@,ADAM KHAIRY YASHA, (X TJKT 3),261365TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261366TJKT,SAS2024TH@,ADITIYA HERIYANTO, (X TJKT 3),261366TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261367TJKT,SAS2024TH@,ADITYA AWAL TAZUDIN, (X TJKT 3),261367TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261368TJKT,SAS2024TH@,ADITYA PUTRA PANGESTU, (X TJKT 3),261368TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261369TJKT,SAS2024TH@,AFSOLIEAN KARIF, (X TJKT 3),261369TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261370TJKT,SAS2024TH@,AHMAD FADILLAH SYA'BAN, (X TJKT 3),261370TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261371TJKT,SAS2024TH@,AHMAD KHAIRUL MUSTOFA, (X TJKT 3),261371TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261372TJKT,SAS2024TH@,AHMAD RIFAI, (X TJKT 3),261372TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261373TJKT,SAS2024TH@,ALI PATRIYO, (X TJKT 3),261373TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261374TJKT,SAS2024TH@,ALNO ANSYAHARIN, (X TJKT 3),261374TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261375TJKT,SAS2024TH@,ANGGA PUTRA, (X TJKT 3),261375TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261376TJKT,SAS2024TH@,ARDITYA BAGAS PRATAMA, (X TJKT 3),261376TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261377TJKT,SAS2024TH@,DIKY RIYADI, (X TJKT 3),261377TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261378TJKT,SAS2024TH@,FAHIM MUHAMMAD AL DAFFA, (X TJKT 3),261378TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261379TJKT,SAS2024TH@,FAJAR PURNAMA, (X TJKT 3),261379TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261380TJKT,SAS2024TH@,FAJRI DWI SAPUTRA, (X TJKT 3),261380TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261381TJKT,SAS2024TH@,GIRI MAS PERKASA, (X TJKT 3),261381TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261382TJKT,SAS2024TH@,HAYKAL NUR RIZKI, (X TJKT 3),261382TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261383TJKT,SAS2024TH@,KATON FAJAR IRAWAN, (X TJKT 3),261383TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261384TJKT,SAS2024TH@,KHARIS ALMEIDA ROHMAN, (X TJKT 3),261384TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261385TJKT,SAS2024TH@,MOHAMMAD ZIKRA ARFARIDZI, (X TJKT 3),261385TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261386TJKT,SAS2024TH@,MUHAMAD LUTFI GHIFFARIE, (X TJKT 3),261386TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261387TJKT,SAS2024TH@,MUHAMAD REFFA, (X TJKT 3),261387TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261388TJKT,SAS2024TH@,MUHAMAD RIO FRAMUDYA HERMAWAN, (X TJKT 3),261388TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261389TJKT,SAS2024TH@,MUHAMMAD ARLIAN SYAPUTRA, (X TJKT 3),261389TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261390TJKT,SAS2024TH@,MUHAMMAD FARHAN RAMADHAN, (X TJKT 3),261390TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261391TJKT,SAS2024TH@,MUHAMMAD NADHIF RIZALDY, (X TJKT 3),261391TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261392TJKT,SAS2024TH@,MUHAMMAD SYARIF AL FATHIER, (X TJKT 3),261392TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261393TJKT,SAS2024TH@,MUHAMMAD WILDAN ALFURQON, (X TJKT 3),261393TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261394TJKT,SAS2024TH@,MUHAMMAD WILDAN DWI CHANDRA, (X TJKT 3),261394TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261395TJKT,SAS2024TH@,PERI SUBAKTI, (X TJKT 3),261395TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261396TJKT,SAS2024TH@,RAHMADHAN RIZAL THAULANI, (X TJKT 3),261396TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261397TJKT,SAS2024TH@,RAYHAN ARIFIN HIDAYAT, (X TJKT 3),261397TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261398TJKT,SAS2024TH@,RAYHAN JULIAN, (X TJKT 3),261398TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261399TJKT,SAS2024TH@,RAYHAN NURIL MUSTAQIM, (X TJKT 3),261399TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261400TJKT,SAS2024TH@,RAZKA KHAIRUL AMARULLAH, (X TJKT 3),261400TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261401TJKT,SAS2024TH@,REZA EGI SAPUTRA, (X TJKT 3),261401TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261402TJKT,SAS2024TH@,RIZKI MUHAMAD RAFI, (X TJKT 3),261402TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261403TJKT,SAS2024TH@,RIZKY ADI NUGROHO, (X TJKT 3),261403TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261404TJKT,SAS2024TH@,RIZKY MUHAMMAD KURNIAWAN, (X TJKT 3),261404TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261405TJKT,SAS2024TH@,SATRIA ERLANGGA, (X TJKT 3),261405TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261406TJKT,SAS2024TH@,SULTAN NUR ANDRIANSYAH, (X TJKT 3),261406TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261407TJKT,SAS2024TH@,SYAHWAL HARIS LUKMANOV, (X TJKT 3),261407TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261408TJKT,SAS2024TH@,VICKIH HARIANTO, (X TJKT 3),261408TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261409TJKT,SAS2024TH@,YUSRON AL FAWAZ, (X TJKT 3),261409TJKT@gmail.com,X TJKT 3</t>
+  </si>
+  <si>
+    <t>261410AKL,SAS2024TH@,AMILLIA RUSDYANTO, (XI AKL 1),261410AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261411AKL,SAS2024TH@,AWALLUDIN RAHMAN, (XI AKL 1),261411AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261412AKL,SAS2024TH@,AYU EKA LESTARI, (XI AKL 1),261412AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261413AKL,SAS2024TH@,CANAYYA AZKA NOVERA, (XI AKL 1),261413AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261414AKL,SAS2024TH@,DAHLYA, (XI AKL 1),261414AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261415AKL,SAS2024TH@,DANIEL FERDINAN, (XI AKL 1),261415AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261416AKL,SAS2024TH@,DESTA NUR SETIAWAN PRATAMA, (XI AKL 1),261416AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261417AKL,SAS2024TH@,DESVIANTI ANANDA, (XI AKL 1),261417AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261418AKL,SAS2024TH@,DZULFIKAR, (XI AKL 1),261418AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261419AKL,SAS2024TH@,EFATHA APRELIA ZAI, (XI AKL 1),261419AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261420AKL,SAS2024TH@,ERRICA MERLIAN HIDAYAT, (XI AKL 1),261420AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261421AKL,SAS2024TH@,FAHTAN ABIMANYU PRASETIA, (XI AKL 1),261421AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261422AKL,SAS2024TH@,INAYAH SALSABILAH, (XI AKL 1),261422AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261423AKL,SAS2024TH@,IQBAL NUL IKHWAN, (XI AKL 1),261423AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261424AKL,SAS2024TH@,JULIAN ALFIUS, (XI AKL 1),261424AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261425AKL,SAS2024TH@,JULIUS CHRISTIAN HUTABARAT, (XI AKL 1),261425AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261426AKL,SAS2024TH@,KINANTI AULIA, (XI AKL 1),261426AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261427AKL,SAS2024TH@,LEHA, (XI AKL 1),261427AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261428AKL,SAS2024TH@,MARDIANA, (XI AKL 1),261428AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261429AKL,SAS2024TH@,MEDITA LESTARI SUKMA, (XI AKL 1),261429AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261430AKL,SAS2024TH@,MELI MERLIYANTI, (XI AKL 1),261430AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261431AKL,SAS2024TH@,MONICA SARI DEVI, (XI AKL 1),261431AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261432AKL,SAS2024TH@,NABIL RAMDANI, (XI AKL 1),261432AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261433AKL,SAS2024TH@,NABILA PUTRI WINANTO, (XI AKL 1),261433AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261434AKL,SAS2024TH@,NAJLA KEYRA TANTRI, (XI AKL 1),261434AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261435AKL,SAS2024TH@,NANDA ARYA PUTRA, (XI AKL 1),261435AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261436AKL,SAS2024TH@,NAURA LUTFIAH RAHMADINA, (XI AKL 1),261436AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261437AKL,SAS2024TH@,PURWANTI, (XI AKL 1),261437AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261438AKL,SAS2024TH@,RAFI DWI FEBIAN, (XI AKL 1),261438AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261439AKL,SAS2024TH@,RATU SAILA SIMA, (XI AKL 1),261439AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261440AKL,SAS2024TH@,RIVALDI HAERUDIN, (XI AKL 1),261440AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261441AKL,SAS2024TH@,RIZKY ALFIAN, (XI AKL 1),261441AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261442AKL,SAS2024TH@,SELA AMALIAH, (XI AKL 1),261442AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261443AKL,SAS2024TH@,SHOLEH MARWIDIKA, (XI AKL 1),261443AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261444AKL,SAS2024TH@,TASYA MARIMBI, (XI AKL 1),261444AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261445AKL,SAS2024TH@,TATIA NUR APRIYANI, (XI AKL 1),261445AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261446AKL,SAS2024TH@,TESSA LAVINA WIJAYA PHANG, (XI AKL 1),261446AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261447AKL,SAS2024TH@,TILAR MIFTAKHUL JANAH, (XI AKL 1),261447AKL@gmail.com,XI AKL 1</t>
+  </si>
+  <si>
+    <t>261448AKL,SAS2024TH@,ADINDA ALYA DWI ANGGRAENI, (XI AKL 2),261448AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261449AKL,SAS2024TH@,AGUNG ARDIANSYAH, (XI AKL 2),261449AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261450AKL,SAS2024TH@,AKHMELIA CITRA BUDIYANTI, (XI AKL 2),261450AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261451AKL,SAS2024TH@,ALFIN KHOIRUL WILDAN, (XI AKL 2),261451AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261452AKL,SAS2024TH@,ALISA HILDA APRILIA, (XI AKL 2),261452AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261453AKL,SAS2024TH@,ALVI NURMALA D. W, (XI AKL 2),261453AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261454AKL,SAS2024TH@,AMIRA KANZA DESLIA, (XI AKL 2),261454AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261455AKL,SAS2024TH@,ANI, (XI AKL 2),261455AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261456AKL,SAS2024TH@,ANNISA, (XI AKL 2),261456AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261457AKL,SAS2024TH@,AULIA FITRIANI, (XI AKL 2),261457AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261458AKL,SAS2024TH@,AYU NIA SARAH, (XI AKL 2),261458AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261459AKL,SAS2024TH@,DILA AYU LESTARI, (XI AKL 2),261459AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261460AKL,SAS2024TH@,DITA VIA ANGGRAENI, (XI AKL 2),261460AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261461AKL,SAS2024TH@,EKO PRASETYO, (XI AKL 2),261461AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261462AKL,SAS2024TH@,ERVAN HIDAYAT, (XI AKL 2),261462AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261463AKL,SAS2024TH@,FRASTIO, (XI AKL 2),261463AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261464AKL,SAS2024TH@,GALANG RIZKI ANUGRAH, (XI AKL 2),261464AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261465AKL,SAS2024TH@,HARMELIA NAISA PUTRI, (XI AKL 2),261465AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261466AKL,SAS2024TH@,IQBAL PERMANA, (XI AKL 2),261466AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261467AKL,SAS2024TH@,JEFRI GIOVANIE, (XI AKL 2),261467AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261468AKL,SAS2024TH@,KAYLA PUTRI AGUSTIN, (XI AKL 2),261468AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261469AKL,SAS2024TH@,KEYZIA SYAFFA ADHILA, (XI AKL 2),261469AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261470AKL,SAS2024TH@,M. FAUZI ABDUL ROHIM, (XI AKL 2),261470AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261471AKL,SAS2024TH@,MEIFRIZA DWI PUTRA, (XI AKL 2),261471AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261472AKL,SAS2024TH@,MOHAMAD RIZKY ALBIANSYAH, (XI AKL 2),261472AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261473AKL,SAS2024TH@,MUHAMAD ILHAM, (XI AKL 2),261473AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261474AKL,SAS2024TH@,NABILA AL ZAHRA, (XI AKL 2),261474AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261475AKL,SAS2024TH@,NOVRIA NAYLA ZAHRA, (XI AKL 2),261475AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261476AKL,SAS2024TH@,RENA PUJI LESTARI, (XI AKL 2),261476AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261477AKL,SAS2024TH@,REVA AGIS ADELLIA, (XI AKL 2),261477AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261478AKL,SAS2024TH@,RIZKY WIJAYA, (XI AKL 2),261478AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261479AKL,SAS2024TH@,RIZQI AMANDA, (XI AKL 2),261479AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261480AKL,SAS2024TH@,RYFAN ALAMSYAH, (XI AKL 2),261480AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261481AKL,SAS2024TH@,SERINA AMELIA PUTRI, (XI AKL 2),261481AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261482AKL,SAS2024TH@,SITI NUR FADILAH, (XI AKL 2),261482AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261483AKL,SAS2024TH@,SOFHIA AROFAH, (XI AKL 2),261483AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261484AKL,SAS2024TH@,SUSI LESTARI LESTIA DEWI, (XI AKL 2),261484AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261485AKL,SAS2024TH@,TAUFIK SAPUTRA, (XI AKL 2),261485AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261486AKL,SAS2024TH@,TUBAGUS UBAIDILLAH FAJRIN, (XI AKL 2),261486AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261487AKL,SAS2024TH@,VANI EKA MELIA, (XI AKL 2),261487AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261488AKL,SAS2024TH@,VIRLA DWI ARIYANTI, (XI AKL 2),261488AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261489AKL,SAS2024TH@,WIDI ANJARWATI, (XI AKL 2),261489AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261490AKL,SAS2024TH@,WIDIYA NINGSIH, (XI AKL 2),261490AKL@gmail.com,XI AKL 2</t>
+  </si>
+  <si>
+    <t>261491DKV,SAS2024TH@,ADE SETYA CANDRA, (XI DKV),261491DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261492DKV,SAS2024TH@,ARIANSYAH, (XI DKV),261492DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261493DKV,SAS2024TH@,ARYA SUBAGJA, (XI DKV),261493DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261494DKV,SAS2024TH@,DIAN NOVITA SARI, (XI DKV),261494DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261495DKV,SAS2024TH@,DIDA PERKASA, (XI DKV),261495DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261496DKV,SAS2024TH@,EGHA PATRIANSYAH, (XI DKV),261496DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261497DKV,SAS2024TH@,ESMERALDA VALENCIA WIDJAJA, (XI DKV),261497DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261498DKV,SAS2024TH@,FAHIRA ANA PUTRI, (XI DKV),261498DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261499DKV,SAS2024TH@,FARHAN SETYAWAN, (XI DKV),261499DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261500DKV,SAS2024TH@,GITA INDAH SABANA, (XI DKV),261500DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261501DKV,SAS2024TH@,IBNU ADITYA ADNAN, (XI DKV),261501DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261502DKV,SAS2024TH@,IKHSAN BAYU NUGROHO, (XI DKV),261502DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261503DKV,SAS2024TH@,ISMAIL AHMAD SAHDAD, (XI DKV),261503DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261504DKV,SAS2024TH@,ISTAUFIRIN, (XI DKV),261504DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261505DKV,SAS2024TH@,IVAN FERDINAN, (XI DKV),261505DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261506DKV,SAS2024TH@,JONI, (XI DKV),261506DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261507DKV,SAS2024TH@,JUSTIN RAFAEL, (XI DKV),261507DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261508DKV,SAS2024TH@,LANANG SINGGIH PANGESTU, (XI DKV),261508DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261509DKV,SAS2024TH@,LEON ALEVI GUSTAN, (XI DKV),261509DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261510DKV,SAS2024TH@,MARCELL RAKASE, (XI DKV),261510DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261511DKV,SAS2024TH@,MARTIN AL FATHONI, (XI DKV),261511DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261512DKV,SAS2024TH@,MIXCEL DIMAS JUNIAWAN, (XI DKV),261512DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261513DKV,SAS2024TH@,MOSES DOLVIN MAELISSA, (XI DKV),261513DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261514DKV,SAS2024TH@,MUHAMAD RIKO SYAHPUTRA, (XI DKV),261514DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261515DKV,SAS2024TH@,MUHAMMAD NURSHAM AHMADINEJAD, (XI DKV),261515DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261516DKV,SAS2024TH@,MUTIA VARA DILLA, (XI DKV),261516DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261517DKV,SAS2024TH@,NADIA ARDHELIA PUTRI, (XI DKV),261517DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261518DKV,SAS2024TH@,NAFI'AJI VANOROSSI, (XI DKV),261518DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261519DKV,SAS2024TH@,NOFIA INDRIANI, (XI DKV),261519DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261520DKV,SAS2024TH@,RAFFAEL EDGINA, (XI DKV),261520DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261521DKV,SAS2024TH@,RAFI ACHMAD APRILIANDI, (XI DKV),261521DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261522DKV,SAS2024TH@,RAFKA AFRIZAL MUTTAQIN, (XI DKV),261522DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261523DKV,SAS2024TH@,RAIHAN DWI FEBRIYANTO, (XI DKV),261523DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261524DKV,SAS2024TH@,RAVI HAFIZ ARDIANSYAH, (XI DKV),261524DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261525DKV,SAS2024TH@,REGA JUVENSIA SAPUTRA, (XI DKV),261525DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261526DKV,SAS2024TH@,REHAN JULIANTO, (XI DKV),261526DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261527DKV,SAS2024TH@,RIFAT AKMAL, (XI DKV),261527DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261528DKV,SAS2024TH@,RIO ARDIANSYAH, (XI DKV),261528DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261529DKV,SAS2024TH@,RIZKY DIAN PERMANA, (XI DKV),261529DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261530DKV,SAS2024TH@,RIZQI MUH AKBAR, (XI DKV),261530DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261531DKV,SAS2024TH@,RUDIYANSAH, (XI DKV),261531DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261532DKV,SAS2024TH@,TUBAGUS RAIHAN RAHMATULLOH HIDAYAT, (XI DKV),261532DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261533DKV,SAS2024TH@,VERDINAN WILLIAM HOLLE, (XI DKV),261533DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261534DKV,SAS2024TH@,ZASKIA DEVINA ROSALINA, (XI DKV),261534DKV@gmail.com,XI DKV</t>
+  </si>
+  <si>
+    <t>261535MPLB,SAS2024TH@,ADINDA BUNGA LESTARI, (XI MPLB 1),261535MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261536MPLB,SAS2024TH@,ALISYA MERIYANTI, (XI MPLB 1),261536MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261537MPLB,SAS2024TH@,ANANDA CINTHYA CLARA ARITONANG, (XI MPLB 1),261537MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261538MPLB,SAS2024TH@,ANISSA AL - KHOIRIYAH, (XI MPLB 1),261538MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261539MPLB,SAS2024TH@,AZ-ZAHRA NUR AZIZAH SYAHRANI, (XI MPLB 1),261539MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261540MPLB,SAS2024TH@,CARLA FERNANDA PUTRI, (XI MPLB 1),261540MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261541MPLB,SAS2024TH@,CHATARINA OCTHA PUTRYANI DEYO, (XI MPLB 1),261541MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261542MPLB,SAS2024TH@,CHATRIN VEXIA, (XI MPLB 1),261542MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261543MPLB,SAS2024TH@,CHESYA TRYASA PUTRY, (XI MPLB 1),261543MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261544MPLB,SAS2024TH@,DEVI RISFA DAMIANTI ATONIS, (XI MPLB 1),261544MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261545MPLB,SAS2024TH@,DHEA DWI ARYANI, (XI MPLB 1),261545MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261546MPLB,SAS2024TH@,EKA SEPTI WULANDARI, (XI MPLB 1),261546MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261547MPLB,SAS2024TH@,ELLEN EVELYN ALDEA, (XI MPLB 1),261547MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261548MPLB,SAS2024TH@,EUIS MARYANTI, (XI MPLB 1),261548MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261549MPLB,SAS2024TH@,FEBY PRAMONO, (XI MPLB 1),261549MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261550MPLB,SAS2024TH@,FIVEILIKA CANDRA SARI, (XI MPLB 1),261550MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261551MPLB,SAS2024TH@,HARTINI, (XI MPLB 1),261551MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261552MPLB,SAS2024TH@,IKA WULANDARI, (XI MPLB 1),261552MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261553MPLB,SAS2024TH@,JELITA AURELIA, (XI MPLB 1),261553MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261554MPLB,SAS2024TH@,JUWITA HERLINA KABNANI, (XI MPLB 1),261554MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261555MPLB,SAS2024TH@,KAMILAH NURSEHA, (XI MPLB 1),261555MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261556MPLB,SAS2024TH@,KAYLA RAHMADINI, (XI MPLB 1),261556MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261557MPLB,SAS2024TH@,KOMALA SARI, (XI MPLB 1),261557MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261558MPLB,SAS2024TH@,LAELI SYIFA AYU NURINSANI, (XI MPLB 1),261558MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261559MPLB,SAS2024TH@,LUDIANA FEBRIANI, (XI MPLB 1),261559MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261560MPLB,SAS2024TH@,MARIA KARMELIN TADA WAWIN, (XI MPLB 1),261560MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261561MPLB,SAS2024TH@,MAULIDYAH SYAM, (XI MPLB 1),261561MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261562MPLB,SAS2024TH@,NADYAH AYU KUSUMAWATI, (XI MPLB 1),261562MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261563MPLB,SAS2024TH@,NAGITA JUANISAH, (XI MPLB 1),261563MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261564MPLB,SAS2024TH@,NAZWA ERSALIA PUTRI, (XI MPLB 1),261564MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261565MPLB,SAS2024TH@,NOVA ARYANI BASTIAN, (XI MPLB 1),261565MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261566MPLB,SAS2024TH@,NUR AINI AFRIDA, (XI MPLB 1),261566MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261567MPLB,SAS2024TH@,NUR FITRIAH RAMADHANI, (XI MPLB 1),261567MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261568MPLB,SAS2024TH@,PERMATA AYUDIA, (XI MPLB 1),261568MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261569MPLB,SAS2024TH@,PUTRI OCTAVIA RAMADHANY, (XI MPLB 1),261569MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261570MPLB,SAS2024TH@,RIZKY DAMAYANTI, (XI MPLB 1),261570MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261571MPLB,SAS2024TH@,SEPTI DWI ERIATI, (XI MPLB 1),261571MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261572MPLB,SAS2024TH@,SINGGIH UMI UTAMI, (XI MPLB 1),261572MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261573MPLB,SAS2024TH@,SYAFA AZZAHRA, (XI MPLB 1),261573MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261574MPLB,SAS2024TH@,SZASKYA NOER HANY, (XI MPLB 1),261574MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261575MPLB,SAS2024TH@,TARA ZAGITHA, (XI MPLB 1),261575MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261576MPLB,SAS2024TH@,TIARA PUTRI ANDIKA, (XI MPLB 1),261576MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261577MPLB,SAS2024TH@,WULAN NOVITA SARI, (XI MPLB 1),261577MPLB@gmail.com,XI MPLB 1</t>
+  </si>
+  <si>
+    <t>261578MPLB,SAS2024TH@,ALILATULBARIZA KESYA AGISTI, (XI MPLB 2),261578MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261579MPLB,SAS2024TH@,ANNISA KUSMARI, (XI MPLB 2),261579MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261580MPLB,SAS2024TH@,AWALIA BUNGA ZHARIFAH, (XI MPLB 2),261580MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261581MPLB,SAS2024TH@,AWALIATUL KAMILA, (XI MPLB 2),261581MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261582MPLB,SAS2024TH@,CARLA JUNITA, (XI MPLB 2),261582MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261583MPLB,SAS2024TH@,DELLA MEISYA ALIFIA, (XI MPLB 2),261583MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261584MPLB,SAS2024TH@,DIAH AYU LESTARI, (XI MPLB 2),261584MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261585MPLB,SAS2024TH@,DINA APRILIA, (XI MPLB 2),261585MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261586MPLB,SAS2024TH@,DWI NAZWA DHILA, (XI MPLB 2),261586MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261587MPLB,SAS2024TH@,FAATIHUL KHASANAH, (XI MPLB 2),261587MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261588MPLB,SAS2024TH@,FADILA RAHMASARI, (XI MPLB 2),261588MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261589MPLB,SAS2024TH@,FITRI ARILA ZAHRA, (XI MPLB 2),261589MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261590MPLB,SAS2024TH@,FITRI HANDAYANI, (XI MPLB 2),261590MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261591MPLB,SAS2024TH@,GUSTINA, (XI MPLB 2),261591MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261592MPLB,SAS2024TH@,HAFIZAH SUSANTI, (XI MPLB 2),261592MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261593MPLB,SAS2024TH@,ILYASA RAMADANINGTIAS PRASETYA, (XI MPLB 2),261593MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261594MPLB,SAS2024TH@,JESIKA LOSARY HELDY, (XI MPLB 2),261594MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261595MPLB,SAS2024TH@,LINDA AGUSTIN, (XI MPLB 2),261595MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261596MPLB,SAS2024TH@,LUNA AMALIA AZAHRA, (XI MPLB 2),261596MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261597MPLB,SAS2024TH@,LUTFIYATUN NISA, (XI MPLB 2),261597MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261598MPLB,SAS2024TH@,MUTIA APRILAH, (XI MPLB 2),261598MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261599MPLB,SAS2024TH@,NABILA AZAHRA, (XI MPLB 2),261599MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261600MPLB,SAS2024TH@,NABILA PUTRI DAMAYANTI, (XI MPLB 2),261600MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261601MPLB,SAS2024TH@,NABILA ZAHRA, (XI MPLB 2),261601MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261602MPLB,SAS2024TH@,NAULI SYAHLINA, (XI MPLB 2),261602MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261603MPLB,SAS2024TH@,NAYA NATHANIA, (XI MPLB 2),261603MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261604MPLB,SAS2024TH@,NAYLA HERLITA, (XI MPLB 2),261604MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261605MPLB,SAS2024TH@,NOVIA EKA SAFITRI, (XI MPLB 2),261605MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261606MPLB,SAS2024TH@,NOVITA NATASHA, (XI MPLB 2),261606MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261607MPLB,SAS2024TH@,NUR AMALAH, (XI MPLB 2),261607MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261608MPLB,SAS2024TH@,PUTRI MUHTAZAH, (XI MPLB 2),261608MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261609MPLB,SAS2024TH@,RINA ZAHRAH, (XI MPLB 2),261609MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261610MPLB,SAS2024TH@,RIZKA SYAFA MAGHFIRA, (XI MPLB 2),261610MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261611MPLB,SAS2024TH@,SAFINATUN NAJA, (XI MPLB 2),261611MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261612MPLB,SAS2024TH@,SALWA AURISKI AGUSTIN, (XI MPLB 2),261612MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261613MPLB,SAS2024TH@,SISKA AMELIA, (XI MPLB 2),261613MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261614MPLB,SAS2024TH@,SITI ROBIYAH ADAWIYAH, (XI MPLB 2),261614MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261615MPLB,SAS2024TH@,SITI ROHMATULLATIFAH, (XI MPLB 2),261615MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261616MPLB,SAS2024TH@,SITI SOFIAH, (XI MPLB 2),261616MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261617MPLB,SAS2024TH@,SIVA AULIANI, (XI MPLB 2),261617MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261618MPLB,SAS2024TH@,SYIFA QURROTUL 'AIN, (XI MPLB 2),261618MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261619MPLB,SAS2024TH@,USWATUN HASANAH, (XI MPLB 2),261619MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261620MPLB,SAS2024TH@,ZALFA NABILA PRISTI, (XI MPLB 2),261620MPLB@gmail.com,XI MPLB 2</t>
+  </si>
+  <si>
+    <t>261621PM,SAS2024TH@,AIRIN, (XI PM),261621PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261622PM,SAS2024TH@,ANGGI SIAGIAN, (XI PM),261622PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261623PM,SAS2024TH@,AURA ADREZY SUPRIYADI, (XI PM),261623PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261624PM,SAS2024TH@,AURA KAYLLA PUTRI, (XI PM),261624PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261625PM,SAS2024TH@,BOBBY BARUNA, (XI PM),261625PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261626PM,SAS2024TH@,CIPTO ALDI PRAMANA, (XI PM),261626PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261627PM,SAS2024TH@,DAVIQ KHALIK, (XI PM),261627PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261628PM,SAS2024TH@,DIAH KOMALA SARI, (XI PM),261628PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261629PM,SAS2024TH@,DIANA PUTRI, (XI PM),261629PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261630PM,SAS2024TH@,ENGGAR NANDA SAPUTRA, (XI PM),261630PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261631PM,SAS2024TH@,EVI FEBRIYANI, (XI PM),261631PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261632PM,SAS2024TH@,FAUZAN JABAHNUR, (XI PM),261632PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261633PM,SAS2024TH@,FAUZI GHOZALI, (XI PM),261633PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261634PM,SAS2024TH@,FITRI ANDRIYANI, (XI PM),261634PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261635PM,SAS2024TH@,FRISCA ANGGITA RAHMADINA, (XI PM),261635PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261636PM,SAS2024TH@,FRISINTA EGI AHFATUROHMAH, (XI PM),261636PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261637PM,SAS2024TH@,GALANG ROMADHON, (XI PM),261637PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261638PM,SAS2024TH@,JEYAN SABILLI, (XI PM),261638PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261639PM,SAS2024TH@,M.RAFLI ANDIKA, (XI PM),261639PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261640PM,SAS2024TH@,MISEL MONIKA FEYBIOLA, (XI PM),261640PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261641PM,SAS2024TH@,MOHAMMAD RIF'AN KHOLILI, (XI PM),261641PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261642PM,SAS2024TH@,MUHAMAD AZIZ AL BUKHORY, (XI PM),261642PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261643PM,SAS2024TH@,MUHAMAD ILMAN ZIDNI, (XI PM),261643PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261644PM,SAS2024TH@,MUHAMMAD HAQQIN NAZILI, (XI PM),261644PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261645PM,SAS2024TH@,MUHAMMAD RASYA, (XI PM),261645PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261646PM,SAS2024TH@,MUHAMMAD RIDWAN, (XI PM),261646PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261647PM,SAS2024TH@,NADIA SANDRA PRATIWI, (XI PM),261647PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261648PM,SAS2024TH@,NEIVIELL OLIVIA TJONG, (XI PM),261648PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261649PM,SAS2024TH@,NETI PRIYANA, (XI PM),261649PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261650PM,SAS2024TH@,NEYSAH DHEA PUTRI, (XI PM),261650PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261651PM,SAS2024TH@,NOVA RIANSAH, (XI PM),261651PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261652PM,SAS2024TH@,NURUL MULYANI, (XI PM),261652PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261653PM,SAS2024TH@,PUTRI NIANSYAH HANDAYANI, (XI PM),261653PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261654PM,SAS2024TH@,RAHAYU NOVITA LESTARI, (XI PM),261654PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261655PM,SAS2024TH@,RIFQI MAYZA DWI SAPUTRA, (XI PM),261655PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261656PM,SAS2024TH@,RISKI, (XI PM),261656PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261657PM,SAS2024TH@,ROMLAH SULISTIOWATI, (XI PM),261657PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261658PM,SAS2024TH@,SAHRUL ARIPIN, (XI PM),261658PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261659PM,SAS2024TH@,SENDY EKA FAJRIANSYAH, (XI PM),261659PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261660PM,SAS2024TH@,SUCI RAHMA WATI, (XI PM),261660PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261661PM,SAS2024TH@,YUDHA ADI WIJAYA, (XI PM),261661PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261662PM,SAS2024TH@,ZAKY RADITYA SUSANTA, (XI PM),261662PM@gmail.com,XI PM</t>
+  </si>
+  <si>
+    <t>261663TJKT,SAS2024TH@,ACHMAD ZAENI ALIFIANSYAH, (XI TJKT 1),261663TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261664TJKT,SAS2024TH@,ADE FEBIYAN, (XI TJKT 1),261664TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261665TJKT,SAS2024TH@,AKBAR MAULANA, (XI TJKT 1),261665TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261666TJKT,SAS2024TH@,ALDI FIRMAN SYAH, (XI TJKT 1),261666TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261667TJKT,SAS2024TH@,ALEX REVALDO, (XI TJKT 1),261667TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261668TJKT,SAS2024TH@,ALFINTER RICO PARNINGOTAN, (XI TJKT 1),261668TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261669TJKT,SAS2024TH@,ALVIAN DWI SASONGKO, (XI TJKT 1),261669TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261670TJKT,SAS2024TH@,AMSAL LEONARDO TOBING, (XI TJKT 1),261670TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261671TJKT,SAS2024TH@,BAYU SULTAN, (XI TJKT 1),261671TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261672TJKT,SAS2024TH@,DAFFA FADLIL AFAN, (XI TJKT 1),261672TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261673TJKT,SAS2024TH@,DESTEFANO ADAM REIVAND, (XI TJKT 1),261673TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261674TJKT,SAS2024TH@,DIMAS PRAYUDI, (XI TJKT 1),261674TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261675TJKT,SAS2024TH@,DYMAS PANJI PANGESTU, (XI TJKT 1),261675TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261676TJKT,SAS2024TH@,EGY HARDIANSYAH, (XI TJKT 1),261676TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261677TJKT,SAS2024TH@,EVANDRA GUSTI RAHARJO, (XI TJKT 1),261677TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261678TJKT,SAS2024TH@,FADHIL FARIZI AZIZ, (XI TJKT 1),261678TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261679TJKT,SAS2024TH@,FAISSAL ARMANTO, (XI TJKT 1),261679TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261680TJKT,SAS2024TH@,FAREL AFIATUSADID AHMAD, (XI TJKT 1),261680TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261681TJKT,SAS2024TH@,FEBRIO SAMMY NUGRAHA, (XI TJKT 1),261681TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261682TJKT,SAS2024TH@,HERNAN BUDI LAKSNA, (XI TJKT 1),261682TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261683TJKT,SAS2024TH@,ILHAM SAHRUL HASAN, (XI TJKT 1),261683TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261684TJKT,SAS2024TH@,IMAM SURYO SUCIPTO, (XI TJKT 1),261684TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261685TJKT,SAS2024TH@,INTAN ANGGELIA PUTRI, (XI TJKT 1),261685TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261686TJKT,SAS2024TH@,JAFAR UMAR THALIB AL GHIFARI, (XI TJKT 1),261686TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261687TJKT,SAS2024TH@,KLIWLY KASMALA HERMAWAN, (XI TJKT 1),261687TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261688TJKT,SAS2024TH@,MONICA JULIANA, (XI TJKT 1),261688TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261689TJKT,SAS2024TH@,MUHAMAD AZRIL IHSANI, (XI TJKT 1),261689TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261690TJKT,SAS2024TH@,MUHAMAD FERDI LESMANA, (XI TJKT 1),261690TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261691TJKT,SAS2024TH@,MUHAMAD ZAKI SAPUTRA, (XI TJKT 1),261691TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261692TJKT,SAS2024TH@,MUHAMMAD BAGAS FEBRIANSYAH, (XI TJKT 1),261692TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261693TJKT,SAS2024TH@,MUHAMMAD FAISHAL, (XI TJKT 1),261693TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261694TJKT,SAS2024TH@,MUHAMMAD ILFAN MAULANA, (XI TJKT 1),261694TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261695TJKT,SAS2024TH@,MUHAMMAD ILHAM, (XI TJKT 1),261695TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261696TJKT,SAS2024TH@,MUHAMMAD NAUFAL MAHDI, (XI TJKT 1),261696TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261697TJKT,SAS2024TH@,MUHAMMAD RAHMAT DANI, (XI TJKT 1),261697TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261698TJKT,SAS2024TH@,NUGI SATRIA, (XI TJKT 1),261698TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261699TJKT,SAS2024TH@,NUR AJI INDRA MAULANA, (XI TJKT 1),261699TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261700TJKT,SAS2024TH@,RADITYA SELWA NOVA, (XI TJKT 1),261700TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261701TJKT,SAS2024TH@,RAMA WIGUNA, (XI TJKT 1),261701TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261702TJKT,SAS2024TH@,RENDY ARDIANSYAH, (XI TJKT 1),261702TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261703TJKT,SAS2024TH@,RIFA GLAND ALINSKIE, (XI TJKT 1),261703TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261704TJKT,SAS2024TH@,RIKY ARYA SAPUTRO, (XI TJKT 1),261704TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261705TJKT,SAS2024TH@,SHAHIBUR RIDWAN, (XI TJKT 1),261705TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261706TJKT,SAS2024TH@,WAHYU ANJAR SETIAWAN, (XI TJKT 1),261706TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261707TJKT,SAS2024TH@,ZAKY ADRIAN FERNANDO, (XI TJKT 1),261707TJKT@gmail.com,XI TJKT 1</t>
+  </si>
+  <si>
+    <t>261708TJKT,SAS2024TH@,ADI SAPUTRA, (XI TJKT 2),261708TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261709TJKT,SAS2024TH@,ADI SETYO GUNAWAN, (XI TJKT 2),261709TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261710TJKT,SAS2024TH@,AFRIZA HARDIANTO SAPUTRA, (XI TJKT 2),261710TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261711TJKT,SAS2024TH@,AHMAD ADRIAN PRATAMA, (XI TJKT 2),261711TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261712TJKT,SAS2024TH@,AJI ILHAM, (XI TJKT 2),261712TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261713TJKT,SAS2024TH@,ANGGI ARDIYANSAH, (XI TJKT 2),261713TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261714TJKT,SAS2024TH@,ANZANI PESTA JUWITA NAIBAHO, (XI TJKT 2),261714TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261715TJKT,SAS2024TH@,ARYA NURKHOLIK, (XI TJKT 2),261715TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261716TJKT,SAS2024TH@,BAGAS DWI PRAYOGA, (XI TJKT 2),261716TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261717TJKT,SAS2024TH@,BAYU FIRGIAWAN LISTANTO, (XI TJKT 2),261717TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261718TJKT,SAS2024TH@,DAFFA ANGGARA RADITYA, (XI TJKT 2),261718TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261719TJKT,SAS2024TH@,ERLAND SBASTIAN GUNAWAN, (XI TJKT 2),261719TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261720TJKT,SAS2024TH@,FARIS AHMAD RIFQY, (XI TJKT 2),261720TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261721TJKT,SAS2024TH@,FAYAD HAWARI, (XI TJKT 2),261721TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261722TJKT,SAS2024TH@,GILANG MUHADZIB, (XI TJKT 2),261722TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261723TJKT,SAS2024TH@,IBNU BACTIAR GULTOM, (XI TJKT 2),261723TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261724TJKT,SAS2024TH@,IKFANSYAH, (XI TJKT 2),261724TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261725TJKT,SAS2024TH@,IKHSAN NURRIZKY, (XI TJKT 2),261725TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261726TJKT,SAS2024TH@,JONATHAN IGBAL PUTRA, (XI TJKT 2),261726TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261727TJKT,SAS2024TH@,LEFI NURYANDI, (XI TJKT 2),261727TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261728TJKT,SAS2024TH@,MERLINA EVELYN, (XI TJKT 2),261728TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261729TJKT,SAS2024TH@,MUHAMAD RISKI, (XI TJKT 2),261729TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261730TJKT,SAS2024TH@,MUHAMAD SYAISAR RAMADHAN, (XI TJKT 2),261730TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261731TJKT,SAS2024TH@,MUHAMMAD ADRIANSYAH, (XI TJKT 2),261731TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261732TJKT,SAS2024TH@,MUHAMMAD GILANG RADITIYA, (XI TJKT 2),261732TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261733TJKT,SAS2024TH@,MUHAMMAD RIZKI SAPUTRA, (XI TJKT 2),261733TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261734TJKT,SAS2024TH@,MUHAMMAD SAEFULAH, (XI TJKT 2),261734TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261735TJKT,SAS2024TH@,NAUKY BAGUS PRATAMA, (XI TJKT 2),261735TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261736TJKT,SAS2024TH@,NUR AWAL SANTOSO, (XI TJKT 2),261736TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261737TJKT,SAS2024TH@,RADIT SYAHPUTRA, (XI TJKT 2),261737TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261738TJKT,SAS2024TH@,RAFFI PRASETIA, (XI TJKT 2),261738TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261739TJKT,SAS2024TH@,RAHMANDANI, (XI TJKT 2),261739TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261740TJKT,SAS2024TH@,RENDI IRWANSYAH, (XI TJKT 2),261740TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261741TJKT,SAS2024TH@,RENDY PUTRA AFIA, (XI TJKT 2),261741TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261742TJKT,SAS2024TH@,RIZKY KURNIAWAN, (XI TJKT 2),261742TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261743TJKT,SAS2024TH@,RIZQI MARDIANSYAH, (XI TJKT 2),261743TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261744TJKT,SAS2024TH@,ROMI CANDRA WINATA, (XI TJKT 2),261744TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261745TJKT,SAS2024TH@,SHERIL ARDIKA ASSHAWA, (XI TJKT 2),261745TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261746TJKT,SAS2024TH@,SONI SAPUTRA, (XI TJKT 2),261746TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261747TJKT,SAS2024TH@,SYAHDANI AGUSTIO, (XI TJKT 2),261747TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261748TJKT,SAS2024TH@,WIKO RIPANDA PUTRA, (XI TJKT 2),261748TJKT@gmail.com,XI TJKT 2</t>
+  </si>
+  <si>
+    <t>261749TJKT,SAS2024TH@,ADE RAFLI, (XI TJKT 3),261749TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261750TJKT,SAS2024TH@,AGUNG NUR RISKI, (XI TJKT 3),261750TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261751TJKT,SAS2024TH@,AHMAD ABIDZAR RIFA'I, (XI TJKT 3),261751TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261752TJKT,SAS2024TH@,AHMAD EKA PRATAMA, (XI TJKT 3),261752TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261753TJKT,SAS2024TH@,AHMAD HAERUL HADI, (XI TJKT 3),261753TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261754TJKT,SAS2024TH@,BAGAS SADEWO JATI, (XI TJKT 3),261754TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261755TJKT,SAS2024TH@,DIMAS SAPUTRA, (XI TJKT 3),261755TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261756TJKT,SAS2024TH@,DWI ADI NUGROHO, (XI TJKT 3),261756TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261757TJKT,SAS2024TH@,ERIK YOGA PRATAMA, (XI TJKT 3),261757TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261758TJKT,SAS2024TH@,ERLANGGA SAPUTRA, (XI TJKT 3),261758TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261759TJKT,SAS2024TH@,EVAN TRILYANTO, (XI TJKT 3),261759TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261760TJKT,SAS2024TH@,FADHIL KURNIAWAN, (XI TJKT 3),261760TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261761TJKT,SAS2024TH@,FAHMI WIJAYA, (XI TJKT 3),261761TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261762TJKT,SAS2024TH@,FASKALIS HAMBALLAH AKBAR, (XI TJKT 3),261762TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261763TJKT,SAS2024TH@,FAZA ZAHIDAN, (XI TJKT 3),261763TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261764TJKT,SAS2024TH@,GALIH ADI APRIANSYAH, (XI TJKT 3),261764TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261765TJKT,SAS2024TH@,IBNU BASUNJAY, (XI TJKT 3),261765TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261766TJKT,SAS2024TH@,IBRA HAFIZH HERMAWAN, (XI TJKT 3),261766TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261767TJKT,SAS2024TH@,IRWAN SURYANATA, (XI TJKT 3),261767TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261768TJKT,SAS2024TH@,LUTFIANSYAH ALFAHREZI, (XI TJKT 3),261768TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261769TJKT,SAS2024TH@,MAULANA ISHAQ, (XI TJKT 3),261769TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261770TJKT,SAS2024TH@,MAULANA SANJAYA, (XI TJKT 3),261770TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261771TJKT,SAS2024TH@,MOHAMMAD FAIZ SHALIHIN, (XI TJKT 3),261771TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261772TJKT,SAS2024TH@,MUHAMAD IQBAL AL FAREZI, (XI TJKT 3),261772TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261773TJKT,SAS2024TH@,MUHAMMAD ARMAN MALIKI, (XI TJKT 3),261773TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261774TJKT,SAS2024TH@,MUHAMMAD CHOIRUL HAMZAH, (XI TJKT 3),261774TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261775TJKT,SAS2024TH@,MUHAMMAD FADIL, (XI TJKT 3),261775TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261776TJKT,SAS2024TH@,MUHAMMAD HAIKHAL RAMDHANI, (XI TJKT 3),261776TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261777TJKT,SAS2024TH@,MUHAMMAD RAIHAN, (XI TJKT 3),261777TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261778TJKT,SAS2024TH@,NASYIFA ADINDA, (XI TJKT 3),261778TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261779TJKT,SAS2024TH@,NOREEN TRIPUTRA, (XI TJKT 3),261779TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261780TJKT,SAS2024TH@,PUTRA RASIET ANDRIANSYAH PRATAMA, (XI TJKT 3),261780TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261781TJKT,SAS2024TH@,RADITYA PUTRA HARSYAH, (XI TJKT 3),261781TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261782TJKT,SAS2024TH@,RADJA HIDAYAT, (XI TJKT 3),261782TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261783TJKT,SAS2024TH@,RAIHAN PUTRA LESMANA, (XI TJKT 3),261783TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261784TJKT,SAS2024TH@,RAKAN WIJAYA NENDRA, (XI TJKT 3),261784TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261785TJKT,SAS2024TH@,RASYA BAGUS GUNAWAN, (XI TJKT 3),261785TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261786TJKT,SAS2024TH@,RIDWAN SAPUTRA, (XI TJKT 3),261786TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261787TJKT,SAS2024TH@,RIZAL NURIYANTO, (XI TJKT 3),261787TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261788TJKT,SAS2024TH@,RIZKI FATIH AKMAL, (XI TJKT 3),261788TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261789TJKT,SAS2024TH@,RIZKY RAHMADAN FALIFI, (XI TJKT 3),261789TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261790TJKT,SAS2024TH@,ZAKI NURSYAHMAN, (XI TJKT 3),261790TJKT@gmail.com,XI TJKT 3</t>
+  </si>
+  <si>
+    <t>261791PM,SAS2024TH@,DEJAVU PUTRI EREN, (XI PM),261791PM@gmail.com,XI PM</t>
   </si>
 </sst>
 </file>
@@ -2785,7 +2785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979F1E54-0C4D-3440-89E4-D641D164212B}">
   <dimension ref="A1:A792"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A792"/>
     </sheetView>
   </sheetViews>
